--- a/app-server/src/main/resources/2021_sessions.xlsx
+++ b/app-server/src/main/resources/2021_sessions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/Downloads/cloudhubs/sac2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21074BF6-D149-8743-8A4E-CE7FEB1A8F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A0B61-6364-FA47-9AE9-4428C33EAFF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session Chairs" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="638">
   <si>
     <t>Host</t>
   </si>
@@ -1491,9 +1491,6 @@
   </si>
   <si>
     <t>andrea.pedrotti@isti.cnr.it</t>
-  </si>
-  <si>
-    <t>1337 (SONAMA)</t>
   </si>
   <si>
     <t>Maurizio Leotta</t>
@@ -2429,29 +2426,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4271,7 +4268,7 @@
         <v>44278</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>114</v>
@@ -4321,7 +4318,7 @@
         <v>44278</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>114</v>
@@ -4365,13 +4362,13 @@
         <v>44278</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F48" s="10">
         <v>44278</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>119</v>
@@ -4409,13 +4406,13 @@
         <v>44278</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F49" s="10">
         <v>44278</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>119</v>
@@ -4453,13 +4450,13 @@
         <v>44278</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F50" s="10">
         <v>44278</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>30</v>
@@ -4503,13 +4500,13 @@
         <v>44278</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F51" s="10">
         <v>44279</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>30</v>
@@ -4553,13 +4550,13 @@
         <v>44278</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F52" s="10">
         <v>44278</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>30</v>
@@ -4603,13 +4600,13 @@
         <v>44279</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F53" s="10">
         <v>44279</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>30</v>
@@ -4689,7 +4686,7 @@
         <v>44278</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>123</v>
@@ -4739,7 +4736,7 @@
         <v>44278</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>123</v>
@@ -4783,13 +4780,13 @@
         <v>44278</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F57" s="10">
         <v>44278</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>127</v>
@@ -4841,13 +4838,13 @@
         <v>44278</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F58" s="10">
         <v>44278</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>127</v>
@@ -4899,13 +4896,13 @@
         <v>44278</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F59" s="10">
         <v>44278</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>135</v>
@@ -4959,13 +4956,13 @@
         <v>44278</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F60" s="10">
         <v>44279</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>135</v>
@@ -5019,13 +5016,13 @@
         <v>44278</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F61" s="10">
         <v>44278</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>144</v>
@@ -5072,13 +5069,13 @@
         <v>44279</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F62" s="10">
         <v>44279</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>144</v>
@@ -5162,7 +5159,7 @@
         <v>44278</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>30</v>
@@ -5212,7 +5209,7 @@
         <v>44278</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>30</v>
@@ -5256,13 +5253,13 @@
         <v>44278</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F66" s="10">
         <v>44278</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>30</v>
@@ -5306,13 +5303,13 @@
         <v>44278</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F67" s="10">
         <v>44278</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>30</v>
@@ -5356,13 +5353,13 @@
         <v>44278</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F68" s="10">
         <v>44278</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>154</v>
@@ -5414,13 +5411,13 @@
         <v>44278</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F69" s="10">
         <v>44279</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>154</v>
@@ -5472,13 +5469,13 @@
         <v>44278</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F70" s="10">
         <v>44278</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>160</v>
@@ -5530,13 +5527,13 @@
         <v>44279</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F71" s="10">
         <v>44279</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>160</v>
@@ -5624,7 +5621,7 @@
         <v>44278</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>167</v>
@@ -5674,7 +5671,7 @@
         <v>44278</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>167</v>
@@ -5718,13 +5715,13 @@
         <v>44278</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F75" s="10">
         <v>44278</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>169</v>
@@ -5768,13 +5765,13 @@
         <v>44278</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F76" s="10">
         <v>44278</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>169</v>
@@ -5818,13 +5815,13 @@
         <v>44278</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F77" s="10">
         <v>44278</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>172</v>
@@ -5876,13 +5873,13 @@
         <v>44278</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F78" s="10">
         <v>44279</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>172</v>
@@ -5934,13 +5931,13 @@
         <v>44278</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F79" s="10">
         <v>44278</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>179</v>
@@ -5988,13 +5985,13 @@
         <v>44279</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F80" s="10">
         <v>44279</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>179</v>
@@ -6078,7 +6075,7 @@
         <v>44278</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>184</v>
@@ -6132,7 +6129,7 @@
         <v>44278</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>184</v>
@@ -6178,13 +6175,13 @@
         <v>44278</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F84" s="10">
         <v>44278</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>188</v>
@@ -6236,13 +6233,13 @@
         <v>44278</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F85" s="10">
         <v>44278</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>188</v>
@@ -6294,13 +6291,13 @@
         <v>44278</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F86" s="10">
         <v>44278</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>192</v>
@@ -6352,13 +6349,13 @@
         <v>44278</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F87" s="10">
         <v>44279</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>192</v>
@@ -6410,13 +6407,13 @@
         <v>44278</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F88" s="10">
         <v>44278</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>192</v>
@@ -6454,13 +6451,13 @@
         <v>44279</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F89" s="10">
         <v>44279</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>192</v>
@@ -6620,7 +6617,7 @@
         <v>44279</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>135</v>
@@ -6680,7 +6677,7 @@
         <v>44279</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>135</v>
@@ -6732,13 +6729,13 @@
         <v>44279</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F96" s="10">
         <v>44279</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>213</v>
@@ -6788,13 +6785,13 @@
         <v>44279</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F97" s="10">
         <v>44279</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>213</v>
@@ -6844,13 +6841,13 @@
         <v>44279</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F98" s="10">
         <v>44279</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>218</v>
@@ -6894,13 +6891,13 @@
         <v>44279</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F99" s="10">
         <v>44280</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>218</v>
@@ -6944,13 +6941,13 @@
         <v>44279</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F100" s="10">
         <v>44279</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>221</v>
@@ -7002,13 +6999,13 @@
         <v>44280</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F101" s="10">
         <v>44280</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>221</v>
@@ -7096,7 +7093,7 @@
         <v>44279</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H103" s="29" t="s">
         <v>232</v>
@@ -7150,7 +7147,7 @@
         <v>44279</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H104" s="29" t="s">
         <v>232</v>
@@ -7198,13 +7195,13 @@
         <v>44279</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F105" s="10">
         <v>44279</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>237</v>
@@ -7248,13 +7245,13 @@
         <v>44279</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F106" s="10">
         <v>44279</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>237</v>
@@ -7298,13 +7295,13 @@
         <v>44279</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F107" s="10">
         <v>44279</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>240</v>
@@ -7348,13 +7345,13 @@
         <v>44279</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F108" s="10">
         <v>44280</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>240</v>
@@ -7398,13 +7395,13 @@
         <v>44279</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F109" s="10">
         <v>44279</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>243</v>
@@ -7456,13 +7453,13 @@
         <v>44280</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F110" s="10">
         <v>44280</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>243</v>
@@ -7550,7 +7547,7 @@
         <v>44279</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>251</v>
@@ -7600,7 +7597,7 @@
         <v>44279</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>251</v>
@@ -7644,13 +7641,13 @@
         <v>44279</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F114" s="10">
         <v>44279</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>255</v>
@@ -7694,13 +7691,13 @@
         <v>44279</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F115" s="10">
         <v>44279</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>255</v>
@@ -7744,13 +7741,13 @@
         <v>44279</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F116" s="10">
         <v>44279</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>257</v>
@@ -7794,13 +7791,13 @@
         <v>44279</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F117" s="10">
         <v>44280</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>257</v>
@@ -7844,13 +7841,13 @@
         <v>44279</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F118" s="10">
         <v>44279</v>
       </c>
       <c r="G118" s="31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>258</v>
@@ -7900,13 +7897,13 @@
         <v>44280</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F119" s="10">
         <v>44280</v>
       </c>
       <c r="G119" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>258</v>
@@ -7992,7 +7989,7 @@
         <v>44279</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>81</v>
@@ -8042,7 +8039,7 @@
         <v>44279</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>81</v>
@@ -8086,13 +8083,13 @@
         <v>44279</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F123" s="10">
         <v>44279</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>268</v>
@@ -8140,13 +8137,13 @@
         <v>44279</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F124" s="10">
         <v>44279</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>268</v>
@@ -8194,13 +8191,13 @@
         <v>44279</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F125" s="10">
         <v>44279</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>251</v>
@@ -8244,13 +8241,13 @@
         <v>44279</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F126" s="10">
         <v>44280</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>251</v>
@@ -8294,13 +8291,13 @@
         <v>44279</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F127" s="10">
         <v>44279</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>251</v>
@@ -8344,13 +8341,13 @@
         <v>44280</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F128" s="10">
         <v>44280</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>251</v>
@@ -8430,7 +8427,7 @@
         <v>44279</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>274</v>
@@ -8488,7 +8485,7 @@
         <v>44279</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>274</v>
@@ -8540,13 +8537,13 @@
         <v>44279</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F132" s="10">
         <v>44279</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>279</v>
@@ -8590,13 +8587,13 @@
         <v>44279</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F133" s="10">
         <v>44279</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>279</v>
@@ -8640,13 +8637,13 @@
         <v>44279</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F134" s="10">
         <v>44279</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>283</v>
@@ -8694,13 +8691,13 @@
         <v>44279</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F135" s="10">
         <v>44280</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>283</v>
@@ -8748,13 +8745,13 @@
         <v>44279</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F136" s="10">
         <v>44279</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>283</v>
@@ -8802,13 +8799,13 @@
         <v>44280</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F137" s="10">
         <v>44280</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>283</v>
@@ -12746,10 +12743,10 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -12790,31 +12787,31 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="91" t="s">
         <v>372</v>
       </c>
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
       <c r="L1" s="81"/>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="91" t="s">
         <v>373</v>
       </c>
       <c r="N1" s="81"/>
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="91" t="s">
         <v>374</v>
       </c>
       <c r="R1" s="81"/>
       <c r="S1" s="81"/>
       <c r="T1" s="81"/>
-      <c r="U1" s="84" t="s">
+      <c r="U1" s="91" t="s">
         <v>375</v>
       </c>
       <c r="V1" s="81"/>
       <c r="W1" s="81"/>
       <c r="X1" s="81"/>
-      <c r="Y1" s="84" t="s">
+      <c r="Y1" s="91" t="s">
         <v>376</v>
       </c>
       <c r="Z1" s="81"/>
@@ -12947,8 +12944,8 @@
       <c r="H4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="85" t="s">
-        <v>24</v>
+      <c r="I4" s="89">
+        <v>9991</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>380</v>
@@ -13459,7 +13456,7 @@
       <c r="H21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="86">
+      <c r="I21" s="88">
         <v>1216</v>
       </c>
       <c r="J21" s="53" t="s">
@@ -13471,7 +13468,7 @@
       <c r="L21" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="M21" s="86">
+      <c r="M21" s="88">
         <v>1218</v>
       </c>
       <c r="N21" s="53" t="s">
@@ -13483,7 +13480,7 @@
       <c r="P21" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="Q21" s="86">
+      <c r="Q21" s="88">
         <v>1368</v>
       </c>
       <c r="R21" s="53" t="s">
@@ -13495,7 +13492,7 @@
       <c r="T21" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="U21" s="86">
+      <c r="U21" s="88">
         <v>1433</v>
       </c>
       <c r="V21" s="53" t="s">
@@ -13601,7 +13598,7 @@
       <c r="H23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="88">
         <v>1147</v>
       </c>
       <c r="J23" s="53" t="s">
@@ -14356,9 +14353,9 @@
         <v>44278</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>623</v>
-      </c>
-      <c r="I46" s="86">
+        <v>622</v>
+      </c>
+      <c r="I46" s="88">
         <v>1691</v>
       </c>
       <c r="J46" s="55" t="s">
@@ -14370,7 +14367,7 @@
       <c r="L46" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="M46" s="86">
+      <c r="M46" s="88">
         <v>1017</v>
       </c>
       <c r="N46" s="56" t="s">
@@ -14380,7 +14377,7 @@
         <v>407</v>
       </c>
       <c r="P46" s="56"/>
-      <c r="Q46" s="86">
+      <c r="Q46" s="88">
         <v>1410</v>
       </c>
       <c r="R46" s="56" t="s">
@@ -14415,7 +14412,7 @@
         <v>44278</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I47" s="81"/>
       <c r="J47" s="55" t="s">
@@ -14462,13 +14459,13 @@
         <v>44278</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G48" s="50">
         <v>44278</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I48" s="83"/>
       <c r="M48" s="83"/>
@@ -14493,13 +14490,13 @@
         <v>44278</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G49" s="50">
         <v>44278</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I49" s="81"/>
       <c r="M49" s="81"/>
@@ -14524,13 +14521,13 @@
         <v>44278</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G50" s="50">
         <v>44278</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I50" s="83"/>
       <c r="M50" s="83"/>
@@ -14555,13 +14552,13 @@
         <v>44278</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G51" s="50">
         <v>44279</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I51" s="81"/>
       <c r="M51" s="81"/>
@@ -14586,13 +14583,13 @@
         <v>44278</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G52" s="50">
         <v>44278</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I52" s="83"/>
       <c r="M52" s="83"/>
@@ -14617,13 +14614,13 @@
         <v>44279</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G53" s="50">
         <v>44279</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I53" s="81"/>
       <c r="M53" s="81"/>
@@ -14678,11 +14675,11 @@
         <v>44278</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I55" s="83"/>
       <c r="M55" s="83"/>
-      <c r="Q55" s="90">
+      <c r="Q55" s="84">
         <v>1348</v>
       </c>
       <c r="R55" s="57" t="s">
@@ -14720,7 +14717,7 @@
         <v>44278</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I56" s="81"/>
       <c r="M56" s="81"/>
@@ -14754,13 +14751,13 @@
         <v>44278</v>
       </c>
       <c r="F57" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G57" s="50">
         <v>44278</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I57" s="87">
         <v>1647</v>
@@ -14807,13 +14804,13 @@
         <v>44278</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G58" s="50">
         <v>44278</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I58" s="81"/>
       <c r="J58" s="60" t="s">
@@ -14856,13 +14853,13 @@
         <v>44278</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G59" s="50">
         <v>44278</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I59" s="83"/>
       <c r="M59" s="83"/>
@@ -14887,13 +14884,13 @@
         <v>44278</v>
       </c>
       <c r="F60" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G60" s="50">
         <v>44279</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I60" s="81"/>
       <c r="M60" s="81"/>
@@ -14918,13 +14915,13 @@
         <v>44278</v>
       </c>
       <c r="F61" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G61" s="50">
         <v>44278</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I61" s="83">
         <v>1774</v>
@@ -14971,13 +14968,13 @@
         <v>44279</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G62" s="50">
         <v>44279</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I62" s="81"/>
       <c r="M62" s="51"/>
@@ -15032,7 +15029,7 @@
         <v>44278</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I64" s="83"/>
       <c r="M64" s="83"/>
@@ -15063,7 +15060,7 @@
         <v>44278</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I65" s="81"/>
       <c r="M65" s="81"/>
@@ -15088,13 +15085,13 @@
         <v>44278</v>
       </c>
       <c r="F66" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G66" s="50">
         <v>44278</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I66" s="83"/>
       <c r="M66" s="83"/>
@@ -15119,13 +15116,13 @@
         <v>44278</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G67" s="50">
         <v>44278</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I67" s="81"/>
       <c r="M67" s="81"/>
@@ -15150,13 +15147,13 @@
         <v>44278</v>
       </c>
       <c r="F68" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G68" s="50">
         <v>44278</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I68" s="83">
         <v>1176</v>
@@ -15225,13 +15222,13 @@
         <v>44278</v>
       </c>
       <c r="F69" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G69" s="50">
         <v>44279</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I69" s="81"/>
       <c r="M69" s="81"/>
@@ -15256,13 +15253,13 @@
         <v>44278</v>
       </c>
       <c r="F70" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G70" s="50">
         <v>44278</v>
       </c>
       <c r="H70" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I70" s="83">
         <v>1219</v>
@@ -15295,13 +15292,13 @@
         <v>44279</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G71" s="50">
         <v>44279</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I71" s="81"/>
       <c r="M71" s="81"/>
@@ -15356,7 +15353,7 @@
         <v>44278</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I73" s="83"/>
       <c r="M73" s="83"/>
@@ -15387,7 +15384,7 @@
         <v>44278</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I74" s="81"/>
       <c r="M74" s="81"/>
@@ -15412,13 +15409,13 @@
         <v>44278</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G75" s="50">
         <v>44278</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I75" s="83">
         <v>1133</v>
@@ -15450,13 +15447,13 @@
         <v>44278</v>
       </c>
       <c r="F76" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G76" s="50">
         <v>44278</v>
       </c>
       <c r="H76" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I76" s="81"/>
       <c r="J76" s="62"/>
@@ -15491,13 +15488,13 @@
         <v>44278</v>
       </c>
       <c r="F77" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G77" s="50">
         <v>44278</v>
       </c>
       <c r="H77" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I77" s="83">
         <v>1047</v>
@@ -15566,13 +15563,13 @@
         <v>44278</v>
       </c>
       <c r="F78" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G78" s="50">
         <v>44279</v>
       </c>
       <c r="H78" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I78" s="81"/>
       <c r="J78" s="13" t="s">
@@ -15633,13 +15630,13 @@
         <v>44278</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G79" s="50">
         <v>44278</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I79" s="83"/>
       <c r="M79" s="83"/>
@@ -15664,13 +15661,13 @@
         <v>44279</v>
       </c>
       <c r="F80" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G80" s="50">
         <v>44279</v>
       </c>
       <c r="H80" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I80" s="81"/>
       <c r="M80" s="81"/>
@@ -15725,7 +15722,7 @@
         <v>44278</v>
       </c>
       <c r="H82" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I82" s="83"/>
       <c r="M82" s="83"/>
@@ -15756,7 +15753,7 @@
         <v>44278</v>
       </c>
       <c r="H83" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I83" s="81"/>
       <c r="M83" s="81"/>
@@ -15781,13 +15778,13 @@
         <v>44278</v>
       </c>
       <c r="F84" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G84" s="50">
         <v>44278</v>
       </c>
       <c r="H84" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I84" s="83">
         <v>1127</v>
@@ -15813,14 +15810,14 @@
       <c r="P84" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="Q84" s="83" t="s">
+      <c r="Q84" s="83">
+        <v>1337</v>
+      </c>
+      <c r="R84" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="R84" s="13" t="s">
+      <c r="S84" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="S84" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="T84" s="39" t="s">
         <v>330</v>
@@ -15845,13 +15842,13 @@
         <v>44278</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G85" s="50">
         <v>44278</v>
       </c>
       <c r="H85" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I85" s="81"/>
       <c r="J85" s="13" t="s">
@@ -15875,10 +15872,10 @@
       </c>
       <c r="Q85" s="81"/>
       <c r="R85" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="S85" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="S85" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="T85" s="64" t="s">
         <v>330</v>
@@ -15903,22 +15900,22 @@
         <v>44278</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G86" s="50">
         <v>44278</v>
       </c>
       <c r="H86" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I86" s="87">
         <v>1563</v>
       </c>
       <c r="J86" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="K86" s="23" t="s">
         <v>459</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>460</v>
       </c>
       <c r="L86" s="28" t="s">
         <v>194</v>
@@ -15927,10 +15924,10 @@
         <v>1402</v>
       </c>
       <c r="N86" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="O86" s="23" t="s">
         <v>461</v>
-      </c>
-      <c r="O86" s="23" t="s">
-        <v>462</v>
       </c>
       <c r="P86" s="28" t="s">
         <v>196</v>
@@ -15939,13 +15936,13 @@
         <v>1263</v>
       </c>
       <c r="R86" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="S86" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="S86" s="23" t="s">
+      <c r="T86" s="23" t="s">
         <v>464</v>
-      </c>
-      <c r="T86" s="23" t="s">
-        <v>465</v>
       </c>
       <c r="U86" s="83"/>
       <c r="Y86" s="83"/>
@@ -15967,43 +15964,43 @@
         <v>44278</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G87" s="50">
         <v>44279</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I87" s="81"/>
       <c r="J87" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="K87" s="23" t="s">
         <v>459</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>460</v>
       </c>
       <c r="L87" s="28" t="s">
         <v>194</v>
       </c>
       <c r="M87" s="81"/>
       <c r="N87" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="O87" s="23" t="s">
         <v>461</v>
-      </c>
-      <c r="O87" s="23" t="s">
-        <v>462</v>
       </c>
       <c r="P87" s="28" t="s">
         <v>196</v>
       </c>
       <c r="Q87" s="81"/>
       <c r="R87" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="S87" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="S87" s="23" t="s">
+      <c r="T87" s="23" t="s">
         <v>464</v>
-      </c>
-      <c r="T87" s="23" t="s">
-        <v>465</v>
       </c>
       <c r="U87" s="81"/>
       <c r="Y87" s="81"/>
@@ -16025,22 +16022,22 @@
         <v>44278</v>
       </c>
       <c r="F88" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G88" s="50">
         <v>44278</v>
       </c>
       <c r="H88" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I88" s="87">
         <v>1591</v>
       </c>
       <c r="J88" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="K88" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="K88" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="L88" s="28" t="s">
         <v>199</v>
@@ -16049,25 +16046,25 @@
         <v>1364</v>
       </c>
       <c r="N88" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="O88" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="O88" s="23" t="s">
+      <c r="P88" s="28" t="s">
         <v>469</v>
-      </c>
-      <c r="P88" s="28" t="s">
-        <v>470</v>
       </c>
       <c r="Q88" s="87">
         <v>1069</v>
       </c>
       <c r="R88" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="S88" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="S88" s="23" t="s">
+      <c r="T88" s="28" t="s">
         <v>472</v>
-      </c>
-      <c r="T88" s="28" t="s">
-        <v>473</v>
       </c>
       <c r="U88" s="83"/>
       <c r="Y88" s="83"/>
@@ -16089,43 +16086,43 @@
         <v>44279</v>
       </c>
       <c r="F89" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G89" s="50">
         <v>44279</v>
       </c>
       <c r="H89" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I89" s="81"/>
       <c r="J89" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="K89" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="K89" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="L89" s="28" t="s">
         <v>199</v>
       </c>
       <c r="M89" s="81"/>
       <c r="N89" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="O89" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="O89" s="23" t="s">
+      <c r="P89" s="28" t="s">
         <v>469</v>
-      </c>
-      <c r="P89" s="28" t="s">
-        <v>470</v>
       </c>
       <c r="Q89" s="81"/>
       <c r="R89" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="S89" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="S89" s="23" t="s">
+      <c r="T89" s="28" t="s">
         <v>472</v>
-      </c>
-      <c r="T89" s="28" t="s">
-        <v>473</v>
       </c>
       <c r="U89" s="81"/>
       <c r="Y89" s="81"/>
@@ -16254,7 +16251,7 @@
         <v>44279</v>
       </c>
       <c r="H94" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I94" s="83"/>
       <c r="M94" s="83"/>
@@ -16285,7 +16282,7 @@
         <v>44279</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I95" s="81"/>
       <c r="M95" s="81"/>
@@ -16310,13 +16307,13 @@
         <v>44279</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G96" s="50">
         <v>44279</v>
       </c>
       <c r="H96" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I96" s="83"/>
       <c r="M96" s="83"/>
@@ -16341,13 +16338,13 @@
         <v>44279</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G97" s="50">
         <v>44279</v>
       </c>
       <c r="H97" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I97" s="81"/>
       <c r="M97" s="81"/>
@@ -16372,61 +16369,61 @@
         <v>44279</v>
       </c>
       <c r="F98" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G98" s="50">
         <v>44279</v>
       </c>
       <c r="H98" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I98" s="83">
         <v>1541</v>
       </c>
       <c r="J98" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="K98" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="K98" s="11" t="s">
+      <c r="L98" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="M98" s="83">
         <v>1092</v>
       </c>
       <c r="N98" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="O98" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="P98" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="P98" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="Q98" s="83">
         <v>1375</v>
       </c>
       <c r="R98" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="S98" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="S98" s="11" t="s">
+      <c r="T98" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="T98" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="U98" s="83">
         <v>1558</v>
       </c>
       <c r="V98" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="W98" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="W98" s="11" t="s">
+      <c r="X98" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>485</v>
       </c>
       <c r="Y98" s="83"/>
     </row>
@@ -16447,53 +16444,53 @@
         <v>44279</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G99" s="50">
         <v>44280</v>
       </c>
       <c r="H99" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I99" s="81"/>
       <c r="J99" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="K99" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="L99" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="L99" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="M99" s="81"/>
       <c r="N99" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="O99" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="P99" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="P99" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="Q99" s="81"/>
       <c r="R99" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="S99" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="S99" s="11" t="s">
+      <c r="T99" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="T99" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="U99" s="81"/>
       <c r="V99" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="W99" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="W99" s="11" t="s">
+      <c r="X99" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>485</v>
       </c>
       <c r="Y99" s="81"/>
     </row>
@@ -16514,61 +16511,61 @@
         <v>44279</v>
       </c>
       <c r="F100" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G100" s="50">
         <v>44279</v>
       </c>
       <c r="H100" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I100" s="83">
         <v>1326</v>
       </c>
       <c r="J100" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="L100" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="M100" s="83">
         <v>1636</v>
       </c>
       <c r="N100" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="O100" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="P100" s="11" t="s">
         <v>490</v>
-      </c>
-      <c r="P100" s="11" t="s">
-        <v>491</v>
       </c>
       <c r="Q100" s="83">
         <v>1483</v>
       </c>
       <c r="R100" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="S100" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="S100" s="11" t="s">
+      <c r="T100" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="T100" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="U100" s="83">
         <v>1682</v>
       </c>
       <c r="V100" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="W100" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="W100" s="11" t="s">
+      <c r="X100" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="X100" s="11" t="s">
-        <v>497</v>
       </c>
       <c r="Y100" s="83"/>
     </row>
@@ -16589,53 +16586,53 @@
         <v>44280</v>
       </c>
       <c r="F101" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G101" s="50">
         <v>44280</v>
       </c>
       <c r="H101" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I101" s="81"/>
       <c r="J101" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="K101" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="L101" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="L101" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="M101" s="81"/>
       <c r="N101" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O101" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P101" s="11" t="s">
         <v>230</v>
       </c>
       <c r="Q101" s="81"/>
       <c r="R101" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="S101" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="S101" s="11" t="s">
+      <c r="T101" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="T101" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="U101" s="81"/>
       <c r="V101" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="W101" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="W101" s="11" t="s">
+      <c r="X101" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>497</v>
       </c>
       <c r="Y101" s="81"/>
     </row>
@@ -16686,16 +16683,16 @@
         <v>44279</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I103" s="83">
         <v>1781</v>
       </c>
       <c r="J103" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="K103" s="13" t="s">
         <v>499</v>
-      </c>
-      <c r="K103" s="13" t="s">
-        <v>500</v>
       </c>
       <c r="L103" s="13" t="s">
         <v>431</v>
@@ -16728,17 +16725,17 @@
         <v>44279</v>
       </c>
       <c r="H104" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I104" s="81"/>
       <c r="J104" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="L104" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="K104" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="M104" s="81"/>
       <c r="Q104" s="81"/>
@@ -16762,37 +16759,37 @@
         <v>44279</v>
       </c>
       <c r="F105" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G105" s="50">
         <v>44279</v>
       </c>
       <c r="H105" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I105" s="83">
         <v>1793</v>
       </c>
       <c r="J105" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="K105" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="K105" s="13" t="s">
+      <c r="L105" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="M105" s="83">
         <v>1057</v>
       </c>
       <c r="N105" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="O105" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="O105" s="13" t="s">
+      <c r="P105" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="P105" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="Q105" s="83"/>
       <c r="U105" s="83"/>
@@ -16815,33 +16812,33 @@
         <v>44279</v>
       </c>
       <c r="F106" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G106" s="50">
         <v>44279</v>
       </c>
       <c r="H106" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I106" s="81"/>
       <c r="J106" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="K106" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="K106" s="13" t="s">
+      <c r="L106" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="L106" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="M106" s="81"/>
       <c r="N106" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="O106" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="O106" s="13" t="s">
+      <c r="P106" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="P106" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="Q106" s="81"/>
       <c r="U106" s="81"/>
@@ -16864,13 +16861,13 @@
         <v>44279</v>
       </c>
       <c r="F107" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G107" s="50">
         <v>44279</v>
       </c>
       <c r="H107" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I107" s="83">
         <v>1482</v>
@@ -16903,13 +16900,13 @@
         <v>44279</v>
       </c>
       <c r="F108" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G108" s="50">
         <v>44280</v>
       </c>
       <c r="H108" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I108" s="81"/>
       <c r="M108" s="81"/>
@@ -16934,13 +16931,13 @@
         <v>44279</v>
       </c>
       <c r="F109" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G109" s="50">
         <v>44279</v>
       </c>
       <c r="H109" s="65" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I109" s="83"/>
       <c r="M109" s="83"/>
@@ -16965,13 +16962,13 @@
         <v>44280</v>
       </c>
       <c r="F110" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G110" s="50">
         <v>44280</v>
       </c>
       <c r="H110" s="65" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I110" s="81"/>
       <c r="M110" s="81"/>
@@ -17026,43 +17023,43 @@
         <v>44279</v>
       </c>
       <c r="H112" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I112" s="83">
         <v>1043</v>
       </c>
       <c r="J112" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K112" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="K112" s="13" t="s">
+      <c r="L112" s="63" t="s">
         <v>510</v>
-      </c>
-      <c r="L112" s="63" t="s">
-        <v>511</v>
       </c>
       <c r="M112" s="83">
         <v>1128</v>
       </c>
       <c r="N112" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O112" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="O112" s="13" t="s">
+      <c r="P112" s="63" t="s">
         <v>513</v>
-      </c>
-      <c r="P112" s="63" t="s">
-        <v>514</v>
       </c>
       <c r="Q112" s="83">
         <v>1231</v>
       </c>
       <c r="R112" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="S112" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="S112" s="13" t="s">
+      <c r="T112" s="63" t="s">
         <v>516</v>
-      </c>
-      <c r="T112" s="63" t="s">
-        <v>517</v>
       </c>
       <c r="U112" s="83"/>
       <c r="Y112" s="83"/>
@@ -17090,37 +17087,37 @@
         <v>44279</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I113" s="81"/>
       <c r="J113" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K113" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="K113" s="13" t="s">
+      <c r="L113" s="63" t="s">
         <v>510</v>
-      </c>
-      <c r="L113" s="63" t="s">
-        <v>511</v>
       </c>
       <c r="M113" s="81"/>
       <c r="N113" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O113" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="O113" s="13" t="s">
+      <c r="P113" s="63" t="s">
         <v>513</v>
-      </c>
-      <c r="P113" s="63" t="s">
-        <v>514</v>
       </c>
       <c r="Q113" s="81"/>
       <c r="R113" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="S113" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="S113" s="13" t="s">
+      <c r="T113" s="63" t="s">
         <v>516</v>
-      </c>
-      <c r="T113" s="63" t="s">
-        <v>517</v>
       </c>
       <c r="U113" s="81"/>
       <c r="Y113" s="81"/>
@@ -17142,37 +17139,37 @@
         <v>44279</v>
       </c>
       <c r="F114" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G114" s="50">
         <v>44279</v>
       </c>
       <c r="H114" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I114" s="83">
         <v>1431</v>
       </c>
       <c r="J114" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K114" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="K114" s="13" t="s">
+      <c r="L114" s="63" t="s">
         <v>519</v>
-      </c>
-      <c r="L114" s="63" t="s">
-        <v>520</v>
       </c>
       <c r="M114" s="83">
         <v>1446</v>
       </c>
       <c r="N114" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="O114" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="O114" s="13" t="s">
+      <c r="P114" s="63" t="s">
         <v>522</v>
-      </c>
-      <c r="P114" s="63" t="s">
-        <v>523</v>
       </c>
       <c r="Q114" s="83"/>
       <c r="U114" s="83"/>
@@ -17195,33 +17192,33 @@
         <v>44279</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G115" s="50">
         <v>44279</v>
       </c>
       <c r="H115" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I115" s="81"/>
       <c r="J115" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K115" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="K115" s="13" t="s">
+      <c r="L115" s="63" t="s">
         <v>519</v>
-      </c>
-      <c r="L115" s="63" t="s">
-        <v>520</v>
       </c>
       <c r="M115" s="81"/>
       <c r="N115" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="O115" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="O115" s="13" t="s">
+      <c r="P115" s="63" t="s">
         <v>522</v>
-      </c>
-      <c r="P115" s="63" t="s">
-        <v>523</v>
       </c>
       <c r="Q115" s="81"/>
       <c r="U115" s="81"/>
@@ -17244,61 +17241,61 @@
         <v>44279</v>
       </c>
       <c r="F116" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G116" s="50">
         <v>44279</v>
       </c>
       <c r="H116" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I116" s="83">
         <v>1659</v>
       </c>
       <c r="J116" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="K116" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="K116" s="13" t="s">
+      <c r="L116" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="L116" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="M116" s="83">
         <v>1619</v>
       </c>
       <c r="N116" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="O116" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="O116" s="13" t="s">
+      <c r="P116" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="P116" s="13" t="s">
-        <v>529</v>
       </c>
       <c r="Q116" s="83">
         <v>1261</v>
       </c>
       <c r="R116" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="S116" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="T116" s="13" t="s">
         <v>530</v>
-      </c>
-      <c r="S116" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="T116" s="13" t="s">
-        <v>531</v>
       </c>
       <c r="U116" s="83">
         <v>1543</v>
       </c>
       <c r="V116" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="W116" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="W116" s="13" t="s">
+      <c r="X116" s="66" t="s">
         <v>533</v>
-      </c>
-      <c r="X116" s="66" t="s">
-        <v>534</v>
       </c>
       <c r="Y116" s="83"/>
     </row>
@@ -17319,53 +17316,53 @@
         <v>44279</v>
       </c>
       <c r="F117" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G117" s="50">
         <v>44280</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I117" s="81"/>
       <c r="J117" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="K117" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="K117" s="13" t="s">
+      <c r="L117" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="L117" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="M117" s="81"/>
       <c r="N117" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="O117" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="O117" s="13" t="s">
+      <c r="P117" s="13" t="s">
         <v>528</v>
-      </c>
-      <c r="P117" s="13" t="s">
-        <v>529</v>
       </c>
       <c r="Q117" s="81"/>
       <c r="R117" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="S117" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="T117" s="13" t="s">
         <v>530</v>
-      </c>
-      <c r="S117" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="T117" s="13" t="s">
-        <v>531</v>
       </c>
       <c r="U117" s="81"/>
       <c r="V117" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="W117" s="66" t="s">
         <v>532</v>
       </c>
-      <c r="W117" s="66" t="s">
+      <c r="X117" s="66" t="s">
         <v>533</v>
-      </c>
-      <c r="X117" s="66" t="s">
-        <v>534</v>
       </c>
       <c r="Y117" s="81"/>
     </row>
@@ -17386,37 +17383,37 @@
         <v>44279</v>
       </c>
       <c r="F118" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G118" s="50">
         <v>44279</v>
       </c>
       <c r="H118" s="65" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I118" s="83">
         <v>1297</v>
       </c>
       <c r="J118" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="L118" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="K118" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="L118" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="M118" s="83">
         <v>1757</v>
       </c>
       <c r="N118" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="O118" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="O118" s="13" t="s">
+      <c r="P118" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="P118" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="Q118" s="83"/>
       <c r="U118" s="83"/>
@@ -17439,33 +17436,33 @@
         <v>44280</v>
       </c>
       <c r="F119" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G119" s="50">
         <v>44280</v>
       </c>
       <c r="H119" s="65" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I119" s="81"/>
       <c r="J119" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="L119" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="K119" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="L119" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="M119" s="81"/>
       <c r="N119" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="O119" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="O119" s="13" t="s">
+      <c r="P119" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="P119" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="Q119" s="81"/>
       <c r="U119" s="81"/>
@@ -17518,7 +17515,7 @@
         <v>44279</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I121" s="83">
         <v>1134</v>
@@ -17555,7 +17552,7 @@
         <v>44279</v>
       </c>
       <c r="H122" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I122" s="81"/>
       <c r="M122" s="81"/>
@@ -17580,13 +17577,13 @@
         <v>44279</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G123" s="50">
         <v>44279</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I123" s="83"/>
       <c r="M123" s="83"/>
@@ -17611,13 +17608,13 @@
         <v>44279</v>
       </c>
       <c r="F124" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G124" s="50">
         <v>44279</v>
       </c>
       <c r="H124" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I124" s="81"/>
       <c r="M124" s="81"/>
@@ -17642,61 +17639,61 @@
         <v>44279</v>
       </c>
       <c r="F125" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G125" s="50">
         <v>44279</v>
       </c>
       <c r="H125" s="52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I125" s="83">
         <v>1014</v>
       </c>
       <c r="J125" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="K125" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="K125" s="13" t="s">
+      <c r="L125" s="63" t="s">
         <v>541</v>
-      </c>
-      <c r="L125" s="63" t="s">
-        <v>542</v>
       </c>
       <c r="M125" s="83">
         <v>1039</v>
       </c>
       <c r="N125" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="O125" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="O125" s="13" t="s">
+      <c r="P125" s="63" t="s">
         <v>544</v>
-      </c>
-      <c r="P125" s="63" t="s">
-        <v>545</v>
       </c>
       <c r="Q125" s="83">
         <v>1061</v>
       </c>
       <c r="R125" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="S125" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="T125" s="63" t="s">
         <v>546</v>
-      </c>
-      <c r="S125" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="T125" s="63" t="s">
-        <v>547</v>
       </c>
       <c r="U125" s="83">
         <v>1106</v>
       </c>
       <c r="V125" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="W125" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="W125" s="13" t="s">
+      <c r="X125" s="63" t="s">
         <v>549</v>
-      </c>
-      <c r="X125" s="63" t="s">
-        <v>550</v>
       </c>
       <c r="Y125" s="83"/>
     </row>
@@ -17717,53 +17714,53 @@
         <v>44279</v>
       </c>
       <c r="F126" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G126" s="50">
         <v>44280</v>
       </c>
       <c r="H126" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I126" s="81"/>
       <c r="J126" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="K126" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="K126" s="13" t="s">
+      <c r="L126" s="63" t="s">
         <v>541</v>
-      </c>
-      <c r="L126" s="63" t="s">
-        <v>542</v>
       </c>
       <c r="M126" s="81"/>
       <c r="N126" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="O126" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="O126" s="13" t="s">
+      <c r="P126" s="63" t="s">
         <v>544</v>
-      </c>
-      <c r="P126" s="63" t="s">
-        <v>545</v>
       </c>
       <c r="Q126" s="81"/>
       <c r="R126" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="S126" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="T126" s="63" t="s">
         <v>546</v>
-      </c>
-      <c r="S126" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="T126" s="63" t="s">
-        <v>547</v>
       </c>
       <c r="U126" s="81"/>
       <c r="V126" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="W126" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="W126" s="13" t="s">
+      <c r="X126" s="63" t="s">
         <v>549</v>
-      </c>
-      <c r="X126" s="63" t="s">
-        <v>550</v>
       </c>
       <c r="Y126" s="81"/>
     </row>
@@ -17784,61 +17781,61 @@
         <v>44279</v>
       </c>
       <c r="F127" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G127" s="50">
         <v>44279</v>
       </c>
       <c r="H127" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I127" s="83">
         <v>1291</v>
       </c>
       <c r="J127" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="K127" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="K127" s="13" t="s">
+      <c r="L127" s="63" t="s">
         <v>552</v>
-      </c>
-      <c r="L127" s="63" t="s">
-        <v>553</v>
       </c>
       <c r="M127" s="83">
         <v>1313</v>
       </c>
       <c r="N127" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="O127" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="O127" s="13" t="s">
+      <c r="P127" s="63" t="s">
         <v>555</v>
-      </c>
-      <c r="P127" s="63" t="s">
-        <v>556</v>
       </c>
       <c r="Q127" s="83">
         <v>1322</v>
       </c>
       <c r="R127" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="S127" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="S127" s="13" t="s">
+      <c r="T127" s="63" t="s">
         <v>558</v>
-      </c>
-      <c r="T127" s="63" t="s">
-        <v>559</v>
       </c>
       <c r="U127" s="83">
         <v>1463</v>
       </c>
       <c r="V127" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="W127" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="W127" s="13" t="s">
+      <c r="X127" s="63" t="s">
         <v>561</v>
-      </c>
-      <c r="X127" s="63" t="s">
-        <v>562</v>
       </c>
       <c r="Y127" s="83"/>
     </row>
@@ -17859,53 +17856,53 @@
         <v>44280</v>
       </c>
       <c r="F128" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G128" s="50">
         <v>44280</v>
       </c>
       <c r="H128" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I128" s="81"/>
       <c r="J128" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="K128" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="K128" s="13" t="s">
+      <c r="L128" s="63" t="s">
         <v>552</v>
-      </c>
-      <c r="L128" s="63" t="s">
-        <v>553</v>
       </c>
       <c r="M128" s="81"/>
       <c r="N128" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="O128" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="O128" s="13" t="s">
+      <c r="P128" s="63" t="s">
         <v>555</v>
-      </c>
-      <c r="P128" s="63" t="s">
-        <v>556</v>
       </c>
       <c r="Q128" s="81"/>
       <c r="R128" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="S128" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="S128" s="13" t="s">
+      <c r="T128" s="63" t="s">
         <v>558</v>
-      </c>
-      <c r="T128" s="63" t="s">
-        <v>559</v>
       </c>
       <c r="U128" s="81"/>
       <c r="V128" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="W128" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="W128" s="13" t="s">
+      <c r="X128" s="63" t="s">
         <v>561</v>
-      </c>
-      <c r="X128" s="63" t="s">
-        <v>562</v>
       </c>
       <c r="Y128" s="81"/>
     </row>
@@ -17956,28 +17953,28 @@
         <v>44279</v>
       </c>
       <c r="H130" s="52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I130" s="83">
         <v>1741</v>
       </c>
       <c r="J130" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="K130" s="11" t="s">
+      <c r="L130" s="11" t="s">
         <v>564</v>
-      </c>
-      <c r="L130" s="11" t="s">
-        <v>565</v>
       </c>
       <c r="M130" s="83">
         <v>1077</v>
       </c>
       <c r="N130" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="O130" s="11" t="s">
         <v>566</v>
-      </c>
-      <c r="O130" s="11" t="s">
-        <v>567</v>
       </c>
       <c r="P130" s="11" t="s">
         <v>276</v>
@@ -17986,13 +17983,13 @@
         <v>1462</v>
       </c>
       <c r="R130" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="S130" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="S130" s="13" t="s">
+      <c r="T130" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="T130" s="13" t="s">
-        <v>570</v>
       </c>
       <c r="U130" s="83"/>
       <c r="Y130" s="83"/>
@@ -18020,37 +18017,37 @@
         <v>44279</v>
       </c>
       <c r="H131" s="52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I131" s="81"/>
       <c r="J131" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="K131" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="K131" s="11" t="s">
+      <c r="L131" s="11" t="s">
         <v>564</v>
-      </c>
-      <c r="L131" s="11" t="s">
-        <v>565</v>
       </c>
       <c r="M131" s="81"/>
       <c r="N131" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="O131" s="11" t="s">
         <v>566</v>
-      </c>
-      <c r="O131" s="11" t="s">
-        <v>567</v>
       </c>
       <c r="P131" s="11" t="s">
         <v>276</v>
       </c>
       <c r="Q131" s="81"/>
       <c r="R131" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="S131" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="S131" s="13" t="s">
+      <c r="T131" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="T131" s="13" t="s">
-        <v>570</v>
       </c>
       <c r="U131" s="81"/>
       <c r="Y131" s="81"/>
@@ -18072,13 +18069,13 @@
         <v>44279</v>
       </c>
       <c r="F132" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G132" s="50">
         <v>44279</v>
       </c>
       <c r="H132" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I132" s="83"/>
       <c r="M132" s="83"/>
@@ -18103,13 +18100,13 @@
         <v>44279</v>
       </c>
       <c r="F133" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G133" s="50">
         <v>44279</v>
       </c>
       <c r="H133" s="52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I133" s="81"/>
       <c r="M133" s="81"/>
@@ -18134,36 +18131,36 @@
         <v>44279</v>
       </c>
       <c r="F134" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G134" s="50">
         <v>44279</v>
       </c>
       <c r="H134" s="52" t="s">
-        <v>627</v>
-      </c>
-      <c r="I134" s="91">
+        <v>626</v>
+      </c>
+      <c r="I134" s="85">
         <v>1109</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="M134" s="88">
+        <v>570</v>
+      </c>
+      <c r="M134" s="86">
         <v>1729</v>
       </c>
       <c r="N134" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O134" s="33"/>
       <c r="P134" s="33"/>
-      <c r="Q134" s="88">
+      <c r="Q134" s="86">
         <v>1749</v>
       </c>
-      <c r="U134" s="88">
+      <c r="U134" s="86">
         <v>1787</v>
       </c>
       <c r="V134" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W134" s="62" t="s">
         <v>454</v>
@@ -18190,23 +18187,23 @@
         <v>44279</v>
       </c>
       <c r="F135" s="52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G135" s="50">
         <v>44280</v>
       </c>
       <c r="H135" s="52" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I135" s="81"/>
       <c r="J135" s="62" t="s">
+        <v>572</v>
+      </c>
+      <c r="K135" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="K135" s="62" t="s">
+      <c r="L135" s="68" t="s">
         <v>574</v>
-      </c>
-      <c r="L135" s="68" t="s">
-        <v>575</v>
       </c>
       <c r="M135" s="81"/>
       <c r="N135" s="33" t="s">
@@ -18221,7 +18218,7 @@
       <c r="Q135" s="81"/>
       <c r="U135" s="81"/>
       <c r="V135" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W135" s="62" t="s">
         <v>454</v>
@@ -18248,25 +18245,25 @@
         <v>44279</v>
       </c>
       <c r="F136" s="52" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G136" s="50">
         <v>44279</v>
       </c>
       <c r="H136" s="52" t="s">
-        <v>629</v>
-      </c>
-      <c r="I136" s="88">
+        <v>628</v>
+      </c>
+      <c r="I136" s="86">
         <v>1796</v>
       </c>
-      <c r="M136" s="88">
+      <c r="M136" s="86">
         <v>1058</v>
       </c>
-      <c r="Q136" s="88">
+      <c r="Q136" s="86">
         <v>1282</v>
       </c>
       <c r="R136" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="U136" s="83"/>
       <c r="Y136" s="83"/>
@@ -18288,25 +18285,25 @@
         <v>44280</v>
       </c>
       <c r="F137" s="52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G137" s="50">
         <v>44280</v>
       </c>
       <c r="H137" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I137" s="81"/>
       <c r="M137" s="81"/>
       <c r="Q137" s="81"/>
       <c r="R137" s="69" t="s">
+        <v>575</v>
+      </c>
+      <c r="S137" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="S137" s="62" t="s">
+      <c r="T137" s="67" t="s">
         <v>577</v>
-      </c>
-      <c r="T137" s="67" t="s">
-        <v>578</v>
       </c>
       <c r="U137" s="81"/>
       <c r="Y137" s="81"/>
@@ -18381,17 +18378,17 @@
       <c r="H140" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I140" s="85" t="s">
-        <v>293</v>
+      <c r="I140" s="89">
+        <v>9992</v>
       </c>
       <c r="J140" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="K140" s="49" t="s">
         <v>579</v>
       </c>
-      <c r="K140" s="49" t="s">
+      <c r="L140" s="49" t="s">
         <v>580</v>
-      </c>
-      <c r="L140" s="49" t="s">
-        <v>581</v>
       </c>
       <c r="M140" s="51"/>
       <c r="Q140" s="51"/>
@@ -18425,13 +18422,13 @@
       </c>
       <c r="I141" s="81"/>
       <c r="J141" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="K141" s="49" t="s">
         <v>579</v>
       </c>
-      <c r="K141" s="49" t="s">
+      <c r="L141" s="49" t="s">
         <v>580</v>
-      </c>
-      <c r="L141" s="49" t="s">
-        <v>581</v>
       </c>
       <c r="M141" s="51"/>
       <c r="Q141" s="51"/>
@@ -18596,13 +18593,13 @@
         <v>1236</v>
       </c>
       <c r="J147" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="K147" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="K147" s="13" t="s">
+      <c r="L147" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="L147" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="Q147" s="83"/>
       <c r="U147" s="83"/>
@@ -18635,25 +18632,25 @@
       </c>
       <c r="I148" s="81"/>
       <c r="J148" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="K148" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="K148" s="13" t="s">
+      <c r="L148" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="L148" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="M148" s="71">
         <v>1481</v>
       </c>
       <c r="N148" s="72" t="s">
+        <v>584</v>
+      </c>
+      <c r="O148" s="72" t="s">
         <v>585</v>
       </c>
-      <c r="O148" s="72" t="s">
+      <c r="P148" s="73" t="s">
         <v>586</v>
-      </c>
-      <c r="P148" s="73" t="s">
-        <v>587</v>
       </c>
       <c r="Q148" s="81"/>
       <c r="U148" s="81"/>
@@ -18776,25 +18773,25 @@
         <v>1422</v>
       </c>
       <c r="R152" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="S152" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="S152" s="13" t="s">
+      <c r="T152" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="T152" s="13" t="s">
-        <v>590</v>
       </c>
       <c r="U152" s="83">
         <v>1544</v>
       </c>
       <c r="V152" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="W152" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="W152" s="13" t="s">
+      <c r="X152" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="X152" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="Y152" s="83"/>
     </row>
@@ -18827,23 +18824,23 @@
       <c r="M153" s="81"/>
       <c r="Q153" s="81"/>
       <c r="R153" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S153" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="T153" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="T153" s="13" t="s">
-        <v>590</v>
       </c>
       <c r="U153" s="81"/>
       <c r="V153" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="W153" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="W153" s="13" t="s">
+      <c r="X153" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="X153" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="Y153" s="81"/>
     </row>
@@ -18934,29 +18931,29 @@
       <c r="H156" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="I156" s="88">
+      <c r="I156" s="86">
         <v>1517</v>
       </c>
       <c r="J156" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="K156" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="K156" s="13" t="s">
+      <c r="L156" s="75" t="s">
         <v>596</v>
       </c>
-      <c r="L156" s="75" t="s">
+      <c r="M156" s="86">
+        <v>1083</v>
+      </c>
+      <c r="N156" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="M156" s="88">
-        <v>1083</v>
-      </c>
-      <c r="N156" s="13" t="s">
+      <c r="O156" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="O156" s="13" t="s">
+      <c r="P156" s="76" t="s">
         <v>599</v>
-      </c>
-      <c r="P156" s="76" t="s">
-        <v>600</v>
       </c>
       <c r="Q156" s="83">
         <v>1174</v>
@@ -18991,23 +18988,23 @@
       </c>
       <c r="I157" s="81"/>
       <c r="J157" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="K157" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="K157" s="13" t="s">
+      <c r="L157" s="75" t="s">
         <v>596</v>
-      </c>
-      <c r="L157" s="75" t="s">
-        <v>597</v>
       </c>
       <c r="M157" s="81"/>
       <c r="N157" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="O157" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="O157" s="13" t="s">
+      <c r="P157" s="76" t="s">
         <v>599</v>
-      </c>
-      <c r="P157" s="76" t="s">
-        <v>600</v>
       </c>
       <c r="Q157" s="81"/>
       <c r="U157" s="81"/>
@@ -19276,49 +19273,49 @@
         <v>1494</v>
       </c>
       <c r="J166" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="K166" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="K166" s="13" t="s">
+      <c r="L166" s="63" t="s">
         <v>602</v>
-      </c>
-      <c r="L166" s="63" t="s">
-        <v>603</v>
       </c>
       <c r="M166" s="83">
         <v>1498</v>
       </c>
       <c r="N166" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="O166" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="O166" s="13" t="s">
+      <c r="P166" s="63" t="s">
         <v>605</v>
-      </c>
-      <c r="P166" s="63" t="s">
-        <v>606</v>
       </c>
       <c r="Q166" s="83">
         <v>1516</v>
       </c>
       <c r="R166" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="S166" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="S166" s="13" t="s">
+      <c r="T166" s="63" t="s">
         <v>608</v>
-      </c>
-      <c r="T166" s="63" t="s">
-        <v>609</v>
       </c>
       <c r="U166" s="83">
         <v>1602</v>
       </c>
       <c r="V166" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="W166" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="W166" s="13" t="s">
+      <c r="X166" s="63" t="s">
         <v>611</v>
-      </c>
-      <c r="X166" s="63" t="s">
-        <v>612</v>
       </c>
       <c r="Y166" s="83"/>
     </row>
@@ -19349,43 +19346,43 @@
       </c>
       <c r="I167" s="81"/>
       <c r="J167" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="K167" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="K167" s="13" t="s">
+      <c r="L167" s="63" t="s">
         <v>602</v>
-      </c>
-      <c r="L167" s="63" t="s">
-        <v>603</v>
       </c>
       <c r="M167" s="81"/>
       <c r="N167" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="O167" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="O167" s="13" t="s">
+      <c r="P167" s="63" t="s">
         <v>605</v>
-      </c>
-      <c r="P167" s="63" t="s">
-        <v>606</v>
       </c>
       <c r="Q167" s="81"/>
       <c r="R167" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="S167" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="S167" s="13" t="s">
+      <c r="T167" s="63" t="s">
         <v>608</v>
-      </c>
-      <c r="T167" s="63" t="s">
-        <v>609</v>
       </c>
       <c r="U167" s="81"/>
       <c r="V167" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="W167" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="W167" s="13" t="s">
+      <c r="X167" s="63" t="s">
         <v>611</v>
-      </c>
-      <c r="X167" s="63" t="s">
-        <v>612</v>
       </c>
       <c r="Y167" s="81"/>
     </row>
@@ -19418,19 +19415,19 @@
         <v>1760</v>
       </c>
       <c r="J168" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="K168" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="K168" s="13" t="s">
+      <c r="L168" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="L168" s="63" t="s">
+      <c r="M168" s="90">
+        <v>1237</v>
+      </c>
+      <c r="N168" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="M168" s="89">
-        <v>1237</v>
-      </c>
-      <c r="N168" s="11" t="s">
-        <v>616</v>
       </c>
       <c r="O168" s="77" t="s">
         <v>411</v>
@@ -19438,29 +19435,29 @@
       <c r="P168" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="Q168" s="90">
+      <c r="Q168" s="84">
         <v>1488</v>
       </c>
       <c r="R168" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="S168" s="78" t="s">
         <v>617</v>
       </c>
-      <c r="S168" s="78" t="s">
+      <c r="T168" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="T168" s="11" t="s">
+      <c r="U168" s="84">
+        <v>1765</v>
+      </c>
+      <c r="V168" s="79" t="s">
         <v>619</v>
       </c>
-      <c r="U168" s="90">
-        <v>1765</v>
-      </c>
-      <c r="V168" s="79" t="s">
+      <c r="W168" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="W168" s="11" t="s">
+      <c r="X168" s="11" t="s">
         <v>621</v>
-      </c>
-      <c r="X168" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="169" spans="1:25" ht="15.75" customHeight="1">
@@ -19490,17 +19487,17 @@
       </c>
       <c r="I169" s="81"/>
       <c r="J169" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="K169" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="K169" s="13" t="s">
+      <c r="L169" s="63" t="s">
         <v>614</v>
-      </c>
-      <c r="L169" s="63" t="s">
-        <v>615</v>
       </c>
       <c r="M169" s="81"/>
       <c r="N169" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O169" s="77" t="s">
         <v>411</v>
@@ -19510,23 +19507,23 @@
       </c>
       <c r="Q169" s="81"/>
       <c r="R169" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="S169" s="78" t="s">
         <v>617</v>
       </c>
-      <c r="S169" s="78" t="s">
+      <c r="T169" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="T169" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="U169" s="81"/>
       <c r="V169" s="79" t="s">
+        <v>619</v>
+      </c>
+      <c r="W169" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="W169" s="11" t="s">
+      <c r="X169" s="11" t="s">
         <v>621</v>
-      </c>
-      <c r="X169" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:25" ht="15.75" customHeight="1">
@@ -21227,98 +21224,241 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="355">
-    <mergeCell ref="U112:U113"/>
-    <mergeCell ref="U114:U115"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="U118:U119"/>
-    <mergeCell ref="U121:U122"/>
-    <mergeCell ref="U123:U124"/>
-    <mergeCell ref="U125:U126"/>
-    <mergeCell ref="U127:U128"/>
-    <mergeCell ref="U130:U131"/>
-    <mergeCell ref="U88:U89"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="U96:U97"/>
-    <mergeCell ref="U98:U99"/>
-    <mergeCell ref="U100:U101"/>
-    <mergeCell ref="U103:U104"/>
-    <mergeCell ref="U105:U106"/>
-    <mergeCell ref="U107:U108"/>
-    <mergeCell ref="U109:U110"/>
-    <mergeCell ref="U68:U69"/>
-    <mergeCell ref="U70:U71"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="U77:U78"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="U82:U83"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="U86:U87"/>
-    <mergeCell ref="U46:U47"/>
-    <mergeCell ref="U48:U49"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="U64:U65"/>
-    <mergeCell ref="U66:U67"/>
-    <mergeCell ref="U168:U169"/>
-    <mergeCell ref="U170:U171"/>
-    <mergeCell ref="Y170:Y171"/>
-    <mergeCell ref="Y173:Y174"/>
-    <mergeCell ref="Y175:Y176"/>
-    <mergeCell ref="Y177:Y178"/>
-    <mergeCell ref="U173:U174"/>
-    <mergeCell ref="U175:U176"/>
-    <mergeCell ref="U177:U178"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="U163:U164"/>
-    <mergeCell ref="U166:U167"/>
-    <mergeCell ref="Y166:Y167"/>
-    <mergeCell ref="U147:U148"/>
-    <mergeCell ref="U149:U150"/>
-    <mergeCell ref="U152:U153"/>
-    <mergeCell ref="U154:U155"/>
-    <mergeCell ref="U156:U157"/>
-    <mergeCell ref="U159:U160"/>
-    <mergeCell ref="U161:U162"/>
-    <mergeCell ref="U132:U133"/>
-    <mergeCell ref="U134:U135"/>
-    <mergeCell ref="U136:U137"/>
-    <mergeCell ref="U145:U146"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="Y161:Y162"/>
+    <mergeCell ref="Y163:Y164"/>
+    <mergeCell ref="Y145:Y146"/>
+    <mergeCell ref="Y147:Y148"/>
+    <mergeCell ref="Y149:Y150"/>
+    <mergeCell ref="Y152:Y153"/>
+    <mergeCell ref="Y154:Y155"/>
+    <mergeCell ref="Y156:Y157"/>
+    <mergeCell ref="Y159:Y160"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="Y57:Y58"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Y61:Y62"/>
+    <mergeCell ref="Y64:Y65"/>
+    <mergeCell ref="Y66:Y67"/>
+    <mergeCell ref="Y68:Y69"/>
+    <mergeCell ref="Y70:Y71"/>
+    <mergeCell ref="Y73:Y74"/>
+    <mergeCell ref="Y75:Y76"/>
+    <mergeCell ref="Y77:Y78"/>
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="Y82:Y83"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Y86:Y87"/>
+    <mergeCell ref="Y88:Y89"/>
+    <mergeCell ref="Y94:Y95"/>
+    <mergeCell ref="Y96:Y97"/>
+    <mergeCell ref="Y98:Y99"/>
+    <mergeCell ref="Y100:Y101"/>
+    <mergeCell ref="Y103:Y104"/>
+    <mergeCell ref="Y105:Y106"/>
+    <mergeCell ref="Y107:Y108"/>
+    <mergeCell ref="Y109:Y110"/>
+    <mergeCell ref="Y112:Y113"/>
+    <mergeCell ref="Y114:Y115"/>
+    <mergeCell ref="Y116:Y117"/>
+    <mergeCell ref="Y118:Y119"/>
+    <mergeCell ref="Y121:Y122"/>
+    <mergeCell ref="Y123:Y124"/>
+    <mergeCell ref="Y125:Y126"/>
+    <mergeCell ref="Y127:Y128"/>
+    <mergeCell ref="Y130:Y131"/>
+    <mergeCell ref="Y132:Y133"/>
+    <mergeCell ref="Y134:Y135"/>
+    <mergeCell ref="Y136:Y137"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="M136:M137"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="M168:M169"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="M152:M153"/>
+    <mergeCell ref="M154:M155"/>
+    <mergeCell ref="M156:M157"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="Q114:Q115"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="Q121:Q122"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="Q125:Q126"/>
+    <mergeCell ref="Q127:Q128"/>
+    <mergeCell ref="Q130:Q131"/>
+    <mergeCell ref="Q132:Q133"/>
+    <mergeCell ref="Q134:Q135"/>
+    <mergeCell ref="Q136:Q137"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="Q147:Q148"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="Q175:Q176"/>
+    <mergeCell ref="Q177:Q178"/>
+    <mergeCell ref="Q156:Q157"/>
+    <mergeCell ref="Q159:Q160"/>
+    <mergeCell ref="Q161:Q162"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="Q166:Q167"/>
+    <mergeCell ref="Q168:Q169"/>
+    <mergeCell ref="Q170:Q171"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="Q86:Q87"/>
+    <mergeCell ref="Q88:Q89"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="Q152:Q153"/>
+    <mergeCell ref="Q154:Q155"/>
     <mergeCell ref="I177:I178"/>
     <mergeCell ref="I156:I157"/>
     <mergeCell ref="I159:I160"/>
@@ -21343,245 +21483,102 @@
     <mergeCell ref="I52:I53"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="U163:U164"/>
+    <mergeCell ref="U166:U167"/>
+    <mergeCell ref="Y166:Y167"/>
+    <mergeCell ref="U147:U148"/>
+    <mergeCell ref="U149:U150"/>
+    <mergeCell ref="U152:U153"/>
+    <mergeCell ref="U154:U155"/>
+    <mergeCell ref="U156:U157"/>
+    <mergeCell ref="U159:U160"/>
+    <mergeCell ref="U161:U162"/>
+    <mergeCell ref="U132:U133"/>
+    <mergeCell ref="U134:U135"/>
+    <mergeCell ref="U136:U137"/>
+    <mergeCell ref="U145:U146"/>
     <mergeCell ref="I136:I137"/>
     <mergeCell ref="I140:I141"/>
     <mergeCell ref="I145:I146"/>
     <mergeCell ref="I147:I148"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="Q88:Q89"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="Q152:Q153"/>
-    <mergeCell ref="Q154:Q155"/>
-    <mergeCell ref="Q173:Q174"/>
-    <mergeCell ref="Q175:Q176"/>
-    <mergeCell ref="Q177:Q178"/>
-    <mergeCell ref="Q156:Q157"/>
-    <mergeCell ref="Q159:Q160"/>
-    <mergeCell ref="Q161:Q162"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="Q166:Q167"/>
-    <mergeCell ref="Q168:Q169"/>
-    <mergeCell ref="Q170:Q171"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="Q125:Q126"/>
-    <mergeCell ref="Q127:Q128"/>
-    <mergeCell ref="Q130:Q131"/>
-    <mergeCell ref="Q132:Q133"/>
-    <mergeCell ref="Q134:Q135"/>
-    <mergeCell ref="Q136:Q137"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="Q147:Q148"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="Q109:Q110"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="Q114:Q115"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="Q121:Q122"/>
-    <mergeCell ref="M136:M137"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="M168:M169"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="M152:M153"/>
-    <mergeCell ref="M154:M155"/>
-    <mergeCell ref="M156:M157"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="Y130:Y131"/>
-    <mergeCell ref="Y132:Y133"/>
-    <mergeCell ref="Y134:Y135"/>
-    <mergeCell ref="Y136:Y137"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="Y109:Y110"/>
-    <mergeCell ref="Y112:Y113"/>
-    <mergeCell ref="Y114:Y115"/>
-    <mergeCell ref="Y116:Y117"/>
-    <mergeCell ref="Y118:Y119"/>
-    <mergeCell ref="Y121:Y122"/>
-    <mergeCell ref="Y123:Y124"/>
-    <mergeCell ref="Y125:Y126"/>
-    <mergeCell ref="Y127:Y128"/>
-    <mergeCell ref="Y86:Y87"/>
-    <mergeCell ref="Y88:Y89"/>
-    <mergeCell ref="Y94:Y95"/>
-    <mergeCell ref="Y96:Y97"/>
-    <mergeCell ref="Y98:Y99"/>
-    <mergeCell ref="Y100:Y101"/>
-    <mergeCell ref="Y103:Y104"/>
-    <mergeCell ref="Y105:Y106"/>
-    <mergeCell ref="Y107:Y108"/>
-    <mergeCell ref="Y66:Y67"/>
-    <mergeCell ref="Y68:Y69"/>
-    <mergeCell ref="Y70:Y71"/>
-    <mergeCell ref="Y73:Y74"/>
-    <mergeCell ref="Y75:Y76"/>
-    <mergeCell ref="Y77:Y78"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="Y82:Y83"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="Y57:Y58"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Y61:Y62"/>
-    <mergeCell ref="Y64:Y65"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Y161:Y162"/>
-    <mergeCell ref="Y163:Y164"/>
-    <mergeCell ref="Y145:Y146"/>
-    <mergeCell ref="Y147:Y148"/>
-    <mergeCell ref="Y149:Y150"/>
-    <mergeCell ref="Y152:Y153"/>
-    <mergeCell ref="Y154:Y155"/>
-    <mergeCell ref="Y156:Y157"/>
-    <mergeCell ref="Y159:Y160"/>
+    <mergeCell ref="U168:U169"/>
+    <mergeCell ref="U170:U171"/>
+    <mergeCell ref="Y170:Y171"/>
+    <mergeCell ref="Y173:Y174"/>
+    <mergeCell ref="Y175:Y176"/>
+    <mergeCell ref="Y177:Y178"/>
+    <mergeCell ref="U173:U174"/>
+    <mergeCell ref="U175:U176"/>
+    <mergeCell ref="U177:U178"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="U64:U65"/>
+    <mergeCell ref="U66:U67"/>
+    <mergeCell ref="U68:U69"/>
+    <mergeCell ref="U70:U71"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="U82:U83"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="U86:U87"/>
+    <mergeCell ref="U88:U89"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="U96:U97"/>
+    <mergeCell ref="U98:U99"/>
+    <mergeCell ref="U100:U101"/>
+    <mergeCell ref="U103:U104"/>
+    <mergeCell ref="U105:U106"/>
+    <mergeCell ref="U107:U108"/>
+    <mergeCell ref="U109:U110"/>
+    <mergeCell ref="U112:U113"/>
+    <mergeCell ref="U114:U115"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="U118:U119"/>
+    <mergeCell ref="U121:U122"/>
+    <mergeCell ref="U123:U124"/>
+    <mergeCell ref="U125:U126"/>
+    <mergeCell ref="U127:U128"/>
+    <mergeCell ref="U130:U131"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L21" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/app-server/src/main/resources/2021_sessions.xlsx
+++ b/app-server/src/main/resources/2021_sessions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/Downloads/cloudhubs/sac2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A0288-66FB-4540-A28B-9B0CC62F9D3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577DAD31-9E7C-5140-9485-7F1701B26747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session Chairs" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAH33KPP8
@@ -2630,47 +2631,55 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2682,39 +2691,46 @@
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2725,110 +2741,130 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF156BBC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF26282A"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF26282A"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF201F1E"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF26282A"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1076BE"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2836,38 +2872,45 @@
       <sz val="11"/>
       <color rgb="FF1076BE"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF26282A"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF353531"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3139,37 +3182,37 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3387,11 +3430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3427,22 +3470,22 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="122" t="s">
+      <c r="K1" s="124"/>
+      <c r="L1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="121"/>
-      <c r="N1" s="122" t="s">
+      <c r="M1" s="124"/>
+      <c r="N1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="123" t="s">
+      <c r="O1" s="124"/>
+      <c r="P1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="121"/>
+      <c r="Q1" s="124"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3457,14 +3500,14 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="121"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
@@ -5140,7 +5183,7 @@
       <c r="C43" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="136">
+      <c r="D43" s="120">
         <v>1</v>
       </c>
       <c r="E43" s="38">
@@ -5180,7 +5223,7 @@
         <v>128</v>
       </c>
       <c r="Q43" s="22"/>
-      <c r="R43" s="124"/>
+      <c r="R43" s="123"/>
       <c r="S43" s="40"/>
       <c r="T43" s="40"/>
       <c r="U43" s="40"/>
@@ -5201,7 +5244,7 @@
       <c r="C44" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="136">
+      <c r="D44" s="120">
         <v>1</v>
       </c>
       <c r="E44" s="38">
@@ -5241,7 +5284,7 @@
         <v>128</v>
       </c>
       <c r="Q44" s="22"/>
-      <c r="R44" s="121"/>
+      <c r="R44" s="124"/>
       <c r="S44" s="40"/>
       <c r="T44" s="40"/>
       <c r="U44" s="40"/>
@@ -7631,7 +7674,7 @@
       <c r="C92" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="D92" s="136">
+      <c r="D92" s="120">
         <v>1</v>
       </c>
       <c r="E92" s="38">
@@ -7646,7 +7689,7 @@
       <c r="H92" s="39" t="s">
         <v>824</v>
       </c>
-      <c r="I92" s="138" t="s">
+      <c r="I92" s="122" t="s">
         <v>829</v>
       </c>
       <c r="J92" s="41" t="s">
@@ -10174,7 +10217,7 @@
       <c r="A141" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="137" t="s">
+      <c r="B141" s="121" t="s">
         <v>835</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -10268,7 +10311,7 @@
       <c r="C143" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D143" s="136">
+      <c r="D143" s="120">
         <v>1</v>
       </c>
       <c r="E143" s="38">
@@ -19316,13 +19359,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="R43:R44"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -19391,11 +19434,11 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J103" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K145" sqref="K145"/>
+      <selection pane="bottomRight" activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -19436,36 +19479,36 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="132" t="s">
+      <c r="J1" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="132" t="s">
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="134" t="s">
         <v>462</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="132" t="s">
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="134" t="s">
         <v>463</v>
       </c>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="134" t="s">
         <v>464</v>
       </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="132" t="s">
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="134" t="s">
         <v>465</v>
       </c>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
     </row>
     <row r="2" spans="1:29" ht="16">
       <c r="A2" s="1" t="s">
@@ -19483,14 +19526,14 @@
       <c r="E2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122" t="s">
+      <c r="G2" s="124"/>
+      <c r="H2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="121"/>
+      <c r="I2" s="124"/>
       <c r="J2" s="24" t="s">
         <v>466</v>
       </c>
@@ -19737,23 +19780,23 @@
       <c r="I7" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J7" s="125"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="125"/>
+      <c r="N7" s="128"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
-      <c r="R7" s="125"/>
+      <c r="R7" s="128"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
-      <c r="V7" s="125"/>
+      <c r="V7" s="128"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
-      <c r="Z7" s="126"/>
+      <c r="Z7" s="132"/>
       <c r="AA7" s="79"/>
       <c r="AB7" s="79"/>
       <c r="AC7" s="79"/>
@@ -19786,23 +19829,23 @@
       <c r="I8" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="124"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="121"/>
+      <c r="N8" s="124"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
-      <c r="R8" s="121"/>
+      <c r="R8" s="124"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
-      <c r="V8" s="121"/>
+      <c r="V8" s="124"/>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
-      <c r="Z8" s="121"/>
+      <c r="Z8" s="124"/>
       <c r="AA8" s="79"/>
       <c r="AB8" s="79"/>
       <c r="AC8" s="79"/>
@@ -19835,23 +19878,23 @@
       <c r="I9" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J9" s="125"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="125"/>
+      <c r="N9" s="128"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="125"/>
+      <c r="R9" s="128"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
-      <c r="V9" s="125"/>
+      <c r="V9" s="128"/>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
-      <c r="Z9" s="126"/>
+      <c r="Z9" s="132"/>
       <c r="AA9" s="79"/>
       <c r="AB9" s="79"/>
       <c r="AC9" s="79"/>
@@ -19884,23 +19927,23 @@
       <c r="I10" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J10" s="121"/>
+      <c r="J10" s="124"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="121"/>
+      <c r="N10" s="124"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
-      <c r="R10" s="121"/>
+      <c r="R10" s="124"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
-      <c r="V10" s="121"/>
+      <c r="V10" s="124"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
-      <c r="Z10" s="121"/>
+      <c r="Z10" s="124"/>
       <c r="AA10" s="79"/>
       <c r="AB10" s="79"/>
       <c r="AC10" s="79"/>
@@ -19933,23 +19976,23 @@
       <c r="I11" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J11" s="125"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="125"/>
+      <c r="N11" s="128"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
-      <c r="R11" s="125"/>
+      <c r="R11" s="128"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
-      <c r="V11" s="125"/>
+      <c r="V11" s="128"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
-      <c r="Z11" s="126"/>
+      <c r="Z11" s="132"/>
       <c r="AA11" s="79"/>
       <c r="AB11" s="79"/>
       <c r="AC11" s="79"/>
@@ -19982,23 +20025,23 @@
       <c r="I12" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J12" s="121"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="121"/>
+      <c r="N12" s="124"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
-      <c r="R12" s="121"/>
+      <c r="R12" s="124"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="121"/>
+      <c r="V12" s="124"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
-      <c r="Z12" s="121"/>
+      <c r="Z12" s="124"/>
       <c r="AA12" s="79"/>
       <c r="AB12" s="79"/>
       <c r="AC12" s="79"/>
@@ -20063,23 +20106,23 @@
       <c r="I14" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J14" s="125"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="125"/>
+      <c r="N14" s="128"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="125"/>
+      <c r="R14" s="128"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="125"/>
+      <c r="V14" s="128"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
-      <c r="Z14" s="126"/>
+      <c r="Z14" s="132"/>
       <c r="AA14" s="79"/>
       <c r="AB14" s="79"/>
       <c r="AC14" s="79"/>
@@ -20112,23 +20155,23 @@
       <c r="I15" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J15" s="121"/>
+      <c r="J15" s="124"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="121"/>
+      <c r="N15" s="124"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="121"/>
+      <c r="R15" s="124"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="121"/>
+      <c r="V15" s="124"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
-      <c r="Z15" s="121"/>
+      <c r="Z15" s="124"/>
       <c r="AA15" s="79"/>
       <c r="AB15" s="79"/>
       <c r="AC15" s="79"/>
@@ -20161,23 +20204,23 @@
       <c r="I16" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J16" s="125"/>
+      <c r="J16" s="128"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="125"/>
+      <c r="N16" s="128"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
-      <c r="R16" s="125"/>
+      <c r="R16" s="128"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
-      <c r="V16" s="125"/>
+      <c r="V16" s="128"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
-      <c r="Z16" s="126"/>
+      <c r="Z16" s="132"/>
       <c r="AA16" s="79"/>
       <c r="AB16" s="79"/>
       <c r="AC16" s="79"/>
@@ -20210,23 +20253,23 @@
       <c r="I17" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J17" s="121"/>
+      <c r="J17" s="124"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="121"/>
+      <c r="N17" s="124"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
-      <c r="R17" s="121"/>
+      <c r="R17" s="124"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
-      <c r="V17" s="121"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
-      <c r="Z17" s="121"/>
+      <c r="Z17" s="124"/>
       <c r="AA17" s="79"/>
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
@@ -20259,23 +20302,23 @@
       <c r="I18" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J18" s="125"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="125"/>
+      <c r="N18" s="128"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="125"/>
+      <c r="R18" s="128"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
-      <c r="V18" s="125"/>
+      <c r="V18" s="128"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
-      <c r="Z18" s="126"/>
+      <c r="Z18" s="132"/>
       <c r="AA18" s="79"/>
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
@@ -20308,23 +20351,23 @@
       <c r="I19" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J19" s="121"/>
+      <c r="J19" s="124"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="121"/>
+      <c r="N19" s="124"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
-      <c r="R19" s="121"/>
+      <c r="R19" s="124"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="121"/>
+      <c r="V19" s="124"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
-      <c r="Z19" s="121"/>
+      <c r="Z19" s="124"/>
       <c r="AA19" s="79"/>
       <c r="AB19" s="79"/>
       <c r="AC19" s="79"/>
@@ -20397,7 +20440,7 @@
       <c r="I21" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J21" s="127">
+      <c r="J21" s="129">
         <v>1216</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -20409,7 +20452,7 @@
       <c r="M21" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="129">
         <v>1218</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -20421,7 +20464,7 @@
       <c r="Q21" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="R21" s="127">
+      <c r="R21" s="129">
         <v>1368</v>
       </c>
       <c r="S21" s="2" t="s">
@@ -20433,7 +20476,7 @@
       <c r="U21" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="V21" s="127">
+      <c r="V21" s="129">
         <v>1433</v>
       </c>
       <c r="W21" s="2" t="s">
@@ -20445,7 +20488,7 @@
       <c r="Y21" s="86" t="s">
         <v>482</v>
       </c>
-      <c r="Z21" s="126"/>
+      <c r="Z21" s="132"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
@@ -20478,7 +20521,7 @@
       <c r="I22" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J22" s="121"/>
+      <c r="J22" s="124"/>
       <c r="K22" s="2" t="s">
         <v>471</v>
       </c>
@@ -20488,7 +20531,7 @@
       <c r="M22" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="N22" s="121"/>
+      <c r="N22" s="124"/>
       <c r="O22" s="2" t="s">
         <v>474</v>
       </c>
@@ -20498,7 +20541,7 @@
       <c r="Q22" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="R22" s="121"/>
+      <c r="R22" s="124"/>
       <c r="S22" s="2" t="s">
         <v>477</v>
       </c>
@@ -20508,7 +20551,7 @@
       <c r="U22" s="86" t="s">
         <v>479</v>
       </c>
-      <c r="V22" s="121"/>
+      <c r="V22" s="124"/>
       <c r="W22" s="2" t="s">
         <v>480</v>
       </c>
@@ -20518,7 +20561,7 @@
       <c r="Y22" s="86" t="s">
         <v>482</v>
       </c>
-      <c r="Z22" s="121"/>
+      <c r="Z22" s="124"/>
       <c r="AA22" s="79"/>
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
@@ -20551,7 +20594,7 @@
       <c r="I23" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J23" s="127">
+      <c r="J23" s="129">
         <v>1147</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -20563,19 +20606,19 @@
       <c r="M23" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="N23" s="125"/>
+      <c r="N23" s="128"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
-      <c r="R23" s="125"/>
+      <c r="R23" s="128"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
-      <c r="V23" s="125"/>
+      <c r="V23" s="128"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
-      <c r="Z23" s="126"/>
+      <c r="Z23" s="132"/>
       <c r="AA23" s="79"/>
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
@@ -20608,7 +20651,7 @@
       <c r="I24" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J24" s="121"/>
+      <c r="J24" s="124"/>
       <c r="K24" s="2" t="s">
         <v>483</v>
       </c>
@@ -20618,19 +20661,19 @@
       <c r="M24" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="N24" s="121"/>
+      <c r="N24" s="124"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
-      <c r="R24" s="121"/>
+      <c r="R24" s="124"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
-      <c r="V24" s="121"/>
+      <c r="V24" s="124"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="121"/>
+      <c r="Z24" s="124"/>
       <c r="AA24" s="79"/>
       <c r="AB24" s="79"/>
       <c r="AC24" s="79"/>
@@ -20663,23 +20706,23 @@
       <c r="I25" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J25" s="125"/>
+      <c r="J25" s="128"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="125"/>
+      <c r="N25" s="128"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
-      <c r="R25" s="125"/>
+      <c r="R25" s="128"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
-      <c r="V25" s="125"/>
+      <c r="V25" s="128"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
-      <c r="Z25" s="126"/>
+      <c r="Z25" s="132"/>
       <c r="AA25" s="79"/>
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
@@ -20712,23 +20755,23 @@
       <c r="I26" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J26" s="121"/>
+      <c r="J26" s="124"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="121"/>
+      <c r="N26" s="124"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
-      <c r="R26" s="121"/>
+      <c r="R26" s="124"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="25"/>
-      <c r="V26" s="121"/>
+      <c r="V26" s="124"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
-      <c r="Z26" s="121"/>
+      <c r="Z26" s="124"/>
       <c r="AA26" s="79"/>
       <c r="AB26" s="79"/>
       <c r="AC26" s="79"/>
@@ -20801,25 +20844,25 @@
       <c r="I28" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J28" s="125">
+      <c r="J28" s="128">
         <v>1245</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
-      <c r="N28" s="125">
+      <c r="N28" s="128">
         <v>1251</v>
       </c>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
-      <c r="R28" s="125">
+      <c r="R28" s="128">
         <v>1495</v>
       </c>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
-      <c r="V28" s="125">
+      <c r="V28" s="128">
         <v>1701</v>
       </c>
       <c r="W28" s="24" t="s">
@@ -20831,7 +20874,7 @@
       <c r="Y28" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="Z28" s="126"/>
+      <c r="Z28" s="132"/>
       <c r="AA28" s="79"/>
       <c r="AB28" s="79"/>
       <c r="AC28" s="79"/>
@@ -20864,19 +20907,19 @@
       <c r="I29" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="124"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
-      <c r="N29" s="121"/>
+      <c r="N29" s="124"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
-      <c r="R29" s="121"/>
+      <c r="R29" s="124"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
-      <c r="V29" s="121"/>
+      <c r="V29" s="124"/>
       <c r="W29" s="24" t="s">
         <v>486</v>
       </c>
@@ -20886,7 +20929,7 @@
       <c r="Y29" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="Z29" s="121"/>
+      <c r="Z29" s="124"/>
       <c r="AA29" s="79"/>
       <c r="AB29" s="79"/>
       <c r="AC29" s="79"/>
@@ -20919,29 +20962,29 @@
       <c r="I30" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J30" s="125">
+      <c r="J30" s="128">
         <v>1012</v>
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="125">
+      <c r="N30" s="128">
         <v>1249</v>
       </c>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
-      <c r="R30" s="125">
+      <c r="R30" s="128">
         <v>1460</v>
       </c>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="126"/>
+      <c r="V30" s="132"/>
       <c r="W30" s="79"/>
       <c r="X30" s="79"/>
       <c r="Y30" s="79"/>
-      <c r="Z30" s="126"/>
+      <c r="Z30" s="132"/>
       <c r="AA30" s="79"/>
       <c r="AB30" s="79"/>
       <c r="AC30" s="79"/>
@@ -20974,23 +21017,23 @@
       <c r="I31" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="124"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="121"/>
+      <c r="N31" s="124"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
-      <c r="R31" s="121"/>
+      <c r="R31" s="124"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
-      <c r="V31" s="121"/>
+      <c r="V31" s="124"/>
       <c r="W31" s="79"/>
       <c r="X31" s="79"/>
       <c r="Y31" s="79"/>
-      <c r="Z31" s="121"/>
+      <c r="Z31" s="124"/>
       <c r="AA31" s="79"/>
       <c r="AB31" s="79"/>
       <c r="AC31" s="79"/>
@@ -21023,13 +21066,13 @@
       <c r="I32" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J32" s="125">
+      <c r="J32" s="128">
         <v>1182</v>
       </c>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="125">
+      <c r="N32" s="128">
         <v>1274</v>
       </c>
       <c r="O32" s="24" t="s">
@@ -21041,7 +21084,7 @@
       <c r="Q32" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="R32" s="125">
+      <c r="R32" s="128">
         <v>1098</v>
       </c>
       <c r="S32" s="24" t="s">
@@ -21053,7 +21096,7 @@
       <c r="U32" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="V32" s="125">
+      <c r="V32" s="128">
         <v>1344</v>
       </c>
       <c r="W32" s="24" t="s">
@@ -21065,7 +21108,7 @@
       <c r="Y32" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="Z32" s="126"/>
+      <c r="Z32" s="132"/>
       <c r="AA32" s="87"/>
       <c r="AB32" s="87"/>
       <c r="AC32" s="87"/>
@@ -21098,11 +21141,11 @@
       <c r="I33" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="124"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="121"/>
+      <c r="N33" s="124"/>
       <c r="O33" s="24" t="s">
         <v>489</v>
       </c>
@@ -21112,7 +21155,7 @@
       <c r="Q33" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="R33" s="121"/>
+      <c r="R33" s="124"/>
       <c r="S33" s="24" t="s">
         <v>492</v>
       </c>
@@ -21122,7 +21165,7 @@
       <c r="U33" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="V33" s="121"/>
+      <c r="V33" s="124"/>
       <c r="W33" s="24" t="s">
         <v>495</v>
       </c>
@@ -21132,7 +21175,7 @@
       <c r="Y33" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="Z33" s="121"/>
+      <c r="Z33" s="124"/>
       <c r="AA33" s="87"/>
       <c r="AB33" s="87"/>
       <c r="AC33" s="87"/>
@@ -21205,7 +21248,7 @@
       <c r="I35" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J35" s="125">
+      <c r="J35" s="128">
         <v>1085</v>
       </c>
       <c r="K35" s="24" t="s">
@@ -21217,7 +21260,7 @@
       <c r="M35" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="N35" s="125">
+      <c r="N35" s="128">
         <v>1200</v>
       </c>
       <c r="O35" s="24" t="s">
@@ -21229,11 +21272,11 @@
       <c r="Q35" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="R35" s="125"/>
+      <c r="R35" s="128"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
       <c r="U35" s="25"/>
-      <c r="V35" s="125">
+      <c r="V35" s="128">
         <v>1244</v>
       </c>
       <c r="W35" s="24" t="s">
@@ -21245,7 +21288,7 @@
       <c r="Y35" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="Z35" s="126"/>
+      <c r="Z35" s="132"/>
       <c r="AA35" s="79"/>
       <c r="AB35" s="79"/>
       <c r="AC35" s="79"/>
@@ -21278,7 +21321,7 @@
       <c r="I36" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J36" s="121"/>
+      <c r="J36" s="124"/>
       <c r="K36" s="24" t="s">
         <v>498</v>
       </c>
@@ -21288,7 +21331,7 @@
       <c r="M36" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="N36" s="121"/>
+      <c r="N36" s="124"/>
       <c r="O36" s="24" t="s">
         <v>501</v>
       </c>
@@ -21298,11 +21341,11 @@
       <c r="Q36" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="R36" s="121"/>
+      <c r="R36" s="124"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
-      <c r="V36" s="121"/>
+      <c r="V36" s="124"/>
       <c r="W36" s="24" t="s">
         <v>504</v>
       </c>
@@ -21312,7 +21355,7 @@
       <c r="Y36" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="Z36" s="121"/>
+      <c r="Z36" s="124"/>
       <c r="AA36" s="79"/>
       <c r="AB36" s="79"/>
       <c r="AC36" s="79"/>
@@ -21345,23 +21388,23 @@
       <c r="I37" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J37" s="125"/>
+      <c r="J37" s="128"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="125"/>
+      <c r="N37" s="128"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
-      <c r="R37" s="125"/>
+      <c r="R37" s="128"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
-      <c r="V37" s="126"/>
+      <c r="V37" s="132"/>
       <c r="W37" s="79"/>
       <c r="X37" s="79"/>
       <c r="Y37" s="79"/>
-      <c r="Z37" s="126"/>
+      <c r="Z37" s="132"/>
       <c r="AA37" s="79"/>
       <c r="AB37" s="79"/>
       <c r="AC37" s="79"/>
@@ -21394,23 +21437,23 @@
       <c r="I38" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J38" s="121"/>
+      <c r="J38" s="124"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="121"/>
+      <c r="N38" s="124"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
-      <c r="R38" s="121"/>
+      <c r="R38" s="124"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
-      <c r="V38" s="121"/>
+      <c r="V38" s="124"/>
       <c r="W38" s="79"/>
       <c r="X38" s="79"/>
       <c r="Y38" s="79"/>
-      <c r="Z38" s="121"/>
+      <c r="Z38" s="124"/>
       <c r="AA38" s="79"/>
       <c r="AB38" s="79"/>
       <c r="AC38" s="79"/>
@@ -21443,29 +21486,29 @@
       <c r="I39" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J39" s="125">
+      <c r="J39" s="128">
         <v>1447</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
-      <c r="N39" s="125">
+      <c r="N39" s="128">
         <v>1484</v>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
       <c r="Q39" s="25"/>
-      <c r="R39" s="125">
+      <c r="R39" s="128">
         <v>1560</v>
       </c>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
-      <c r="V39" s="126"/>
+      <c r="V39" s="132"/>
       <c r="W39" s="79"/>
       <c r="X39" s="79"/>
       <c r="Y39" s="79"/>
-      <c r="Z39" s="126"/>
+      <c r="Z39" s="132"/>
       <c r="AA39" s="79"/>
       <c r="AB39" s="79"/>
       <c r="AC39" s="79"/>
@@ -21498,23 +21541,23 @@
       <c r="I40" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J40" s="121"/>
+      <c r="J40" s="124"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
-      <c r="N40" s="121"/>
+      <c r="N40" s="124"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
-      <c r="R40" s="121"/>
+      <c r="R40" s="124"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
-      <c r="V40" s="121"/>
+      <c r="V40" s="124"/>
       <c r="W40" s="79"/>
       <c r="X40" s="79"/>
       <c r="Y40" s="79"/>
-      <c r="Z40" s="121"/>
+      <c r="Z40" s="124"/>
       <c r="AA40" s="79"/>
       <c r="AB40" s="79"/>
       <c r="AC40" s="79"/>
@@ -21756,7 +21799,7 @@
       <c r="I46" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J46" s="127">
+      <c r="J46" s="129">
         <v>1691</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -21768,7 +21811,7 @@
       <c r="M46" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="N46" s="127">
+      <c r="N46" s="129">
         <v>1017</v>
       </c>
       <c r="O46" s="7" t="s">
@@ -21778,7 +21821,7 @@
         <v>511</v>
       </c>
       <c r="Q46" s="7"/>
-      <c r="R46" s="127">
+      <c r="R46" s="129">
         <v>1410</v>
       </c>
       <c r="S46" s="7" t="s">
@@ -21788,11 +21831,11 @@
         <v>513</v>
       </c>
       <c r="U46" s="25"/>
-      <c r="V46" s="126"/>
+      <c r="V46" s="132"/>
       <c r="W46" s="79"/>
       <c r="X46" s="79"/>
       <c r="Y46" s="79"/>
-      <c r="Z46" s="126"/>
+      <c r="Z46" s="132"/>
       <c r="AA46" s="79"/>
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
@@ -21825,7 +21868,7 @@
       <c r="I47" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J47" s="121"/>
+      <c r="J47" s="124"/>
       <c r="K47" s="7" t="s">
         <v>507</v>
       </c>
@@ -21835,7 +21878,7 @@
       <c r="M47" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="N47" s="121"/>
+      <c r="N47" s="124"/>
       <c r="O47" s="7" t="s">
         <v>510</v>
       </c>
@@ -21843,7 +21886,7 @@
         <v>511</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="121"/>
+      <c r="R47" s="124"/>
       <c r="S47" s="7" t="s">
         <v>512</v>
       </c>
@@ -21851,11 +21894,11 @@
         <v>513</v>
       </c>
       <c r="U47" s="25"/>
-      <c r="V47" s="121"/>
+      <c r="V47" s="124"/>
       <c r="W47" s="79"/>
       <c r="X47" s="79"/>
       <c r="Y47" s="79"/>
-      <c r="Z47" s="121"/>
+      <c r="Z47" s="124"/>
       <c r="AA47" s="79"/>
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
@@ -21888,23 +21931,23 @@
       <c r="I48" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J48" s="125"/>
+      <c r="J48" s="128"/>
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
-      <c r="N48" s="125"/>
+      <c r="N48" s="128"/>
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>
-      <c r="R48" s="125"/>
+      <c r="R48" s="128"/>
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
-      <c r="V48" s="126"/>
+      <c r="V48" s="132"/>
       <c r="W48" s="79"/>
       <c r="X48" s="79"/>
       <c r="Y48" s="79"/>
-      <c r="Z48" s="126"/>
+      <c r="Z48" s="132"/>
       <c r="AA48" s="79"/>
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
@@ -21937,23 +21980,23 @@
       <c r="I49" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J49" s="121"/>
+      <c r="J49" s="124"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
-      <c r="N49" s="121"/>
+      <c r="N49" s="124"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
-      <c r="R49" s="121"/>
+      <c r="R49" s="124"/>
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
-      <c r="V49" s="121"/>
+      <c r="V49" s="124"/>
       <c r="W49" s="79"/>
       <c r="X49" s="79"/>
       <c r="Y49" s="79"/>
-      <c r="Z49" s="121"/>
+      <c r="Z49" s="124"/>
       <c r="AA49" s="79"/>
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
@@ -21986,23 +22029,23 @@
       <c r="I50" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J50" s="125"/>
+      <c r="J50" s="128"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
-      <c r="N50" s="125"/>
+      <c r="N50" s="128"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
-      <c r="R50" s="125"/>
+      <c r="R50" s="128"/>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
-      <c r="V50" s="125"/>
+      <c r="V50" s="128"/>
       <c r="W50" s="25"/>
       <c r="X50" s="25"/>
       <c r="Y50" s="25"/>
-      <c r="Z50" s="126"/>
+      <c r="Z50" s="132"/>
       <c r="AA50" s="79"/>
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
@@ -22035,23 +22078,23 @@
       <c r="I51" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J51" s="121"/>
+      <c r="J51" s="124"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
-      <c r="N51" s="121"/>
+      <c r="N51" s="124"/>
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
-      <c r="R51" s="121"/>
+      <c r="R51" s="124"/>
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
-      <c r="V51" s="121"/>
+      <c r="V51" s="124"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
-      <c r="Z51" s="121"/>
+      <c r="Z51" s="124"/>
       <c r="AA51" s="79"/>
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
@@ -22084,23 +22127,23 @@
       <c r="I52" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J52" s="125"/>
+      <c r="J52" s="128"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
-      <c r="N52" s="125"/>
+      <c r="N52" s="128"/>
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
-      <c r="R52" s="125"/>
+      <c r="R52" s="128"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
-      <c r="V52" s="126"/>
+      <c r="V52" s="132"/>
       <c r="W52" s="79"/>
       <c r="X52" s="79"/>
       <c r="Y52" s="79"/>
-      <c r="Z52" s="126"/>
+      <c r="Z52" s="132"/>
       <c r="AA52" s="79"/>
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
@@ -22133,23 +22176,23 @@
       <c r="I53" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J53" s="121"/>
+      <c r="J53" s="124"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
-      <c r="N53" s="121"/>
+      <c r="N53" s="124"/>
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
       <c r="Q53" s="25"/>
-      <c r="R53" s="121"/>
+      <c r="R53" s="124"/>
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
-      <c r="V53" s="121"/>
+      <c r="V53" s="124"/>
       <c r="W53" s="79"/>
       <c r="X53" s="79"/>
       <c r="Y53" s="79"/>
-      <c r="Z53" s="121"/>
+      <c r="Z53" s="124"/>
       <c r="AA53" s="79"/>
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
@@ -22222,15 +22265,15 @@
       <c r="I55" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J55" s="125"/>
+      <c r="J55" s="128"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
-      <c r="N55" s="125"/>
+      <c r="N55" s="128"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
-      <c r="R55" s="129">
+      <c r="R55" s="133">
         <v>1348</v>
       </c>
       <c r="S55" s="89" t="s">
@@ -22242,11 +22285,11 @@
       <c r="U55" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="V55" s="126"/>
+      <c r="V55" s="132"/>
       <c r="W55" s="79"/>
       <c r="X55" s="79"/>
       <c r="Y55" s="79"/>
-      <c r="Z55" s="126"/>
+      <c r="Z55" s="132"/>
       <c r="AA55" s="79"/>
       <c r="AB55" s="79"/>
       <c r="AC55" s="79"/>
@@ -22279,15 +22322,15 @@
       <c r="I56" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J56" s="121"/>
+      <c r="J56" s="124"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="121"/>
+      <c r="N56" s="124"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
-      <c r="R56" s="121"/>
+      <c r="R56" s="124"/>
       <c r="S56" s="89" t="s">
         <v>514</v>
       </c>
@@ -22297,11 +22340,11 @@
       <c r="U56" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="V56" s="121"/>
+      <c r="V56" s="124"/>
       <c r="W56" s="79"/>
       <c r="X56" s="79"/>
       <c r="Y56" s="79"/>
-      <c r="Z56" s="121"/>
+      <c r="Z56" s="124"/>
       <c r="AA56" s="79"/>
       <c r="AB56" s="79"/>
       <c r="AC56" s="79"/>
@@ -22334,7 +22377,7 @@
       <c r="I57" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J57" s="127">
+      <c r="J57" s="129">
         <v>1408</v>
       </c>
       <c r="K57" s="91" t="s">
@@ -22346,7 +22389,7 @@
       <c r="M57" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N57" s="127">
+      <c r="N57" s="129">
         <v>1647</v>
       </c>
       <c r="O57" s="91" t="s">
@@ -22358,15 +22401,15 @@
       <c r="Q57" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="R57" s="125"/>
+      <c r="R57" s="128"/>
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
-      <c r="V57" s="126"/>
+      <c r="V57" s="132"/>
       <c r="W57" s="79"/>
       <c r="X57" s="79"/>
       <c r="Y57" s="79"/>
-      <c r="Z57" s="126"/>
+      <c r="Z57" s="132"/>
       <c r="AA57" s="79"/>
       <c r="AB57" s="79"/>
       <c r="AC57" s="79"/>
@@ -22399,7 +22442,7 @@
       <c r="I58" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J58" s="121"/>
+      <c r="J58" s="124"/>
       <c r="K58" s="91" t="s">
         <v>517</v>
       </c>
@@ -22409,7 +22452,7 @@
       <c r="M58" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="N58" s="121"/>
+      <c r="N58" s="124"/>
       <c r="O58" s="91" t="s">
         <v>519</v>
       </c>
@@ -22419,15 +22462,15 @@
       <c r="Q58" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="R58" s="121"/>
+      <c r="R58" s="124"/>
       <c r="S58" s="25"/>
       <c r="T58" s="25"/>
       <c r="U58" s="25"/>
-      <c r="V58" s="121"/>
+      <c r="V58" s="124"/>
       <c r="W58" s="79"/>
       <c r="X58" s="79"/>
       <c r="Y58" s="79"/>
-      <c r="Z58" s="121"/>
+      <c r="Z58" s="124"/>
       <c r="AA58" s="79"/>
       <c r="AB58" s="79"/>
       <c r="AC58" s="79"/>
@@ -22460,7 +22503,7 @@
       <c r="I59" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J59" s="125">
+      <c r="J59" s="128">
         <v>1055</v>
       </c>
       <c r="K59" s="92" t="s">
@@ -22472,13 +22515,13 @@
       <c r="M59" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="N59" s="125">
+      <c r="N59" s="128">
         <v>1093</v>
       </c>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="25"/>
-      <c r="R59" s="125">
+      <c r="R59" s="128">
         <v>1501</v>
       </c>
       <c r="S59" s="24" t="s">
@@ -22490,7 +22533,7 @@
       <c r="U59" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="V59" s="125">
+      <c r="V59" s="128">
         <v>1585</v>
       </c>
       <c r="W59" s="24" t="s">
@@ -22502,7 +22545,7 @@
       <c r="Y59" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="Z59" s="128">
+      <c r="Z59" s="138">
         <v>1738</v>
       </c>
       <c r="AA59" s="93" t="s">
@@ -22543,7 +22586,7 @@
       <c r="I60" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J60" s="121"/>
+      <c r="J60" s="124"/>
       <c r="K60" s="92" t="s">
         <v>522</v>
       </c>
@@ -22553,11 +22596,11 @@
       <c r="M60" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="N60" s="121"/>
+      <c r="N60" s="124"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
-      <c r="R60" s="121"/>
+      <c r="R60" s="124"/>
       <c r="S60" s="24" t="s">
         <v>525</v>
       </c>
@@ -22567,7 +22610,7 @@
       <c r="U60" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="V60" s="121"/>
+      <c r="V60" s="124"/>
       <c r="W60" s="24" t="s">
         <v>528</v>
       </c>
@@ -22577,7 +22620,7 @@
       <c r="Y60" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="Z60" s="121"/>
+      <c r="Z60" s="124"/>
       <c r="AA60" s="93" t="s">
         <v>531</v>
       </c>
@@ -22616,7 +22659,7 @@
       <c r="I61" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J61" s="131">
+      <c r="J61" s="136">
         <v>1738</v>
       </c>
       <c r="K61" s="94" t="s">
@@ -22640,7 +22683,7 @@
       <c r="Q61" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="R61" s="125">
+      <c r="R61" s="128">
         <v>1111</v>
       </c>
       <c r="S61" s="24" t="s">
@@ -22652,11 +22695,11 @@
       <c r="U61" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="V61" s="126"/>
+      <c r="V61" s="132"/>
       <c r="W61" s="79"/>
       <c r="X61" s="79"/>
       <c r="Y61" s="79"/>
-      <c r="Z61" s="126"/>
+      <c r="Z61" s="132"/>
       <c r="AA61" s="79"/>
       <c r="AB61" s="79"/>
       <c r="AC61" s="79"/>
@@ -22689,7 +22732,7 @@
       <c r="I62" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J62" s="121"/>
+      <c r="J62" s="124"/>
       <c r="K62" s="94" t="s">
         <v>531</v>
       </c>
@@ -22699,19 +22742,19 @@
       <c r="M62" s="94" t="s">
         <v>533</v>
       </c>
-      <c r="N62" s="121"/>
+      <c r="N62" s="124"/>
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
-      <c r="R62" s="121"/>
+      <c r="R62" s="124"/>
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
       <c r="U62" s="25"/>
-      <c r="V62" s="121"/>
+      <c r="V62" s="124"/>
       <c r="W62" s="79"/>
       <c r="X62" s="79"/>
       <c r="Y62" s="79"/>
-      <c r="Z62" s="121"/>
+      <c r="Z62" s="124"/>
       <c r="AA62" s="79"/>
       <c r="AB62" s="79"/>
       <c r="AC62" s="79"/>
@@ -22784,23 +22827,23 @@
       <c r="I64" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J64" s="125"/>
+      <c r="J64" s="128"/>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
-      <c r="N64" s="125"/>
+      <c r="N64" s="128"/>
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
       <c r="Q64" s="25"/>
-      <c r="R64" s="125"/>
+      <c r="R64" s="128"/>
       <c r="S64" s="25"/>
       <c r="T64" s="25"/>
       <c r="U64" s="25"/>
-      <c r="V64" s="126"/>
+      <c r="V64" s="132"/>
       <c r="W64" s="79"/>
       <c r="X64" s="79"/>
       <c r="Y64" s="79"/>
-      <c r="Z64" s="126"/>
+      <c r="Z64" s="132"/>
       <c r="AA64" s="79"/>
       <c r="AB64" s="79"/>
       <c r="AC64" s="79"/>
@@ -22833,23 +22876,23 @@
       <c r="I65" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J65" s="121"/>
+      <c r="J65" s="124"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
-      <c r="N65" s="121"/>
+      <c r="N65" s="124"/>
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
-      <c r="R65" s="121"/>
+      <c r="R65" s="124"/>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
       <c r="U65" s="25"/>
-      <c r="V65" s="121"/>
+      <c r="V65" s="124"/>
       <c r="W65" s="79"/>
       <c r="X65" s="79"/>
       <c r="Y65" s="79"/>
-      <c r="Z65" s="121"/>
+      <c r="Z65" s="124"/>
       <c r="AA65" s="79"/>
       <c r="AB65" s="79"/>
       <c r="AC65" s="79"/>
@@ -22882,23 +22925,23 @@
       <c r="I66" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J66" s="125"/>
+      <c r="J66" s="128"/>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
-      <c r="N66" s="125"/>
+      <c r="N66" s="128"/>
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
       <c r="Q66" s="25"/>
-      <c r="R66" s="125"/>
+      <c r="R66" s="128"/>
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
       <c r="U66" s="25"/>
-      <c r="V66" s="126"/>
+      <c r="V66" s="132"/>
       <c r="W66" s="79"/>
       <c r="X66" s="79"/>
       <c r="Y66" s="79"/>
-      <c r="Z66" s="126"/>
+      <c r="Z66" s="132"/>
       <c r="AA66" s="79"/>
       <c r="AB66" s="79"/>
       <c r="AC66" s="79"/>
@@ -22931,23 +22974,23 @@
       <c r="I67" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J67" s="121"/>
+      <c r="J67" s="124"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
-      <c r="N67" s="121"/>
+      <c r="N67" s="124"/>
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
-      <c r="R67" s="121"/>
+      <c r="R67" s="124"/>
       <c r="S67" s="25"/>
       <c r="T67" s="25"/>
       <c r="U67" s="25"/>
-      <c r="V67" s="121"/>
+      <c r="V67" s="124"/>
       <c r="W67" s="79"/>
       <c r="X67" s="79"/>
       <c r="Y67" s="79"/>
-      <c r="Z67" s="121"/>
+      <c r="Z67" s="124"/>
       <c r="AA67" s="79"/>
       <c r="AB67" s="79"/>
       <c r="AC67" s="79"/>
@@ -22980,7 +23023,7 @@
       <c r="I68" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J68" s="125">
+      <c r="J68" s="128">
         <v>1176</v>
       </c>
       <c r="K68" s="24" t="s">
@@ -22992,7 +23035,7 @@
       <c r="M68" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="N68" s="125">
+      <c r="N68" s="128">
         <v>1333</v>
       </c>
       <c r="O68" s="24" t="s">
@@ -23004,7 +23047,7 @@
       <c r="Q68" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="R68" s="125">
+      <c r="R68" s="128">
         <v>1672</v>
       </c>
       <c r="S68" s="24" t="s">
@@ -23016,7 +23059,7 @@
       <c r="U68" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="V68" s="125">
+      <c r="V68" s="128">
         <v>1779</v>
       </c>
       <c r="W68" s="24" t="s">
@@ -23028,7 +23071,7 @@
       <c r="Y68" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="Z68" s="126"/>
+      <c r="Z68" s="132"/>
       <c r="AA68" s="79"/>
       <c r="AB68" s="79"/>
       <c r="AC68" s="79"/>
@@ -23061,23 +23104,23 @@
       <c r="I69" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J69" s="121"/>
+      <c r="J69" s="124"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
-      <c r="N69" s="121"/>
+      <c r="N69" s="124"/>
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
       <c r="Q69" s="25"/>
-      <c r="R69" s="121"/>
+      <c r="R69" s="124"/>
       <c r="S69" s="25"/>
       <c r="T69" s="25"/>
       <c r="U69" s="25"/>
-      <c r="V69" s="121"/>
+      <c r="V69" s="124"/>
       <c r="W69" s="25"/>
       <c r="X69" s="25"/>
       <c r="Y69" s="25"/>
-      <c r="Z69" s="121"/>
+      <c r="Z69" s="124"/>
       <c r="AA69" s="79"/>
       <c r="AB69" s="79"/>
       <c r="AC69" s="79"/>
@@ -23110,31 +23153,31 @@
       <c r="I70" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J70" s="125">
+      <c r="J70" s="128">
         <v>1219</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
-      <c r="N70" s="125">
+      <c r="N70" s="128">
         <v>1335</v>
       </c>
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
       <c r="Q70" s="25"/>
-      <c r="R70" s="125">
+      <c r="R70" s="128">
         <v>1356</v>
       </c>
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
       <c r="U70" s="25"/>
-      <c r="V70" s="125">
+      <c r="V70" s="128">
         <v>1466</v>
       </c>
       <c r="W70" s="25"/>
       <c r="X70" s="25"/>
       <c r="Y70" s="25"/>
-      <c r="Z70" s="126"/>
+      <c r="Z70" s="132"/>
       <c r="AA70" s="79"/>
       <c r="AB70" s="79"/>
       <c r="AC70" s="79"/>
@@ -23167,23 +23210,23 @@
       <c r="I71" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J71" s="121"/>
+      <c r="J71" s="124"/>
       <c r="K71" s="25"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
-      <c r="N71" s="121"/>
+      <c r="N71" s="124"/>
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
       <c r="Q71" s="25"/>
-      <c r="R71" s="121"/>
+      <c r="R71" s="124"/>
       <c r="S71" s="25"/>
       <c r="T71" s="25"/>
       <c r="U71" s="25"/>
-      <c r="V71" s="121"/>
+      <c r="V71" s="124"/>
       <c r="W71" s="25"/>
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
-      <c r="Z71" s="121"/>
+      <c r="Z71" s="124"/>
       <c r="AA71" s="79"/>
       <c r="AB71" s="79"/>
       <c r="AC71" s="79"/>
@@ -23256,23 +23299,23 @@
       <c r="I73" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J73" s="125"/>
+      <c r="J73" s="128"/>
       <c r="K73" s="25"/>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
-      <c r="N73" s="125"/>
+      <c r="N73" s="128"/>
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
       <c r="Q73" s="25"/>
-      <c r="R73" s="125"/>
+      <c r="R73" s="128"/>
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
-      <c r="V73" s="126"/>
+      <c r="V73" s="132"/>
       <c r="W73" s="79"/>
       <c r="X73" s="79"/>
       <c r="Y73" s="79"/>
-      <c r="Z73" s="126"/>
+      <c r="Z73" s="132"/>
       <c r="AA73" s="79"/>
       <c r="AB73" s="79"/>
       <c r="AC73" s="79"/>
@@ -23305,23 +23348,23 @@
       <c r="I74" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J74" s="121"/>
+      <c r="J74" s="124"/>
       <c r="K74" s="25"/>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
-      <c r="N74" s="121"/>
+      <c r="N74" s="124"/>
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
       <c r="Q74" s="25"/>
-      <c r="R74" s="121"/>
+      <c r="R74" s="124"/>
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
       <c r="U74" s="25"/>
-      <c r="V74" s="121"/>
+      <c r="V74" s="124"/>
       <c r="W74" s="79"/>
       <c r="X74" s="79"/>
       <c r="Y74" s="79"/>
-      <c r="Z74" s="121"/>
+      <c r="Z74" s="124"/>
       <c r="AA74" s="79"/>
       <c r="AB74" s="79"/>
       <c r="AC74" s="79"/>
@@ -23354,7 +23397,7 @@
       <c r="I75" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J75" s="125">
+      <c r="J75" s="128">
         <v>1133</v>
       </c>
       <c r="K75" s="24" t="s">
@@ -23362,7 +23405,7 @@
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
-      <c r="N75" s="125">
+      <c r="N75" s="128">
         <v>1031</v>
       </c>
       <c r="O75" s="24" t="s">
@@ -23370,15 +23413,15 @@
       </c>
       <c r="P75" s="25"/>
       <c r="Q75" s="25"/>
-      <c r="R75" s="125"/>
+      <c r="R75" s="128"/>
       <c r="S75" s="25"/>
       <c r="T75" s="25"/>
       <c r="U75" s="25"/>
-      <c r="V75" s="126"/>
+      <c r="V75" s="132"/>
       <c r="W75" s="79"/>
       <c r="X75" s="79"/>
       <c r="Y75" s="79"/>
-      <c r="Z75" s="126"/>
+      <c r="Z75" s="132"/>
       <c r="AA75" s="79"/>
       <c r="AB75" s="79"/>
       <c r="AC75" s="79"/>
@@ -23411,7 +23454,7 @@
       <c r="I76" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J76" s="121"/>
+      <c r="J76" s="124"/>
       <c r="K76" s="95" t="s">
         <v>554</v>
       </c>
@@ -23421,7 +23464,7 @@
       <c r="M76" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="N76" s="121"/>
+      <c r="N76" s="124"/>
       <c r="O76" s="95" t="s">
         <v>557</v>
       </c>
@@ -23431,15 +23474,15 @@
       <c r="Q76" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="R76" s="121"/>
+      <c r="R76" s="124"/>
       <c r="S76" s="25"/>
       <c r="T76" s="25"/>
       <c r="U76" s="25"/>
-      <c r="V76" s="121"/>
+      <c r="V76" s="124"/>
       <c r="W76" s="79"/>
       <c r="X76" s="79"/>
       <c r="Y76" s="79"/>
-      <c r="Z76" s="121"/>
+      <c r="Z76" s="124"/>
       <c r="AA76" s="79"/>
       <c r="AB76" s="79"/>
       <c r="AC76" s="79"/>
@@ -23472,7 +23515,7 @@
       <c r="I77" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J77" s="125">
+      <c r="J77" s="128">
         <v>1047</v>
       </c>
       <c r="K77" s="24" t="s">
@@ -23484,7 +23527,7 @@
       <c r="M77" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="N77" s="125">
+      <c r="N77" s="128">
         <v>1048</v>
       </c>
       <c r="O77" s="24" t="s">
@@ -23496,7 +23539,7 @@
       <c r="Q77" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="R77" s="125">
+      <c r="R77" s="128">
         <v>1091</v>
       </c>
       <c r="S77" s="24" t="s">
@@ -23508,7 +23551,7 @@
       <c r="U77" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="V77" s="125">
+      <c r="V77" s="128">
         <v>1130</v>
       </c>
       <c r="W77" s="24" t="s">
@@ -23520,7 +23563,7 @@
       <c r="Y77" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="Z77" s="126"/>
+      <c r="Z77" s="132"/>
       <c r="AA77" s="79"/>
       <c r="AB77" s="79"/>
       <c r="AC77" s="79"/>
@@ -23553,7 +23596,7 @@
       <c r="I78" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J78" s="121"/>
+      <c r="J78" s="124"/>
       <c r="K78" s="24" t="s">
         <v>560</v>
       </c>
@@ -23563,7 +23606,7 @@
       <c r="M78" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="N78" s="121"/>
+      <c r="N78" s="124"/>
       <c r="O78" s="24" t="s">
         <v>563</v>
       </c>
@@ -23573,7 +23616,7 @@
       <c r="Q78" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="R78" s="121"/>
+      <c r="R78" s="124"/>
       <c r="S78" s="24" t="s">
         <v>566</v>
       </c>
@@ -23583,7 +23626,7 @@
       <c r="U78" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="V78" s="121"/>
+      <c r="V78" s="124"/>
       <c r="W78" s="24" t="s">
         <v>569</v>
       </c>
@@ -23593,7 +23636,7 @@
       <c r="Y78" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="Z78" s="121"/>
+      <c r="Z78" s="124"/>
       <c r="AA78" s="79"/>
       <c r="AB78" s="79"/>
       <c r="AC78" s="79"/>
@@ -23626,23 +23669,23 @@
       <c r="I79" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J79" s="125"/>
+      <c r="J79" s="128"/>
       <c r="K79" s="25"/>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
-      <c r="N79" s="125"/>
+      <c r="N79" s="128"/>
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
       <c r="Q79" s="25"/>
-      <c r="R79" s="125"/>
+      <c r="R79" s="128"/>
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
       <c r="U79" s="25"/>
-      <c r="V79" s="126"/>
+      <c r="V79" s="132"/>
       <c r="W79" s="79"/>
       <c r="X79" s="79"/>
       <c r="Y79" s="79"/>
-      <c r="Z79" s="126"/>
+      <c r="Z79" s="132"/>
       <c r="AA79" s="79"/>
       <c r="AB79" s="79"/>
       <c r="AC79" s="79"/>
@@ -23675,23 +23718,23 @@
       <c r="I80" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J80" s="121"/>
+      <c r="J80" s="124"/>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
-      <c r="N80" s="121"/>
+      <c r="N80" s="124"/>
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
       <c r="Q80" s="25"/>
-      <c r="R80" s="121"/>
+      <c r="R80" s="124"/>
       <c r="S80" s="25"/>
       <c r="T80" s="25"/>
       <c r="U80" s="25"/>
-      <c r="V80" s="121"/>
+      <c r="V80" s="124"/>
       <c r="W80" s="79"/>
       <c r="X80" s="79"/>
       <c r="Y80" s="79"/>
-      <c r="Z80" s="121"/>
+      <c r="Z80" s="124"/>
       <c r="AA80" s="79"/>
       <c r="AB80" s="79"/>
       <c r="AC80" s="79"/>
@@ -23764,7 +23807,7 @@
       <c r="I82" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J82" s="125">
+      <c r="J82" s="128">
         <v>1611</v>
       </c>
       <c r="K82" s="24" t="s">
@@ -23776,7 +23819,7 @@
       <c r="M82" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="N82" s="125">
+      <c r="N82" s="128">
         <v>1583</v>
       </c>
       <c r="O82" s="25" t="s">
@@ -23788,7 +23831,7 @@
       <c r="Q82" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="R82" s="125">
+      <c r="R82" s="128">
         <v>1693</v>
       </c>
       <c r="S82" s="24" t="s">
@@ -23800,11 +23843,11 @@
       <c r="U82" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="V82" s="126"/>
+      <c r="V82" s="132"/>
       <c r="W82" s="79"/>
       <c r="X82" s="79"/>
       <c r="Y82" s="79"/>
-      <c r="Z82" s="126"/>
+      <c r="Z82" s="132"/>
       <c r="AA82" s="79"/>
       <c r="AB82" s="79"/>
       <c r="AC82" s="79"/>
@@ -23837,7 +23880,7 @@
       <c r="I83" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J83" s="121"/>
+      <c r="J83" s="124"/>
       <c r="K83" s="24" t="s">
         <v>571</v>
       </c>
@@ -23847,7 +23890,7 @@
       <c r="M83" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="N83" s="121"/>
+      <c r="N83" s="124"/>
       <c r="O83" s="25" t="s">
         <v>574</v>
       </c>
@@ -23857,7 +23900,7 @@
       <c r="Q83" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="R83" s="121"/>
+      <c r="R83" s="124"/>
       <c r="S83" s="24" t="s">
         <v>577</v>
       </c>
@@ -23867,11 +23910,11 @@
       <c r="U83" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="V83" s="121"/>
+      <c r="V83" s="124"/>
       <c r="W83" s="79"/>
       <c r="X83" s="79"/>
       <c r="Y83" s="79"/>
-      <c r="Z83" s="121"/>
+      <c r="Z83" s="124"/>
       <c r="AA83" s="79"/>
       <c r="AB83" s="79"/>
       <c r="AC83" s="79"/>
@@ -23904,7 +23947,7 @@
       <c r="I84" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J84" s="125">
+      <c r="J84" s="128">
         <v>1127</v>
       </c>
       <c r="K84" s="24" t="s">
@@ -23916,7 +23959,7 @@
       <c r="M84" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="N84" s="125">
+      <c r="N84" s="128">
         <v>1752</v>
       </c>
       <c r="O84" s="24" t="s">
@@ -23928,7 +23971,7 @@
       <c r="Q84" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="R84" s="125">
+      <c r="R84" s="128">
         <v>1337</v>
       </c>
       <c r="S84" s="24" t="s">
@@ -23940,11 +23983,11 @@
       <c r="U84" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="V84" s="126"/>
+      <c r="V84" s="132"/>
       <c r="W84" s="79"/>
       <c r="X84" s="79"/>
       <c r="Y84" s="79"/>
-      <c r="Z84" s="126"/>
+      <c r="Z84" s="132"/>
       <c r="AA84" s="79"/>
       <c r="AB84" s="79"/>
       <c r="AC84" s="79"/>
@@ -23977,7 +24020,7 @@
       <c r="I85" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J85" s="121"/>
+      <c r="J85" s="124"/>
       <c r="K85" s="24" t="s">
         <v>580</v>
       </c>
@@ -23987,7 +24030,7 @@
       <c r="M85" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="N85" s="121"/>
+      <c r="N85" s="124"/>
       <c r="O85" s="24" t="s">
         <v>583</v>
       </c>
@@ -23997,7 +24040,7 @@
       <c r="Q85" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="R85" s="121"/>
+      <c r="R85" s="124"/>
       <c r="S85" s="24" t="s">
         <v>586</v>
       </c>
@@ -24007,11 +24050,11 @@
       <c r="U85" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="V85" s="121"/>
+      <c r="V85" s="124"/>
       <c r="W85" s="79"/>
       <c r="X85" s="79"/>
       <c r="Y85" s="79"/>
-      <c r="Z85" s="121"/>
+      <c r="Z85" s="124"/>
       <c r="AA85" s="79"/>
       <c r="AB85" s="79"/>
       <c r="AC85" s="79"/>
@@ -24044,7 +24087,7 @@
       <c r="I86" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J86" s="127">
+      <c r="J86" s="129">
         <v>1402</v>
       </c>
       <c r="K86" s="7" t="s">
@@ -24056,7 +24099,7 @@
       <c r="M86" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="N86" s="127">
+      <c r="N86" s="129">
         <v>1563</v>
       </c>
       <c r="O86" s="7" t="s">
@@ -24068,7 +24111,7 @@
       <c r="Q86" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="R86" s="127">
+      <c r="R86" s="129">
         <v>1263</v>
       </c>
       <c r="S86" s="7" t="s">
@@ -24080,11 +24123,11 @@
       <c r="U86" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="V86" s="126"/>
+      <c r="V86" s="132"/>
       <c r="W86" s="79"/>
       <c r="X86" s="79"/>
       <c r="Y86" s="79"/>
-      <c r="Z86" s="126"/>
+      <c r="Z86" s="132"/>
       <c r="AA86" s="79"/>
       <c r="AB86" s="79"/>
       <c r="AC86" s="79"/>
@@ -24117,7 +24160,7 @@
       <c r="I87" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J87" s="121"/>
+      <c r="J87" s="124"/>
       <c r="K87" s="7" t="s">
         <v>588</v>
       </c>
@@ -24127,7 +24170,7 @@
       <c r="M87" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="N87" s="121"/>
+      <c r="N87" s="124"/>
       <c r="O87" s="7" t="s">
         <v>590</v>
       </c>
@@ -24137,7 +24180,7 @@
       <c r="Q87" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="R87" s="121"/>
+      <c r="R87" s="124"/>
       <c r="S87" s="7" t="s">
         <v>593</v>
       </c>
@@ -24147,11 +24190,11 @@
       <c r="U87" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="V87" s="121"/>
+      <c r="V87" s="124"/>
       <c r="W87" s="79"/>
       <c r="X87" s="79"/>
       <c r="Y87" s="79"/>
-      <c r="Z87" s="121"/>
+      <c r="Z87" s="124"/>
       <c r="AA87" s="79"/>
       <c r="AB87" s="79"/>
       <c r="AC87" s="79"/>
@@ -24184,7 +24227,7 @@
       <c r="I88" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J88" s="127">
+      <c r="J88" s="129">
         <v>1591</v>
       </c>
       <c r="K88" s="7" t="s">
@@ -24196,7 +24239,7 @@
       <c r="M88" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="N88" s="127">
+      <c r="N88" s="129">
         <v>1364</v>
       </c>
       <c r="O88" s="7" t="s">
@@ -24208,7 +24251,7 @@
       <c r="Q88" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="R88" s="121">
+      <c r="R88" s="124">
         <v>1069</v>
       </c>
       <c r="S88" s="7" t="s">
@@ -24220,11 +24263,11 @@
       <c r="U88" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="V88" s="126"/>
+      <c r="V88" s="132"/>
       <c r="W88" s="79"/>
       <c r="X88" s="79"/>
       <c r="Y88" s="79"/>
-      <c r="Z88" s="126"/>
+      <c r="Z88" s="132"/>
       <c r="AA88" s="79"/>
       <c r="AB88" s="79"/>
       <c r="AC88" s="79"/>
@@ -24257,7 +24300,7 @@
       <c r="I89" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J89" s="121"/>
+      <c r="J89" s="124"/>
       <c r="K89" s="7" t="s">
         <v>596</v>
       </c>
@@ -24267,7 +24310,7 @@
       <c r="M89" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="N89" s="121"/>
+      <c r="N89" s="124"/>
       <c r="O89" s="7" t="s">
         <v>598</v>
       </c>
@@ -24277,7 +24320,7 @@
       <c r="Q89" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="R89" s="121"/>
+      <c r="R89" s="124"/>
       <c r="S89" s="7" t="s">
         <v>601</v>
       </c>
@@ -24287,11 +24330,11 @@
       <c r="U89" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="V89" s="121"/>
+      <c r="V89" s="124"/>
       <c r="W89" s="79"/>
       <c r="X89" s="79"/>
       <c r="Y89" s="79"/>
-      <c r="Z89" s="121"/>
+      <c r="Z89" s="124"/>
       <c r="AA89" s="79"/>
       <c r="AB89" s="79"/>
       <c r="AC89" s="79"/>
@@ -24489,7 +24532,7 @@
       <c r="I94" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J94" s="125">
+      <c r="J94" s="128">
         <v>1170</v>
       </c>
       <c r="K94" s="7" t="s">
@@ -24499,23 +24542,23 @@
         <v>605</v>
       </c>
       <c r="M94" s="25"/>
-      <c r="N94" s="125">
+      <c r="N94" s="128">
         <v>1228</v>
       </c>
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
       <c r="Q94" s="25"/>
-      <c r="R94" s="125">
+      <c r="R94" s="128">
         <v>1680</v>
       </c>
       <c r="S94" s="25"/>
       <c r="T94" s="25"/>
       <c r="U94" s="25"/>
-      <c r="V94" s="126"/>
+      <c r="V94" s="132"/>
       <c r="W94" s="79"/>
       <c r="X94" s="79"/>
       <c r="Y94" s="87"/>
-      <c r="Z94" s="126"/>
+      <c r="Z94" s="132"/>
       <c r="AA94" s="79"/>
       <c r="AB94" s="79"/>
       <c r="AC94" s="79"/>
@@ -24548,7 +24591,7 @@
       <c r="I95" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J95" s="121"/>
+      <c r="J95" s="124"/>
       <c r="K95" s="24" t="s">
         <v>604</v>
       </c>
@@ -24556,19 +24599,19 @@
         <v>605</v>
       </c>
       <c r="M95" s="25"/>
-      <c r="N95" s="121"/>
+      <c r="N95" s="124"/>
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
       <c r="Q95" s="25"/>
-      <c r="R95" s="121"/>
+      <c r="R95" s="124"/>
       <c r="S95" s="25"/>
       <c r="T95" s="25"/>
       <c r="U95" s="25"/>
-      <c r="V95" s="121"/>
+      <c r="V95" s="124"/>
       <c r="W95" s="79"/>
       <c r="X95" s="79"/>
       <c r="Y95" s="79"/>
-      <c r="Z95" s="121"/>
+      <c r="Z95" s="124"/>
       <c r="AA95" s="79"/>
       <c r="AB95" s="79"/>
       <c r="AC95" s="79"/>
@@ -24601,23 +24644,23 @@
       <c r="I96" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J96" s="125"/>
+      <c r="J96" s="128"/>
       <c r="K96" s="25"/>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
-      <c r="N96" s="125"/>
+      <c r="N96" s="128"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
       <c r="Q96" s="25"/>
-      <c r="R96" s="125"/>
+      <c r="R96" s="128"/>
       <c r="S96" s="25"/>
       <c r="T96" s="25"/>
       <c r="U96" s="25"/>
-      <c r="V96" s="126"/>
+      <c r="V96" s="132"/>
       <c r="W96" s="79"/>
       <c r="X96" s="79"/>
       <c r="Y96" s="79"/>
-      <c r="Z96" s="126"/>
+      <c r="Z96" s="132"/>
       <c r="AA96" s="79"/>
       <c r="AB96" s="79"/>
       <c r="AC96" s="79"/>
@@ -24650,23 +24693,23 @@
       <c r="I97" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J97" s="121"/>
+      <c r="J97" s="124"/>
       <c r="K97" s="25"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
-      <c r="N97" s="121"/>
+      <c r="N97" s="124"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
       <c r="Q97" s="25"/>
-      <c r="R97" s="121"/>
+      <c r="R97" s="124"/>
       <c r="S97" s="25"/>
       <c r="T97" s="25"/>
       <c r="U97" s="25"/>
-      <c r="V97" s="121"/>
+      <c r="V97" s="124"/>
       <c r="W97" s="79"/>
       <c r="X97" s="79"/>
       <c r="Y97" s="79"/>
-      <c r="Z97" s="121"/>
+      <c r="Z97" s="124"/>
       <c r="AA97" s="79"/>
       <c r="AB97" s="79"/>
       <c r="AC97" s="79"/>
@@ -24699,7 +24742,7 @@
       <c r="I98" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J98" s="125">
+      <c r="J98" s="128">
         <v>1541</v>
       </c>
       <c r="K98" s="24" t="s">
@@ -24711,7 +24754,7 @@
       <c r="M98" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="N98" s="125">
+      <c r="N98" s="128">
         <v>1092</v>
       </c>
       <c r="O98" s="24" t="s">
@@ -24723,7 +24766,7 @@
       <c r="Q98" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="R98" s="125">
+      <c r="R98" s="128">
         <v>1375</v>
       </c>
       <c r="S98" s="24" t="s">
@@ -24735,7 +24778,7 @@
       <c r="U98" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="V98" s="125">
+      <c r="V98" s="128">
         <v>1558</v>
       </c>
       <c r="W98" s="24" t="s">
@@ -24747,7 +24790,7 @@
       <c r="Y98" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="Z98" s="126"/>
+      <c r="Z98" s="132"/>
       <c r="AA98" s="79"/>
       <c r="AB98" s="79"/>
       <c r="AC98" s="79"/>
@@ -24780,7 +24823,7 @@
       <c r="I99" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J99" s="121"/>
+      <c r="J99" s="124"/>
       <c r="K99" s="24" t="s">
         <v>606</v>
       </c>
@@ -24790,7 +24833,7 @@
       <c r="M99" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="N99" s="121"/>
+      <c r="N99" s="124"/>
       <c r="O99" s="24" t="s">
         <v>609</v>
       </c>
@@ -24800,7 +24843,7 @@
       <c r="Q99" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="R99" s="121"/>
+      <c r="R99" s="124"/>
       <c r="S99" s="24" t="s">
         <v>611</v>
       </c>
@@ -24810,7 +24853,7 @@
       <c r="U99" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="V99" s="121"/>
+      <c r="V99" s="124"/>
       <c r="W99" s="24" t="s">
         <v>614</v>
       </c>
@@ -24820,7 +24863,7 @@
       <c r="Y99" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="Z99" s="121"/>
+      <c r="Z99" s="124"/>
       <c r="AA99" s="79"/>
       <c r="AB99" s="79"/>
       <c r="AC99" s="79"/>
@@ -24853,7 +24896,7 @@
       <c r="I100" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J100" s="125">
+      <c r="J100" s="128">
         <v>1326</v>
       </c>
       <c r="K100" s="24" t="s">
@@ -24865,7 +24908,7 @@
       <c r="M100" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="N100" s="125">
+      <c r="N100" s="128">
         <v>1636</v>
       </c>
       <c r="O100" s="24" t="s">
@@ -24877,7 +24920,7 @@
       <c r="Q100" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="R100" s="125">
+      <c r="R100" s="128">
         <v>1483</v>
       </c>
       <c r="S100" s="24" t="s">
@@ -24889,7 +24932,7 @@
       <c r="U100" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="V100" s="125">
+      <c r="V100" s="128">
         <v>1682</v>
       </c>
       <c r="W100" s="24" t="s">
@@ -24901,7 +24944,7 @@
       <c r="Y100" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="Z100" s="126"/>
+      <c r="Z100" s="132"/>
       <c r="AA100" s="79"/>
       <c r="AB100" s="79"/>
       <c r="AC100" s="79"/>
@@ -24934,7 +24977,7 @@
       <c r="I101" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J101" s="121"/>
+      <c r="J101" s="124"/>
       <c r="K101" s="24" t="s">
         <v>617</v>
       </c>
@@ -24944,7 +24987,7 @@
       <c r="M101" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="N101" s="121"/>
+      <c r="N101" s="124"/>
       <c r="O101" s="24" t="s">
         <v>629</v>
       </c>
@@ -24954,7 +24997,7 @@
       <c r="Q101" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="R101" s="121"/>
+      <c r="R101" s="124"/>
       <c r="S101" s="24" t="s">
         <v>623</v>
       </c>
@@ -24964,7 +25007,7 @@
       <c r="U101" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="V101" s="121"/>
+      <c r="V101" s="124"/>
       <c r="W101" s="24" t="s">
         <v>626</v>
       </c>
@@ -24974,7 +25017,7 @@
       <c r="Y101" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="Z101" s="121"/>
+      <c r="Z101" s="124"/>
       <c r="AA101" s="79"/>
       <c r="AB101" s="79"/>
       <c r="AC101" s="79"/>
@@ -25047,15 +25090,15 @@
       <c r="I103" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J103" s="125"/>
+      <c r="J103" s="128"/>
       <c r="K103" s="99"/>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
-      <c r="N103" s="125"/>
+      <c r="N103" s="128"/>
       <c r="O103" s="25"/>
       <c r="P103" s="25"/>
       <c r="Q103" s="25"/>
-      <c r="R103" s="125">
+      <c r="R103" s="128">
         <v>1781</v>
       </c>
       <c r="S103" s="99" t="s">
@@ -25067,11 +25110,11 @@
       <c r="U103" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="V103" s="126"/>
+      <c r="V103" s="132"/>
       <c r="W103" s="79"/>
       <c r="X103" s="79"/>
       <c r="Y103" s="79"/>
-      <c r="Z103" s="126"/>
+      <c r="Z103" s="132"/>
       <c r="AA103" s="79"/>
       <c r="AB103" s="79"/>
       <c r="AC103" s="79"/>
@@ -25104,15 +25147,15 @@
       <c r="I104" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J104" s="121"/>
+      <c r="J104" s="124"/>
       <c r="K104" s="25"/>
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
-      <c r="N104" s="121"/>
+      <c r="N104" s="124"/>
       <c r="O104" s="25"/>
       <c r="P104" s="25"/>
       <c r="Q104" s="25"/>
-      <c r="R104" s="121"/>
+      <c r="R104" s="124"/>
       <c r="S104" s="24" t="s">
         <v>632</v>
       </c>
@@ -25122,11 +25165,11 @@
       <c r="U104" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="V104" s="121"/>
+      <c r="V104" s="124"/>
       <c r="W104" s="79"/>
       <c r="X104" s="79"/>
       <c r="Y104" s="79"/>
-      <c r="Z104" s="121"/>
+      <c r="Z104" s="124"/>
       <c r="AA104" s="79"/>
       <c r="AB104" s="79"/>
       <c r="AC104" s="79"/>
@@ -25159,7 +25202,7 @@
       <c r="I105" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J105" s="125">
+      <c r="J105" s="128">
         <v>1793</v>
       </c>
       <c r="K105" s="24" t="s">
@@ -25171,7 +25214,7 @@
       <c r="M105" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="N105" s="125">
+      <c r="N105" s="128">
         <v>1057</v>
       </c>
       <c r="O105" s="24" t="s">
@@ -25183,15 +25226,15 @@
       <c r="Q105" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="R105" s="125"/>
+      <c r="R105" s="128"/>
       <c r="S105" s="25"/>
       <c r="T105" s="25"/>
       <c r="U105" s="25"/>
-      <c r="V105" s="126"/>
+      <c r="V105" s="132"/>
       <c r="W105" s="79"/>
       <c r="X105" s="79"/>
       <c r="Y105" s="79"/>
-      <c r="Z105" s="126"/>
+      <c r="Z105" s="132"/>
       <c r="AA105" s="79"/>
       <c r="AB105" s="79"/>
       <c r="AC105" s="79"/>
@@ -25224,7 +25267,7 @@
       <c r="I106" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J106" s="121"/>
+      <c r="J106" s="124"/>
       <c r="K106" s="24" t="s">
         <v>634</v>
       </c>
@@ -25234,7 +25277,7 @@
       <c r="M106" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="N106" s="121"/>
+      <c r="N106" s="124"/>
       <c r="O106" s="24" t="s">
         <v>637</v>
       </c>
@@ -25244,15 +25287,15 @@
       <c r="Q106" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="R106" s="121"/>
+      <c r="R106" s="124"/>
       <c r="S106" s="25"/>
       <c r="T106" s="25"/>
       <c r="U106" s="25"/>
-      <c r="V106" s="121"/>
+      <c r="V106" s="124"/>
       <c r="W106" s="79"/>
       <c r="X106" s="79"/>
       <c r="Y106" s="79"/>
-      <c r="Z106" s="121"/>
+      <c r="Z106" s="124"/>
       <c r="AA106" s="79"/>
       <c r="AB106" s="79"/>
       <c r="AC106" s="79"/>
@@ -25285,31 +25328,31 @@
       <c r="I107" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J107" s="125">
+      <c r="J107" s="128">
         <v>1482</v>
       </c>
       <c r="K107" s="25"/>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
-      <c r="N107" s="125">
+      <c r="N107" s="128">
         <v>1139</v>
       </c>
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
       <c r="Q107" s="25"/>
-      <c r="R107" s="125">
+      <c r="R107" s="128">
         <v>1458</v>
       </c>
       <c r="S107" s="25"/>
       <c r="T107" s="25"/>
       <c r="U107" s="25"/>
-      <c r="V107" s="125">
+      <c r="V107" s="128">
         <v>1252</v>
       </c>
       <c r="W107" s="25"/>
       <c r="X107" s="25"/>
       <c r="Y107" s="25"/>
-      <c r="Z107" s="126"/>
+      <c r="Z107" s="132"/>
       <c r="AA107" s="79"/>
       <c r="AB107" s="79"/>
       <c r="AC107" s="79"/>
@@ -25342,23 +25385,23 @@
       <c r="I108" s="85" t="s">
         <v>816</v>
       </c>
-      <c r="J108" s="121"/>
+      <c r="J108" s="124"/>
       <c r="K108" s="25"/>
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
-      <c r="N108" s="121"/>
+      <c r="N108" s="124"/>
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
       <c r="Q108" s="25"/>
-      <c r="R108" s="121"/>
+      <c r="R108" s="124"/>
       <c r="S108" s="25"/>
       <c r="T108" s="25"/>
       <c r="U108" s="25"/>
-      <c r="V108" s="121"/>
+      <c r="V108" s="124"/>
       <c r="W108" s="25"/>
       <c r="X108" s="25"/>
       <c r="Y108" s="25"/>
-      <c r="Z108" s="121"/>
+      <c r="Z108" s="124"/>
       <c r="AA108" s="79"/>
       <c r="AB108" s="79"/>
       <c r="AC108" s="79"/>
@@ -25391,23 +25434,23 @@
       <c r="I109" s="100" t="s">
         <v>817</v>
       </c>
-      <c r="J109" s="125"/>
+      <c r="J109" s="128"/>
       <c r="K109" s="25"/>
       <c r="L109" s="25"/>
       <c r="M109" s="25"/>
-      <c r="N109" s="125"/>
+      <c r="N109" s="128"/>
       <c r="O109" s="25"/>
       <c r="P109" s="25"/>
       <c r="Q109" s="25"/>
-      <c r="R109" s="125"/>
+      <c r="R109" s="128"/>
       <c r="S109" s="25"/>
       <c r="T109" s="25"/>
       <c r="U109" s="25"/>
-      <c r="V109" s="125"/>
+      <c r="V109" s="128"/>
       <c r="W109" s="25"/>
       <c r="X109" s="25"/>
       <c r="Y109" s="25"/>
-      <c r="Z109" s="125"/>
+      <c r="Z109" s="128"/>
       <c r="AA109" s="25"/>
       <c r="AB109" s="25"/>
       <c r="AC109" s="25"/>
@@ -25440,23 +25483,23 @@
       <c r="I110" s="100" t="s">
         <v>818</v>
       </c>
-      <c r="J110" s="121"/>
+      <c r="J110" s="124"/>
       <c r="K110" s="25"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
-      <c r="N110" s="121"/>
+      <c r="N110" s="124"/>
       <c r="O110" s="25"/>
       <c r="P110" s="25"/>
       <c r="Q110" s="25"/>
-      <c r="R110" s="121"/>
+      <c r="R110" s="124"/>
       <c r="S110" s="25"/>
       <c r="T110" s="25"/>
       <c r="U110" s="25"/>
-      <c r="V110" s="121"/>
+      <c r="V110" s="124"/>
       <c r="W110" s="25"/>
       <c r="X110" s="25"/>
       <c r="Y110" s="25"/>
-      <c r="Z110" s="121"/>
+      <c r="Z110" s="124"/>
       <c r="AA110" s="25"/>
       <c r="AB110" s="25"/>
       <c r="AC110" s="25"/>
@@ -25529,7 +25572,7 @@
       <c r="I112" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J112" s="125">
+      <c r="J112" s="128">
         <v>1043</v>
       </c>
       <c r="K112" s="97" t="s">
@@ -25541,7 +25584,7 @@
       <c r="M112" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="N112" s="125">
+      <c r="N112" s="128">
         <v>1128</v>
       </c>
       <c r="O112" s="97" t="s">
@@ -25553,7 +25596,7 @@
       <c r="Q112" s="97" t="s">
         <v>645</v>
       </c>
-      <c r="R112" s="125">
+      <c r="R112" s="128">
         <v>1231</v>
       </c>
       <c r="S112" s="97" t="s">
@@ -25565,11 +25608,11 @@
       <c r="U112" s="97" t="s">
         <v>647</v>
       </c>
-      <c r="V112" s="126"/>
+      <c r="V112" s="132"/>
       <c r="W112" s="79"/>
       <c r="X112" s="79"/>
       <c r="Y112" s="79"/>
-      <c r="Z112" s="126"/>
+      <c r="Z112" s="132"/>
       <c r="AA112" s="79"/>
       <c r="AB112" s="79"/>
       <c r="AC112" s="79"/>
@@ -25602,7 +25645,7 @@
       <c r="I113" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J113" s="121"/>
+      <c r="J113" s="124"/>
       <c r="K113" s="97" t="s">
         <v>640</v>
       </c>
@@ -25612,7 +25655,7 @@
       <c r="M113" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="N113" s="121"/>
+      <c r="N113" s="124"/>
       <c r="O113" s="97" t="s">
         <v>643</v>
       </c>
@@ -25622,7 +25665,7 @@
       <c r="Q113" s="97" t="s">
         <v>645</v>
       </c>
-      <c r="R113" s="121"/>
+      <c r="R113" s="124"/>
       <c r="S113" s="97" t="s">
         <v>319</v>
       </c>
@@ -25632,11 +25675,11 @@
       <c r="U113" s="97" t="s">
         <v>647</v>
       </c>
-      <c r="V113" s="121"/>
+      <c r="V113" s="124"/>
       <c r="W113" s="79"/>
       <c r="X113" s="79"/>
       <c r="Y113" s="79"/>
-      <c r="Z113" s="121"/>
+      <c r="Z113" s="124"/>
       <c r="AA113" s="79"/>
       <c r="AB113" s="79"/>
       <c r="AC113" s="79"/>
@@ -25669,7 +25712,7 @@
       <c r="I114" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J114" s="125">
+      <c r="J114" s="128">
         <v>1431</v>
       </c>
       <c r="K114" s="97" t="s">
@@ -25681,7 +25724,7 @@
       <c r="M114" s="97" t="s">
         <v>650</v>
       </c>
-      <c r="N114" s="125">
+      <c r="N114" s="128">
         <v>1446</v>
       </c>
       <c r="O114" s="97" t="s">
@@ -25693,15 +25736,15 @@
       <c r="Q114" s="97" t="s">
         <v>653</v>
       </c>
-      <c r="R114" s="125"/>
+      <c r="R114" s="128"/>
       <c r="S114" s="25"/>
       <c r="T114" s="25"/>
       <c r="U114" s="25"/>
-      <c r="V114" s="126"/>
+      <c r="V114" s="132"/>
       <c r="W114" s="79"/>
       <c r="X114" s="79"/>
       <c r="Y114" s="79"/>
-      <c r="Z114" s="126"/>
+      <c r="Z114" s="132"/>
       <c r="AA114" s="79"/>
       <c r="AB114" s="79"/>
       <c r="AC114" s="79"/>
@@ -25734,7 +25777,7 @@
       <c r="I115" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J115" s="121"/>
+      <c r="J115" s="124"/>
       <c r="K115" s="97" t="s">
         <v>648</v>
       </c>
@@ -25744,7 +25787,7 @@
       <c r="M115" s="97" t="s">
         <v>650</v>
       </c>
-      <c r="N115" s="121"/>
+      <c r="N115" s="124"/>
       <c r="O115" s="97" t="s">
         <v>651</v>
       </c>
@@ -25754,15 +25797,15 @@
       <c r="Q115" s="97" t="s">
         <v>653</v>
       </c>
-      <c r="R115" s="121"/>
+      <c r="R115" s="124"/>
       <c r="S115" s="25"/>
       <c r="T115" s="25"/>
       <c r="U115" s="25"/>
-      <c r="V115" s="121"/>
+      <c r="V115" s="124"/>
       <c r="W115" s="79"/>
       <c r="X115" s="79"/>
       <c r="Y115" s="79"/>
-      <c r="Z115" s="121"/>
+      <c r="Z115" s="124"/>
       <c r="AA115" s="79"/>
       <c r="AB115" s="79"/>
       <c r="AC115" s="79"/>
@@ -25795,7 +25838,7 @@
       <c r="I116" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J116" s="125">
+      <c r="J116" s="128">
         <v>1659</v>
       </c>
       <c r="K116" s="24" t="s">
@@ -25807,7 +25850,7 @@
       <c r="M116" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="N116" s="125">
+      <c r="N116" s="128">
         <v>1619</v>
       </c>
       <c r="O116" s="24" t="s">
@@ -25819,7 +25862,7 @@
       <c r="Q116" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="R116" s="125">
+      <c r="R116" s="128">
         <v>1261</v>
       </c>
       <c r="S116" s="24" t="s">
@@ -25831,7 +25874,7 @@
       <c r="U116" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="V116" s="125">
+      <c r="V116" s="128">
         <v>1543</v>
       </c>
       <c r="W116" s="24" t="s">
@@ -25843,7 +25886,7 @@
       <c r="Y116" s="101" t="s">
         <v>664</v>
       </c>
-      <c r="Z116" s="126"/>
+      <c r="Z116" s="132"/>
       <c r="AA116" s="79"/>
       <c r="AB116" s="79"/>
       <c r="AC116" s="79"/>
@@ -25876,7 +25919,7 @@
       <c r="I117" s="85" t="s">
         <v>816</v>
       </c>
-      <c r="J117" s="121"/>
+      <c r="J117" s="124"/>
       <c r="K117" s="24" t="s">
         <v>654</v>
       </c>
@@ -25886,7 +25929,7 @@
       <c r="M117" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="N117" s="121"/>
+      <c r="N117" s="124"/>
       <c r="O117" s="24" t="s">
         <v>657</v>
       </c>
@@ -25896,7 +25939,7 @@
       <c r="Q117" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="R117" s="121"/>
+      <c r="R117" s="124"/>
       <c r="S117" s="24" t="s">
         <v>660</v>
       </c>
@@ -25906,7 +25949,7 @@
       <c r="U117" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="V117" s="121"/>
+      <c r="V117" s="124"/>
       <c r="W117" s="24" t="s">
         <v>662</v>
       </c>
@@ -25916,7 +25959,7 @@
       <c r="Y117" s="101" t="s">
         <v>664</v>
       </c>
-      <c r="Z117" s="121"/>
+      <c r="Z117" s="124"/>
       <c r="AA117" s="79"/>
       <c r="AB117" s="79"/>
       <c r="AC117" s="79"/>
@@ -25949,7 +25992,7 @@
       <c r="I118" s="100" t="s">
         <v>817</v>
       </c>
-      <c r="J118" s="125">
+      <c r="J118" s="128">
         <v>1297</v>
       </c>
       <c r="K118" s="24" t="s">
@@ -25961,7 +26004,7 @@
       <c r="M118" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="N118" s="125">
+      <c r="N118" s="128">
         <v>1757</v>
       </c>
       <c r="O118" s="24" t="s">
@@ -25973,15 +26016,15 @@
       <c r="Q118" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="R118" s="125"/>
+      <c r="R118" s="128"/>
       <c r="S118" s="25"/>
       <c r="T118" s="25"/>
       <c r="U118" s="25"/>
-      <c r="V118" s="125"/>
+      <c r="V118" s="128"/>
       <c r="W118" s="25"/>
       <c r="X118" s="25"/>
       <c r="Y118" s="25"/>
-      <c r="Z118" s="125"/>
+      <c r="Z118" s="128"/>
       <c r="AA118" s="25"/>
       <c r="AB118" s="25"/>
       <c r="AC118" s="25"/>
@@ -26014,7 +26057,7 @@
       <c r="I119" s="100" t="s">
         <v>818</v>
       </c>
-      <c r="J119" s="121"/>
+      <c r="J119" s="124"/>
       <c r="K119" s="24" t="s">
         <v>665</v>
       </c>
@@ -26024,7 +26067,7 @@
       <c r="M119" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="N119" s="121"/>
+      <c r="N119" s="124"/>
       <c r="O119" s="24" t="s">
         <v>667</v>
       </c>
@@ -26034,15 +26077,15 @@
       <c r="Q119" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="R119" s="121"/>
+      <c r="R119" s="124"/>
       <c r="S119" s="25"/>
       <c r="T119" s="25"/>
       <c r="U119" s="25"/>
-      <c r="V119" s="121"/>
+      <c r="V119" s="124"/>
       <c r="W119" s="25"/>
       <c r="X119" s="25"/>
       <c r="Y119" s="25"/>
-      <c r="Z119" s="121"/>
+      <c r="Z119" s="124"/>
       <c r="AA119" s="25"/>
       <c r="AB119" s="25"/>
       <c r="AC119" s="25"/>
@@ -26115,29 +26158,29 @@
       <c r="I121" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J121" s="125">
+      <c r="J121" s="128">
         <v>1134</v>
       </c>
       <c r="K121" s="25"/>
       <c r="L121" s="25"/>
       <c r="M121" s="25"/>
-      <c r="N121" s="125">
+      <c r="N121" s="128">
         <v>1424</v>
       </c>
       <c r="O121" s="25"/>
       <c r="P121" s="25"/>
       <c r="Q121" s="25"/>
-      <c r="R121" s="125">
+      <c r="R121" s="128">
         <v>1426</v>
       </c>
       <c r="S121" s="25"/>
       <c r="T121" s="25"/>
       <c r="U121" s="25"/>
-      <c r="V121" s="126"/>
+      <c r="V121" s="132"/>
       <c r="W121" s="79"/>
       <c r="X121" s="79"/>
       <c r="Y121" s="79"/>
-      <c r="Z121" s="126"/>
+      <c r="Z121" s="132"/>
       <c r="AA121" s="79"/>
       <c r="AB121" s="79"/>
       <c r="AC121" s="79"/>
@@ -26170,23 +26213,23 @@
       <c r="I122" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J122" s="121"/>
+      <c r="J122" s="124"/>
       <c r="K122" s="25"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
-      <c r="N122" s="121"/>
+      <c r="N122" s="124"/>
       <c r="O122" s="25"/>
       <c r="P122" s="25"/>
       <c r="Q122" s="25"/>
-      <c r="R122" s="121"/>
+      <c r="R122" s="124"/>
       <c r="S122" s="25"/>
       <c r="T122" s="25"/>
       <c r="U122" s="25"/>
-      <c r="V122" s="121"/>
+      <c r="V122" s="124"/>
       <c r="W122" s="79"/>
       <c r="X122" s="79"/>
       <c r="Y122" s="79"/>
-      <c r="Z122" s="121"/>
+      <c r="Z122" s="124"/>
       <c r="AA122" s="79"/>
       <c r="AB122" s="79"/>
       <c r="AC122" s="79"/>
@@ -26219,23 +26262,23 @@
       <c r="I123" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J123" s="125"/>
+      <c r="J123" s="128"/>
       <c r="K123" s="25"/>
       <c r="L123" s="25"/>
       <c r="M123" s="25"/>
-      <c r="N123" s="125"/>
+      <c r="N123" s="128"/>
       <c r="O123" s="25"/>
       <c r="P123" s="25"/>
       <c r="Q123" s="25"/>
-      <c r="R123" s="125"/>
+      <c r="R123" s="128"/>
       <c r="S123" s="25"/>
       <c r="T123" s="25"/>
       <c r="U123" s="25"/>
-      <c r="V123" s="126"/>
+      <c r="V123" s="132"/>
       <c r="W123" s="79"/>
       <c r="X123" s="79"/>
       <c r="Y123" s="79"/>
-      <c r="Z123" s="126"/>
+      <c r="Z123" s="132"/>
       <c r="AA123" s="79"/>
       <c r="AB123" s="79"/>
       <c r="AC123" s="79"/>
@@ -26268,23 +26311,23 @@
       <c r="I124" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J124" s="121"/>
+      <c r="J124" s="124"/>
       <c r="K124" s="25"/>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
-      <c r="N124" s="121"/>
+      <c r="N124" s="124"/>
       <c r="O124" s="25"/>
       <c r="P124" s="25"/>
       <c r="Q124" s="25"/>
-      <c r="R124" s="121"/>
+      <c r="R124" s="124"/>
       <c r="S124" s="25"/>
       <c r="T124" s="25"/>
       <c r="U124" s="25"/>
-      <c r="V124" s="121"/>
+      <c r="V124" s="124"/>
       <c r="W124" s="79"/>
       <c r="X124" s="79"/>
       <c r="Y124" s="79"/>
-      <c r="Z124" s="121"/>
+      <c r="Z124" s="124"/>
       <c r="AA124" s="79"/>
       <c r="AB124" s="79"/>
       <c r="AC124" s="79"/>
@@ -26317,7 +26360,7 @@
       <c r="I125" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J125" s="125">
+      <c r="J125" s="128">
         <v>1014</v>
       </c>
       <c r="K125" s="24" t="s">
@@ -26329,7 +26372,7 @@
       <c r="M125" s="97" t="s">
         <v>672</v>
       </c>
-      <c r="N125" s="125">
+      <c r="N125" s="128">
         <v>1039</v>
       </c>
       <c r="O125" s="24" t="s">
@@ -26341,7 +26384,7 @@
       <c r="Q125" s="97" t="s">
         <v>675</v>
       </c>
-      <c r="R125" s="125">
+      <c r="R125" s="128">
         <v>1061</v>
       </c>
       <c r="S125" s="24" t="s">
@@ -26353,7 +26396,7 @@
       <c r="U125" s="97" t="s">
         <v>677</v>
       </c>
-      <c r="V125" s="125">
+      <c r="V125" s="128">
         <v>1106</v>
       </c>
       <c r="W125" s="24" t="s">
@@ -26365,7 +26408,7 @@
       <c r="Y125" s="97" t="s">
         <v>680</v>
       </c>
-      <c r="Z125" s="126"/>
+      <c r="Z125" s="132"/>
       <c r="AA125" s="79"/>
       <c r="AB125" s="79"/>
       <c r="AC125" s="79"/>
@@ -26398,7 +26441,7 @@
       <c r="I126" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J126" s="121"/>
+      <c r="J126" s="124"/>
       <c r="K126" s="24" t="s">
         <v>670</v>
       </c>
@@ -26408,7 +26451,7 @@
       <c r="M126" s="97" t="s">
         <v>672</v>
       </c>
-      <c r="N126" s="121"/>
+      <c r="N126" s="124"/>
       <c r="O126" s="24" t="s">
         <v>673</v>
       </c>
@@ -26418,7 +26461,7 @@
       <c r="Q126" s="97" t="s">
         <v>675</v>
       </c>
-      <c r="R126" s="121"/>
+      <c r="R126" s="124"/>
       <c r="S126" s="24" t="s">
         <v>676</v>
       </c>
@@ -26428,7 +26471,7 @@
       <c r="U126" s="97" t="s">
         <v>677</v>
       </c>
-      <c r="V126" s="121"/>
+      <c r="V126" s="124"/>
       <c r="W126" s="24" t="s">
         <v>678</v>
       </c>
@@ -26438,7 +26481,7 @@
       <c r="Y126" s="97" t="s">
         <v>680</v>
       </c>
-      <c r="Z126" s="121"/>
+      <c r="Z126" s="124"/>
       <c r="AA126" s="79"/>
       <c r="AB126" s="79"/>
       <c r="AC126" s="79"/>
@@ -26471,7 +26514,7 @@
       <c r="I127" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J127" s="125">
+      <c r="J127" s="128">
         <v>1291</v>
       </c>
       <c r="K127" s="24" t="s">
@@ -26483,7 +26526,7 @@
       <c r="M127" s="97" t="s">
         <v>683</v>
       </c>
-      <c r="N127" s="125">
+      <c r="N127" s="128">
         <v>1313</v>
       </c>
       <c r="O127" s="24" t="s">
@@ -26495,7 +26538,7 @@
       <c r="Q127" s="97" t="s">
         <v>686</v>
       </c>
-      <c r="R127" s="125">
+      <c r="R127" s="128">
         <v>1322</v>
       </c>
       <c r="S127" s="24" t="s">
@@ -26507,7 +26550,7 @@
       <c r="U127" s="97" t="s">
         <v>689</v>
       </c>
-      <c r="V127" s="125">
+      <c r="V127" s="128">
         <v>1463</v>
       </c>
       <c r="W127" s="24" t="s">
@@ -26519,7 +26562,7 @@
       <c r="Y127" s="97" t="s">
         <v>692</v>
       </c>
-      <c r="Z127" s="126"/>
+      <c r="Z127" s="132"/>
       <c r="AA127" s="79"/>
       <c r="AB127" s="79"/>
       <c r="AC127" s="79"/>
@@ -26552,7 +26595,7 @@
       <c r="I128" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J128" s="121"/>
+      <c r="J128" s="124"/>
       <c r="K128" s="24" t="s">
         <v>681</v>
       </c>
@@ -26562,7 +26605,7 @@
       <c r="M128" s="97" t="s">
         <v>683</v>
       </c>
-      <c r="N128" s="121"/>
+      <c r="N128" s="124"/>
       <c r="O128" s="24" t="s">
         <v>684</v>
       </c>
@@ -26572,7 +26615,7 @@
       <c r="Q128" s="97" t="s">
         <v>686</v>
       </c>
-      <c r="R128" s="121"/>
+      <c r="R128" s="124"/>
       <c r="S128" s="24" t="s">
         <v>687</v>
       </c>
@@ -26582,7 +26625,7 @@
       <c r="U128" s="97" t="s">
         <v>689</v>
       </c>
-      <c r="V128" s="121"/>
+      <c r="V128" s="124"/>
       <c r="W128" s="24" t="s">
         <v>690</v>
       </c>
@@ -26592,7 +26635,7 @@
       <c r="Y128" s="97" t="s">
         <v>692</v>
       </c>
-      <c r="Z128" s="121"/>
+      <c r="Z128" s="124"/>
       <c r="AA128" s="79"/>
       <c r="AB128" s="79"/>
       <c r="AC128" s="79"/>
@@ -26665,7 +26708,7 @@
       <c r="I130" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="J130" s="125">
+      <c r="J130" s="128">
         <v>1741</v>
       </c>
       <c r="K130" s="24" t="s">
@@ -26677,7 +26720,7 @@
       <c r="M130" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="N130" s="125">
+      <c r="N130" s="128">
         <v>1077</v>
       </c>
       <c r="O130" s="24" t="s">
@@ -26689,7 +26732,7 @@
       <c r="Q130" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="R130" s="125">
+      <c r="R130" s="128">
         <v>1462</v>
       </c>
       <c r="S130" s="97" t="s">
@@ -26701,11 +26744,11 @@
       <c r="U130" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="V130" s="126"/>
+      <c r="V130" s="132"/>
       <c r="W130" s="79"/>
       <c r="X130" s="79"/>
       <c r="Y130" s="79"/>
-      <c r="Z130" s="126"/>
+      <c r="Z130" s="132"/>
       <c r="AA130" s="79"/>
       <c r="AB130" s="79"/>
       <c r="AC130" s="79"/>
@@ -26738,7 +26781,7 @@
       <c r="I131" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="J131" s="121"/>
+      <c r="J131" s="124"/>
       <c r="K131" s="24" t="s">
         <v>693</v>
       </c>
@@ -26748,7 +26791,7 @@
       <c r="M131" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="N131" s="121"/>
+      <c r="N131" s="124"/>
       <c r="O131" s="24" t="s">
         <v>696</v>
       </c>
@@ -26758,7 +26801,7 @@
       <c r="Q131" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="R131" s="121"/>
+      <c r="R131" s="124"/>
       <c r="S131" s="97" t="s">
         <v>698</v>
       </c>
@@ -26768,11 +26811,11 @@
       <c r="U131" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="V131" s="121"/>
+      <c r="V131" s="124"/>
       <c r="W131" s="79"/>
       <c r="X131" s="79"/>
       <c r="Y131" s="79"/>
-      <c r="Z131" s="121"/>
+      <c r="Z131" s="124"/>
       <c r="AA131" s="79"/>
       <c r="AB131" s="79"/>
       <c r="AC131" s="79"/>
@@ -26805,23 +26848,23 @@
       <c r="I132" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="J132" s="125"/>
+      <c r="J132" s="128"/>
       <c r="K132" s="25"/>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
-      <c r="N132" s="125"/>
+      <c r="N132" s="128"/>
       <c r="O132" s="25"/>
       <c r="P132" s="25"/>
       <c r="Q132" s="25"/>
-      <c r="R132" s="125"/>
+      <c r="R132" s="128"/>
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
       <c r="U132" s="25"/>
-      <c r="V132" s="126"/>
+      <c r="V132" s="132"/>
       <c r="W132" s="79"/>
       <c r="X132" s="79"/>
       <c r="Y132" s="79"/>
-      <c r="Z132" s="126"/>
+      <c r="Z132" s="132"/>
       <c r="AA132" s="79"/>
       <c r="AB132" s="79"/>
       <c r="AC132" s="79"/>
@@ -26854,23 +26897,23 @@
       <c r="I133" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="J133" s="121"/>
+      <c r="J133" s="124"/>
       <c r="K133" s="25"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25"/>
-      <c r="N133" s="121"/>
+      <c r="N133" s="124"/>
       <c r="O133" s="25"/>
       <c r="P133" s="25"/>
       <c r="Q133" s="25"/>
-      <c r="R133" s="121"/>
+      <c r="R133" s="124"/>
       <c r="S133" s="25"/>
       <c r="T133" s="25"/>
       <c r="U133" s="25"/>
-      <c r="V133" s="121"/>
+      <c r="V133" s="124"/>
       <c r="W133" s="79"/>
       <c r="X133" s="79"/>
       <c r="Y133" s="79"/>
-      <c r="Z133" s="121"/>
+      <c r="Z133" s="124"/>
       <c r="AA133" s="79"/>
       <c r="AB133" s="79"/>
       <c r="AC133" s="79"/>
@@ -26903,7 +26946,7 @@
       <c r="I134" s="85" t="s">
         <v>812</v>
       </c>
-      <c r="J134" s="129">
+      <c r="J134" s="133">
         <v>1109</v>
       </c>
       <c r="K134" s="24" t="s">
@@ -26911,7 +26954,7 @@
       </c>
       <c r="L134" s="25"/>
       <c r="M134" s="25"/>
-      <c r="N134" s="125">
+      <c r="N134" s="128">
         <v>1729</v>
       </c>
       <c r="O134" s="24" t="s">
@@ -26919,7 +26962,7 @@
       </c>
       <c r="P134" s="24"/>
       <c r="Q134" s="24"/>
-      <c r="R134" s="132">
+      <c r="R134" s="134">
         <v>1749</v>
       </c>
       <c r="S134" s="24" t="s">
@@ -26927,7 +26970,7 @@
       </c>
       <c r="T134" s="25"/>
       <c r="U134" s="24"/>
-      <c r="V134" s="132">
+      <c r="V134" s="134">
         <v>1787</v>
       </c>
       <c r="W134" s="95" t="s">
@@ -26939,7 +26982,7 @@
       <c r="Y134" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="Z134" s="126"/>
+      <c r="Z134" s="132"/>
       <c r="AA134" s="79"/>
       <c r="AB134" s="79"/>
       <c r="AC134" s="79"/>
@@ -26972,7 +27015,7 @@
       <c r="I135" s="85" t="s">
         <v>813</v>
       </c>
-      <c r="J135" s="121"/>
+      <c r="J135" s="124"/>
       <c r="K135" s="24" t="s">
         <v>702</v>
       </c>
@@ -26982,7 +27025,7 @@
       <c r="M135" s="96" t="s">
         <v>704</v>
       </c>
-      <c r="N135" s="121"/>
+      <c r="N135" s="124"/>
       <c r="O135" s="24" t="s">
         <v>705</v>
       </c>
@@ -26992,7 +27035,7 @@
       <c r="Q135" s="102" t="s">
         <v>372</v>
       </c>
-      <c r="R135" s="121"/>
+      <c r="R135" s="124"/>
       <c r="S135" s="103" t="s">
         <v>707</v>
       </c>
@@ -27002,7 +27045,7 @@
       <c r="U135" s="105" t="s">
         <v>709</v>
       </c>
-      <c r="V135" s="121"/>
+      <c r="V135" s="124"/>
       <c r="W135" s="95" t="s">
         <v>701</v>
       </c>
@@ -27012,7 +27055,7 @@
       <c r="Y135" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="Z135" s="121"/>
+      <c r="Z135" s="124"/>
       <c r="AA135" s="79"/>
       <c r="AB135" s="79"/>
       <c r="AC135" s="79"/>
@@ -27045,7 +27088,7 @@
       <c r="I136" s="85" t="s">
         <v>814</v>
       </c>
-      <c r="J136" s="125">
+      <c r="J136" s="128">
         <v>1796</v>
       </c>
       <c r="K136" s="24" t="s">
@@ -27057,7 +27100,7 @@
       <c r="M136" s="106" t="s">
         <v>712</v>
       </c>
-      <c r="N136" s="125">
+      <c r="N136" s="128">
         <v>1058</v>
       </c>
       <c r="O136" s="107" t="s">
@@ -27069,7 +27112,7 @@
       <c r="Q136" s="106" t="s">
         <v>715</v>
       </c>
-      <c r="R136" s="132">
+      <c r="R136" s="134">
         <v>1282</v>
       </c>
       <c r="S136" s="24" t="s">
@@ -27077,11 +27120,11 @@
       </c>
       <c r="T136" s="25"/>
       <c r="U136" s="25"/>
-      <c r="V136" s="125"/>
+      <c r="V136" s="128"/>
       <c r="W136" s="25"/>
       <c r="X136" s="25"/>
       <c r="Y136" s="25"/>
-      <c r="Z136" s="125"/>
+      <c r="Z136" s="128"/>
       <c r="AA136" s="25"/>
       <c r="AB136" s="25"/>
       <c r="AC136" s="25"/>
@@ -27114,19 +27157,19 @@
       <c r="I137" s="85" t="s">
         <v>815</v>
       </c>
-      <c r="J137" s="121"/>
+      <c r="J137" s="124"/>
       <c r="K137" s="24" t="s">
         <v>716</v>
       </c>
       <c r="L137" s="25"/>
       <c r="M137" s="106"/>
-      <c r="N137" s="121"/>
+      <c r="N137" s="124"/>
       <c r="O137" s="108" t="s">
         <v>717</v>
       </c>
       <c r="P137" s="25"/>
       <c r="Q137" s="25"/>
-      <c r="R137" s="121"/>
+      <c r="R137" s="124"/>
       <c r="S137" s="24" t="s">
         <v>718</v>
       </c>
@@ -27136,11 +27179,11 @@
       <c r="U137" s="96" t="s">
         <v>720</v>
       </c>
-      <c r="V137" s="121"/>
+      <c r="V137" s="124"/>
       <c r="W137" s="25"/>
       <c r="X137" s="25"/>
       <c r="Y137" s="25"/>
-      <c r="Z137" s="121"/>
+      <c r="Z137" s="124"/>
       <c r="AA137" s="25"/>
       <c r="AB137" s="25"/>
       <c r="AC137" s="25"/>
@@ -27250,7 +27293,7 @@
       <c r="I140" s="76" t="s">
         <v>786</v>
       </c>
-      <c r="J140" s="130">
+      <c r="J140" s="137">
         <v>9992</v>
       </c>
       <c r="K140" s="109"/>
@@ -27284,7 +27327,7 @@
         <v>374</v>
       </c>
       <c r="D141" s="73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="74" t="s">
         <v>20</v>
@@ -27301,7 +27344,7 @@
       <c r="I141" s="76" t="s">
         <v>788</v>
       </c>
-      <c r="J141" s="121"/>
+      <c r="J141" s="124"/>
       <c r="K141" s="78" t="s">
         <v>721</v>
       </c>
@@ -27471,23 +27514,23 @@
       <c r="I145" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J145" s="125"/>
+      <c r="J145" s="128"/>
       <c r="K145" s="25"/>
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
-      <c r="N145" s="125"/>
+      <c r="N145" s="128"/>
       <c r="O145" s="25"/>
       <c r="P145" s="25"/>
       <c r="Q145" s="25"/>
-      <c r="R145" s="125"/>
+      <c r="R145" s="128"/>
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
       <c r="U145" s="25"/>
-      <c r="V145" s="125"/>
+      <c r="V145" s="128"/>
       <c r="W145" s="25"/>
       <c r="X145" s="25"/>
       <c r="Y145" s="25"/>
-      <c r="Z145" s="126"/>
+      <c r="Z145" s="132"/>
       <c r="AA145" s="79"/>
       <c r="AB145" s="79"/>
       <c r="AC145" s="79"/>
@@ -27520,23 +27563,23 @@
       <c r="I146" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J146" s="121"/>
+      <c r="J146" s="124"/>
       <c r="K146" s="25"/>
       <c r="L146" s="25"/>
       <c r="M146" s="25"/>
-      <c r="N146" s="121"/>
+      <c r="N146" s="124"/>
       <c r="O146" s="25"/>
       <c r="P146" s="25"/>
       <c r="Q146" s="25"/>
-      <c r="R146" s="121"/>
+      <c r="R146" s="124"/>
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
       <c r="U146" s="25"/>
-      <c r="V146" s="121"/>
+      <c r="V146" s="124"/>
       <c r="W146" s="25"/>
       <c r="X146" s="25"/>
       <c r="Y146" s="25"/>
-      <c r="Z146" s="121"/>
+      <c r="Z146" s="124"/>
       <c r="AA146" s="79"/>
       <c r="AB146" s="79"/>
       <c r="AC146" s="79"/>
@@ -27569,7 +27612,7 @@
       <c r="I147" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J147" s="125">
+      <c r="J147" s="128">
         <v>1236</v>
       </c>
       <c r="K147" s="24" t="s">
@@ -27581,21 +27624,21 @@
       <c r="M147" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="N147" s="133">
+      <c r="N147" s="131">
         <v>1481</v>
       </c>
       <c r="O147" s="25"/>
       <c r="P147" s="25"/>
       <c r="Q147" s="25"/>
-      <c r="R147" s="125"/>
+      <c r="R147" s="128"/>
       <c r="S147" s="25"/>
       <c r="T147" s="25"/>
       <c r="U147" s="25"/>
-      <c r="V147" s="126"/>
+      <c r="V147" s="132"/>
       <c r="W147" s="79"/>
       <c r="X147" s="79"/>
       <c r="Y147" s="79"/>
-      <c r="Z147" s="126"/>
+      <c r="Z147" s="132"/>
       <c r="AA147" s="79"/>
       <c r="AB147" s="79"/>
       <c r="AC147" s="79"/>
@@ -27628,7 +27671,7 @@
       <c r="I148" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J148" s="121"/>
+      <c r="J148" s="124"/>
       <c r="K148" s="24" t="s">
         <v>724</v>
       </c>
@@ -27638,7 +27681,7 @@
       <c r="M148" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="N148" s="121"/>
+      <c r="N148" s="124"/>
       <c r="O148" s="24" t="s">
         <v>727</v>
       </c>
@@ -27648,15 +27691,15 @@
       <c r="Q148" s="111" t="s">
         <v>729</v>
       </c>
-      <c r="R148" s="121"/>
+      <c r="R148" s="124"/>
       <c r="S148" s="25"/>
       <c r="T148" s="25"/>
       <c r="U148" s="25"/>
-      <c r="V148" s="121"/>
+      <c r="V148" s="124"/>
       <c r="W148" s="79"/>
       <c r="X148" s="79"/>
       <c r="Y148" s="79"/>
-      <c r="Z148" s="121"/>
+      <c r="Z148" s="124"/>
       <c r="AA148" s="79"/>
       <c r="AB148" s="79"/>
       <c r="AC148" s="79"/>
@@ -27689,7 +27732,7 @@
       <c r="I149" s="112" t="s">
         <v>819</v>
       </c>
-      <c r="J149" s="125">
+      <c r="J149" s="128">
         <v>1400</v>
       </c>
       <c r="K149" s="24" t="s">
@@ -27701,7 +27744,7 @@
       <c r="M149" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="N149" s="125">
+      <c r="N149" s="128">
         <v>1714</v>
       </c>
       <c r="O149" s="24" t="s">
@@ -27713,7 +27756,7 @@
       <c r="Q149" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="R149" s="125">
+      <c r="R149" s="128">
         <v>1255</v>
       </c>
       <c r="S149" s="24" t="s">
@@ -27725,11 +27768,11 @@
       <c r="U149" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="V149" s="126"/>
+      <c r="V149" s="132"/>
       <c r="W149" s="79"/>
       <c r="X149" s="79"/>
       <c r="Y149" s="79"/>
-      <c r="Z149" s="126"/>
+      <c r="Z149" s="132"/>
       <c r="AA149" s="79"/>
       <c r="AB149" s="79"/>
       <c r="AC149" s="79"/>
@@ -27762,7 +27805,7 @@
       <c r="I150" s="112" t="s">
         <v>820</v>
       </c>
-      <c r="J150" s="121"/>
+      <c r="J150" s="124"/>
       <c r="K150" s="24" t="s">
         <v>730</v>
       </c>
@@ -27772,7 +27815,7 @@
       <c r="M150" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="N150" s="121"/>
+      <c r="N150" s="124"/>
       <c r="O150" s="24" t="s">
         <v>733</v>
       </c>
@@ -27782,7 +27825,7 @@
       <c r="Q150" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="R150" s="121"/>
+      <c r="R150" s="124"/>
       <c r="S150" s="24" t="s">
         <v>736</v>
       </c>
@@ -27792,11 +27835,11 @@
       <c r="U150" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="V150" s="121"/>
+      <c r="V150" s="124"/>
       <c r="W150" s="79"/>
       <c r="X150" s="79"/>
       <c r="Y150" s="79"/>
-      <c r="Z150" s="121"/>
+      <c r="Z150" s="124"/>
       <c r="AA150" s="79"/>
       <c r="AB150" s="79"/>
       <c r="AC150" s="79"/>
@@ -27869,15 +27912,15 @@
       <c r="I152" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J152" s="125"/>
+      <c r="J152" s="128"/>
       <c r="K152" s="25"/>
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
-      <c r="N152" s="125"/>
+      <c r="N152" s="128"/>
       <c r="O152" s="25"/>
       <c r="P152" s="25"/>
       <c r="Q152" s="25"/>
-      <c r="R152" s="125">
+      <c r="R152" s="128">
         <v>1422</v>
       </c>
       <c r="S152" s="24" t="s">
@@ -27889,7 +27932,7 @@
       <c r="U152" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="V152" s="125">
+      <c r="V152" s="128">
         <v>1544</v>
       </c>
       <c r="W152" s="24" t="s">
@@ -27901,7 +27944,7 @@
       <c r="Y152" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="Z152" s="126"/>
+      <c r="Z152" s="132"/>
       <c r="AA152" s="79"/>
       <c r="AB152" s="79"/>
       <c r="AC152" s="79"/>
@@ -27934,15 +27977,15 @@
       <c r="I153" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J153" s="121"/>
+      <c r="J153" s="124"/>
       <c r="K153" s="25"/>
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
-      <c r="N153" s="121"/>
+      <c r="N153" s="124"/>
       <c r="O153" s="25"/>
       <c r="P153" s="25"/>
       <c r="Q153" s="25"/>
-      <c r="R153" s="121"/>
+      <c r="R153" s="124"/>
       <c r="S153" s="24" t="s">
         <v>745</v>
       </c>
@@ -27952,7 +27995,7 @@
       <c r="U153" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="V153" s="121"/>
+      <c r="V153" s="124"/>
       <c r="W153" s="24" t="s">
         <v>742</v>
       </c>
@@ -27962,7 +28005,7 @@
       <c r="Y153" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="Z153" s="121"/>
+      <c r="Z153" s="124"/>
       <c r="AA153" s="79"/>
       <c r="AB153" s="79"/>
       <c r="AC153" s="79"/>
@@ -27995,23 +28038,23 @@
       <c r="I154" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J154" s="125"/>
+      <c r="J154" s="128"/>
       <c r="K154" s="25"/>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
-      <c r="N154" s="125"/>
+      <c r="N154" s="128"/>
       <c r="O154" s="25"/>
       <c r="P154" s="25"/>
       <c r="Q154" s="25"/>
-      <c r="R154" s="125"/>
+      <c r="R154" s="128"/>
       <c r="S154" s="25"/>
       <c r="T154" s="25"/>
       <c r="U154" s="25"/>
-      <c r="V154" s="125"/>
+      <c r="V154" s="128"/>
       <c r="W154" s="25"/>
       <c r="X154" s="25"/>
       <c r="Y154" s="25"/>
-      <c r="Z154" s="126"/>
+      <c r="Z154" s="132"/>
       <c r="AA154" s="79"/>
       <c r="AB154" s="79"/>
       <c r="AC154" s="79"/>
@@ -28044,23 +28087,23 @@
       <c r="I155" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J155" s="121"/>
+      <c r="J155" s="124"/>
       <c r="K155" s="25"/>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
-      <c r="N155" s="121"/>
+      <c r="N155" s="124"/>
       <c r="O155" s="25"/>
       <c r="P155" s="25"/>
       <c r="Q155" s="25"/>
-      <c r="R155" s="121"/>
+      <c r="R155" s="124"/>
       <c r="S155" s="25"/>
       <c r="T155" s="25"/>
       <c r="U155" s="25"/>
-      <c r="V155" s="121"/>
+      <c r="V155" s="124"/>
       <c r="W155" s="25"/>
       <c r="X155" s="25"/>
       <c r="Y155" s="25"/>
-      <c r="Z155" s="121"/>
+      <c r="Z155" s="124"/>
       <c r="AA155" s="79"/>
       <c r="AB155" s="79"/>
       <c r="AC155" s="79"/>
@@ -28097,7 +28140,7 @@
       <c r="K156" s="25"/>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
-      <c r="N156" s="125">
+      <c r="N156" s="128">
         <v>1517</v>
       </c>
       <c r="O156" s="24" t="s">
@@ -28109,7 +28152,7 @@
       <c r="Q156" s="113" t="s">
         <v>748</v>
       </c>
-      <c r="R156" s="125">
+      <c r="R156" s="128">
         <v>1083</v>
       </c>
       <c r="S156" s="24" t="s">
@@ -28121,7 +28164,7 @@
       <c r="U156" s="114" t="s">
         <v>751</v>
       </c>
-      <c r="V156" s="125">
+      <c r="V156" s="128">
         <v>1174</v>
       </c>
       <c r="W156" s="89" t="s">
@@ -28133,7 +28176,7 @@
       <c r="Y156" s="113" t="s">
         <v>754</v>
       </c>
-      <c r="Z156" s="126"/>
+      <c r="Z156" s="132"/>
       <c r="AA156" s="79"/>
       <c r="AB156" s="79"/>
       <c r="AC156" s="79"/>
@@ -28170,7 +28213,7 @@
       <c r="K157" s="25"/>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
-      <c r="N157" s="121"/>
+      <c r="N157" s="124"/>
       <c r="O157" s="24" t="s">
         <v>746</v>
       </c>
@@ -28180,7 +28223,7 @@
       <c r="Q157" s="113" t="s">
         <v>748</v>
       </c>
-      <c r="R157" s="121"/>
+      <c r="R157" s="124"/>
       <c r="S157" s="24" t="s">
         <v>749</v>
       </c>
@@ -28190,7 +28233,7 @@
       <c r="U157" s="114" t="s">
         <v>751</v>
       </c>
-      <c r="V157" s="121"/>
+      <c r="V157" s="124"/>
       <c r="W157" s="89" t="s">
         <v>752</v>
       </c>
@@ -28200,7 +28243,7 @@
       <c r="Y157" s="113" t="s">
         <v>754</v>
       </c>
-      <c r="Z157" s="121"/>
+      <c r="Z157" s="124"/>
       <c r="AA157" s="79"/>
       <c r="AB157" s="79"/>
       <c r="AC157" s="79"/>
@@ -28273,23 +28316,23 @@
       <c r="I159" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J159" s="125"/>
+      <c r="J159" s="128"/>
       <c r="K159" s="25"/>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
-      <c r="N159" s="125"/>
+      <c r="N159" s="128"/>
       <c r="O159" s="25"/>
       <c r="P159" s="25"/>
       <c r="Q159" s="25"/>
-      <c r="R159" s="125"/>
+      <c r="R159" s="128"/>
       <c r="S159" s="25"/>
       <c r="T159" s="25"/>
       <c r="U159" s="25"/>
-      <c r="V159" s="125"/>
+      <c r="V159" s="128"/>
       <c r="W159" s="25"/>
       <c r="X159" s="25"/>
       <c r="Y159" s="25"/>
-      <c r="Z159" s="126"/>
+      <c r="Z159" s="132"/>
       <c r="AA159" s="79"/>
       <c r="AB159" s="79"/>
       <c r="AC159" s="79"/>
@@ -28322,23 +28365,23 @@
       <c r="I160" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J160" s="121"/>
+      <c r="J160" s="124"/>
       <c r="K160" s="25"/>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
-      <c r="N160" s="121"/>
+      <c r="N160" s="124"/>
       <c r="O160" s="25"/>
       <c r="P160" s="25"/>
       <c r="Q160" s="25"/>
-      <c r="R160" s="121"/>
+      <c r="R160" s="124"/>
       <c r="S160" s="25"/>
       <c r="T160" s="25"/>
       <c r="U160" s="25"/>
-      <c r="V160" s="121"/>
+      <c r="V160" s="124"/>
       <c r="W160" s="25"/>
       <c r="X160" s="25"/>
       <c r="Y160" s="25"/>
-      <c r="Z160" s="121"/>
+      <c r="Z160" s="124"/>
       <c r="AA160" s="79"/>
       <c r="AB160" s="79"/>
       <c r="AC160" s="79"/>
@@ -28371,23 +28414,23 @@
       <c r="I161" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J161" s="125"/>
+      <c r="J161" s="128"/>
       <c r="K161" s="25"/>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
-      <c r="N161" s="125"/>
+      <c r="N161" s="128"/>
       <c r="O161" s="25"/>
       <c r="P161" s="25"/>
       <c r="Q161" s="25"/>
-      <c r="R161" s="125"/>
+      <c r="R161" s="128"/>
       <c r="S161" s="25"/>
       <c r="T161" s="25"/>
       <c r="U161" s="25"/>
-      <c r="V161" s="126"/>
+      <c r="V161" s="132"/>
       <c r="W161" s="79"/>
       <c r="X161" s="79"/>
       <c r="Y161" s="79"/>
-      <c r="Z161" s="126"/>
+      <c r="Z161" s="132"/>
       <c r="AA161" s="79"/>
       <c r="AB161" s="79"/>
       <c r="AC161" s="79"/>
@@ -28420,23 +28463,23 @@
       <c r="I162" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J162" s="121"/>
+      <c r="J162" s="124"/>
       <c r="K162" s="25"/>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
-      <c r="N162" s="121"/>
+      <c r="N162" s="124"/>
       <c r="O162" s="25"/>
       <c r="P162" s="25"/>
       <c r="Q162" s="25"/>
-      <c r="R162" s="121"/>
+      <c r="R162" s="124"/>
       <c r="S162" s="25"/>
       <c r="T162" s="25"/>
       <c r="U162" s="25"/>
-      <c r="V162" s="121"/>
+      <c r="V162" s="124"/>
       <c r="W162" s="79"/>
       <c r="X162" s="79"/>
       <c r="Y162" s="79"/>
-      <c r="Z162" s="121"/>
+      <c r="Z162" s="124"/>
       <c r="AA162" s="79"/>
       <c r="AB162" s="79"/>
       <c r="AC162" s="79"/>
@@ -28469,23 +28512,23 @@
       <c r="I163" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J163" s="125"/>
+      <c r="J163" s="128"/>
       <c r="K163" s="25"/>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
-      <c r="N163" s="125"/>
+      <c r="N163" s="128"/>
       <c r="O163" s="25"/>
       <c r="P163" s="25"/>
       <c r="Q163" s="25"/>
-      <c r="R163" s="125"/>
+      <c r="R163" s="128"/>
       <c r="S163" s="25"/>
       <c r="T163" s="25"/>
       <c r="U163" s="25"/>
-      <c r="V163" s="126"/>
+      <c r="V163" s="132"/>
       <c r="W163" s="79"/>
       <c r="X163" s="79"/>
       <c r="Y163" s="79"/>
-      <c r="Z163" s="126"/>
+      <c r="Z163" s="132"/>
       <c r="AA163" s="79"/>
       <c r="AB163" s="79"/>
       <c r="AC163" s="79"/>
@@ -28518,23 +28561,23 @@
       <c r="I164" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J164" s="121"/>
+      <c r="J164" s="124"/>
       <c r="K164" s="25"/>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
-      <c r="N164" s="121"/>
+      <c r="N164" s="124"/>
       <c r="O164" s="25"/>
       <c r="P164" s="25"/>
       <c r="Q164" s="25"/>
-      <c r="R164" s="121"/>
+      <c r="R164" s="124"/>
       <c r="S164" s="25"/>
       <c r="T164" s="25"/>
       <c r="U164" s="25"/>
-      <c r="V164" s="121"/>
+      <c r="V164" s="124"/>
       <c r="W164" s="79"/>
       <c r="X164" s="79"/>
       <c r="Y164" s="79"/>
-      <c r="Z164" s="121"/>
+      <c r="Z164" s="124"/>
       <c r="AA164" s="79"/>
       <c r="AB164" s="79"/>
       <c r="AC164" s="79"/>
@@ -28607,7 +28650,7 @@
       <c r="I166" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J166" s="125">
+      <c r="J166" s="128">
         <v>1494</v>
       </c>
       <c r="K166" s="24" t="s">
@@ -28619,7 +28662,7 @@
       <c r="M166" s="97" t="s">
         <v>757</v>
       </c>
-      <c r="N166" s="125">
+      <c r="N166" s="128">
         <v>1498</v>
       </c>
       <c r="O166" s="24" t="s">
@@ -28631,7 +28674,7 @@
       <c r="Q166" s="97" t="s">
         <v>760</v>
       </c>
-      <c r="R166" s="125">
+      <c r="R166" s="128">
         <v>1516</v>
       </c>
       <c r="S166" s="24" t="s">
@@ -28643,7 +28686,7 @@
       <c r="U166" s="97" t="s">
         <v>763</v>
       </c>
-      <c r="V166" s="125">
+      <c r="V166" s="128">
         <v>1602</v>
       </c>
       <c r="W166" s="24" t="s">
@@ -28655,7 +28698,7 @@
       <c r="Y166" s="97" t="s">
         <v>766</v>
       </c>
-      <c r="Z166" s="126"/>
+      <c r="Z166" s="132"/>
       <c r="AA166" s="79"/>
       <c r="AB166" s="79"/>
       <c r="AC166" s="79"/>
@@ -28688,7 +28731,7 @@
       <c r="I167" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J167" s="121"/>
+      <c r="J167" s="124"/>
       <c r="K167" s="24" t="s">
         <v>755</v>
       </c>
@@ -28698,7 +28741,7 @@
       <c r="M167" s="97" t="s">
         <v>757</v>
       </c>
-      <c r="N167" s="121"/>
+      <c r="N167" s="124"/>
       <c r="O167" s="24" t="s">
         <v>758</v>
       </c>
@@ -28708,7 +28751,7 @@
       <c r="Q167" s="97" t="s">
         <v>760</v>
       </c>
-      <c r="R167" s="121"/>
+      <c r="R167" s="124"/>
       <c r="S167" s="24" t="s">
         <v>761</v>
       </c>
@@ -28718,7 +28761,7 @@
       <c r="U167" s="97" t="s">
         <v>763</v>
       </c>
-      <c r="V167" s="121"/>
+      <c r="V167" s="124"/>
       <c r="W167" s="24" t="s">
         <v>764</v>
       </c>
@@ -28728,7 +28771,7 @@
       <c r="Y167" s="97" t="s">
         <v>766</v>
       </c>
-      <c r="Z167" s="121"/>
+      <c r="Z167" s="124"/>
       <c r="AA167" s="79"/>
       <c r="AB167" s="79"/>
       <c r="AC167" s="79"/>
@@ -28761,7 +28804,7 @@
       <c r="I168" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J168" s="125">
+      <c r="J168" s="128">
         <v>1760</v>
       </c>
       <c r="K168" s="24" t="s">
@@ -28773,7 +28816,7 @@
       <c r="M168" s="97" t="s">
         <v>769</v>
       </c>
-      <c r="N168" s="134">
+      <c r="N168" s="130">
         <v>1237</v>
       </c>
       <c r="O168" s="24" t="s">
@@ -28785,7 +28828,7 @@
       <c r="Q168" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="R168" s="129">
+      <c r="R168" s="133">
         <v>1488</v>
       </c>
       <c r="S168" s="24" t="s">
@@ -28797,7 +28840,7 @@
       <c r="U168" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="V168" s="129">
+      <c r="V168" s="133">
         <v>1765</v>
       </c>
       <c r="W168" s="116" t="s">
@@ -28842,7 +28885,7 @@
       <c r="I169" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J169" s="121"/>
+      <c r="J169" s="124"/>
       <c r="K169" s="24" t="s">
         <v>767</v>
       </c>
@@ -28852,7 +28895,7 @@
       <c r="M169" s="97" t="s">
         <v>769</v>
       </c>
-      <c r="N169" s="121"/>
+      <c r="N169" s="124"/>
       <c r="O169" s="24" t="s">
         <v>770</v>
       </c>
@@ -28862,7 +28905,7 @@
       <c r="Q169" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="R169" s="121"/>
+      <c r="R169" s="124"/>
       <c r="S169" s="24" t="s">
         <v>771</v>
       </c>
@@ -28872,7 +28915,7 @@
       <c r="U169" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="V169" s="121"/>
+      <c r="V169" s="124"/>
       <c r="W169" s="116" t="s">
         <v>774</v>
       </c>
@@ -28915,7 +28958,7 @@
       <c r="I170" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J170" s="125">
+      <c r="J170" s="128">
         <v>1234</v>
       </c>
       <c r="K170" s="24" t="s">
@@ -28925,7 +28968,7 @@
         <v>778</v>
       </c>
       <c r="M170" s="25"/>
-      <c r="N170" s="125">
+      <c r="N170" s="128">
         <v>1464</v>
       </c>
       <c r="O170" s="24" t="s">
@@ -28935,7 +28978,7 @@
         <v>780</v>
       </c>
       <c r="Q170" s="25"/>
-      <c r="R170" s="125">
+      <c r="R170" s="128">
         <v>1547</v>
       </c>
       <c r="S170" s="118" t="s">
@@ -28945,7 +28988,7 @@
         <v>782</v>
       </c>
       <c r="U170" s="25"/>
-      <c r="V170" s="125">
+      <c r="V170" s="128">
         <v>1574</v>
       </c>
       <c r="W170" s="24" t="s">
@@ -28955,7 +28998,7 @@
         <v>784</v>
       </c>
       <c r="Y170" s="25"/>
-      <c r="Z170" s="126"/>
+      <c r="Z170" s="132"/>
       <c r="AA170" s="79"/>
       <c r="AB170" s="79"/>
       <c r="AC170" s="79"/>
@@ -28988,7 +29031,7 @@
       <c r="I171" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J171" s="121"/>
+      <c r="J171" s="124"/>
       <c r="K171" s="24" t="s">
         <v>777</v>
       </c>
@@ -28996,7 +29039,7 @@
         <v>778</v>
       </c>
       <c r="M171" s="25"/>
-      <c r="N171" s="121"/>
+      <c r="N171" s="124"/>
       <c r="O171" s="24" t="s">
         <v>779</v>
       </c>
@@ -29004,7 +29047,7 @@
         <v>780</v>
       </c>
       <c r="Q171" s="25"/>
-      <c r="R171" s="121"/>
+      <c r="R171" s="124"/>
       <c r="S171" s="118" t="s">
         <v>781</v>
       </c>
@@ -29012,11 +29055,11 @@
         <v>782</v>
       </c>
       <c r="U171" s="25"/>
-      <c r="V171" s="121"/>
+      <c r="V171" s="124"/>
       <c r="W171" s="25"/>
       <c r="X171" s="25"/>
       <c r="Y171" s="25"/>
-      <c r="Z171" s="121"/>
+      <c r="Z171" s="124"/>
       <c r="AA171" s="79"/>
       <c r="AB171" s="79"/>
       <c r="AC171" s="79"/>
@@ -29089,25 +29132,25 @@
       <c r="I173" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="J173" s="125">
+      <c r="J173" s="128">
         <v>106</v>
       </c>
       <c r="K173" s="25"/>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
-      <c r="N173" s="125"/>
+      <c r="N173" s="128"/>
       <c r="O173" s="25"/>
       <c r="P173" s="25"/>
       <c r="Q173" s="25"/>
-      <c r="R173" s="125"/>
+      <c r="R173" s="128"/>
       <c r="S173" s="25"/>
       <c r="T173" s="25"/>
       <c r="U173" s="25"/>
-      <c r="V173" s="125"/>
+      <c r="V173" s="128"/>
       <c r="W173" s="25"/>
       <c r="X173" s="25"/>
       <c r="Y173" s="25"/>
-      <c r="Z173" s="126"/>
+      <c r="Z173" s="132"/>
       <c r="AA173" s="79"/>
       <c r="AB173" s="79"/>
       <c r="AC173" s="79"/>
@@ -29140,23 +29183,23 @@
       <c r="I174" s="82" t="s">
         <v>796</v>
       </c>
-      <c r="J174" s="121"/>
+      <c r="J174" s="124"/>
       <c r="K174" s="25"/>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
-      <c r="N174" s="121"/>
+      <c r="N174" s="124"/>
       <c r="O174" s="25"/>
       <c r="P174" s="25"/>
       <c r="Q174" s="25"/>
-      <c r="R174" s="121"/>
+      <c r="R174" s="124"/>
       <c r="S174" s="25"/>
       <c r="T174" s="25"/>
       <c r="U174" s="25"/>
-      <c r="V174" s="121"/>
+      <c r="V174" s="124"/>
       <c r="W174" s="25"/>
       <c r="X174" s="25"/>
       <c r="Y174" s="25"/>
-      <c r="Z174" s="121"/>
+      <c r="Z174" s="124"/>
       <c r="AA174" s="79"/>
       <c r="AB174" s="79"/>
       <c r="AC174" s="79"/>
@@ -29189,23 +29232,23 @@
       <c r="I175" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="J175" s="125"/>
+      <c r="J175" s="128"/>
       <c r="K175" s="25"/>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
-      <c r="N175" s="125"/>
+      <c r="N175" s="128"/>
       <c r="O175" s="25"/>
       <c r="P175" s="25"/>
       <c r="Q175" s="25"/>
-      <c r="R175" s="125"/>
+      <c r="R175" s="128"/>
       <c r="S175" s="25"/>
       <c r="T175" s="25"/>
       <c r="U175" s="25"/>
-      <c r="V175" s="125"/>
+      <c r="V175" s="128"/>
       <c r="W175" s="25"/>
       <c r="X175" s="25"/>
       <c r="Y175" s="25"/>
-      <c r="Z175" s="126"/>
+      <c r="Z175" s="132"/>
       <c r="AA175" s="79"/>
       <c r="AB175" s="79"/>
       <c r="AC175" s="79"/>
@@ -29238,23 +29281,23 @@
       <c r="I176" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="J176" s="121"/>
+      <c r="J176" s="124"/>
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
-      <c r="N176" s="121"/>
+      <c r="N176" s="124"/>
       <c r="O176" s="25"/>
       <c r="P176" s="25"/>
       <c r="Q176" s="25"/>
-      <c r="R176" s="121"/>
+      <c r="R176" s="124"/>
       <c r="S176" s="25"/>
       <c r="T176" s="25"/>
       <c r="U176" s="25"/>
-      <c r="V176" s="121"/>
+      <c r="V176" s="124"/>
       <c r="W176" s="25"/>
       <c r="X176" s="25"/>
       <c r="Y176" s="25"/>
-      <c r="Z176" s="121"/>
+      <c r="Z176" s="124"/>
       <c r="AA176" s="79"/>
       <c r="AB176" s="79"/>
       <c r="AC176" s="79"/>
@@ -29287,23 +29330,23 @@
       <c r="I177" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="J177" s="125"/>
+      <c r="J177" s="128"/>
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
       <c r="M177" s="25"/>
-      <c r="N177" s="125"/>
+      <c r="N177" s="128"/>
       <c r="O177" s="25"/>
       <c r="P177" s="25"/>
       <c r="Q177" s="25"/>
-      <c r="R177" s="125"/>
+      <c r="R177" s="128"/>
       <c r="S177" s="25"/>
       <c r="T177" s="25"/>
       <c r="U177" s="25"/>
-      <c r="V177" s="125"/>
+      <c r="V177" s="128"/>
       <c r="W177" s="25"/>
       <c r="X177" s="25"/>
       <c r="Y177" s="25"/>
-      <c r="Z177" s="126"/>
+      <c r="Z177" s="132"/>
       <c r="AA177" s="79"/>
       <c r="AB177" s="79"/>
       <c r="AC177" s="79"/>
@@ -29336,23 +29379,23 @@
       <c r="I178" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="J178" s="121"/>
+      <c r="J178" s="124"/>
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
-      <c r="N178" s="121"/>
+      <c r="N178" s="124"/>
       <c r="O178" s="25"/>
       <c r="P178" s="25"/>
       <c r="Q178" s="25"/>
-      <c r="R178" s="121"/>
+      <c r="R178" s="124"/>
       <c r="S178" s="25"/>
       <c r="T178" s="25"/>
       <c r="U178" s="25"/>
-      <c r="V178" s="121"/>
+      <c r="V178" s="124"/>
       <c r="W178" s="25"/>
       <c r="X178" s="25"/>
       <c r="Y178" s="25"/>
-      <c r="Z178" s="121"/>
+      <c r="Z178" s="124"/>
       <c r="AA178" s="79"/>
       <c r="AB178" s="79"/>
       <c r="AC178" s="79"/>
@@ -47843,26 +47886,318 @@
     </row>
   </sheetData>
   <mergeCells count="356">
-    <mergeCell ref="N127:N128"/>
-    <mergeCell ref="N130:N131"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="N112:N113"/>
-    <mergeCell ref="N114:N115"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="N118:N119"/>
-    <mergeCell ref="N121:N122"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="N125:N126"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="V109:V110"/>
+    <mergeCell ref="V112:V113"/>
+    <mergeCell ref="V114:V115"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="V118:V119"/>
+    <mergeCell ref="V86:V87"/>
+    <mergeCell ref="V88:V89"/>
+    <mergeCell ref="V94:V95"/>
+    <mergeCell ref="V96:V97"/>
+    <mergeCell ref="V98:V99"/>
+    <mergeCell ref="V100:V101"/>
+    <mergeCell ref="V103:V104"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="V105:V106"/>
+    <mergeCell ref="V107:V108"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="Z57:Z58"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="Z61:Z62"/>
+    <mergeCell ref="Z64:Z65"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="Z48:Z49"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="V66:V67"/>
+    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="Z68:Z69"/>
+    <mergeCell ref="Z70:Z71"/>
+    <mergeCell ref="Z73:Z74"/>
+    <mergeCell ref="Z75:Z76"/>
+    <mergeCell ref="Z77:Z78"/>
+    <mergeCell ref="Z79:Z80"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="Z86:Z87"/>
+    <mergeCell ref="Z88:Z89"/>
+    <mergeCell ref="Z94:Z95"/>
+    <mergeCell ref="Z96:Z97"/>
+    <mergeCell ref="Z98:Z99"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N132:N133"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="R96:R97"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="R86:R87"/>
+    <mergeCell ref="R88:R89"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="R112:R113"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="R116:R117"/>
+    <mergeCell ref="R118:R119"/>
+    <mergeCell ref="R121:R122"/>
+    <mergeCell ref="V121:V122"/>
+    <mergeCell ref="V123:V124"/>
+    <mergeCell ref="V125:V126"/>
+    <mergeCell ref="V127:V128"/>
+    <mergeCell ref="R123:R124"/>
+    <mergeCell ref="R125:R126"/>
+    <mergeCell ref="R127:R128"/>
+    <mergeCell ref="R130:R131"/>
+    <mergeCell ref="R132:R133"/>
+    <mergeCell ref="R134:R135"/>
+    <mergeCell ref="R136:R137"/>
+    <mergeCell ref="V130:V131"/>
+    <mergeCell ref="V132:V133"/>
+    <mergeCell ref="V134:V135"/>
+    <mergeCell ref="V136:V137"/>
+    <mergeCell ref="V145:V146"/>
+    <mergeCell ref="V147:V148"/>
+    <mergeCell ref="V149:V150"/>
+    <mergeCell ref="R161:R162"/>
+    <mergeCell ref="R163:R164"/>
+    <mergeCell ref="R166:R167"/>
+    <mergeCell ref="R168:R169"/>
+    <mergeCell ref="R170:R171"/>
+    <mergeCell ref="R173:R174"/>
+    <mergeCell ref="V168:V169"/>
+    <mergeCell ref="V170:V171"/>
+    <mergeCell ref="V173:V174"/>
+    <mergeCell ref="R175:R176"/>
+    <mergeCell ref="R177:R178"/>
+    <mergeCell ref="R145:R146"/>
+    <mergeCell ref="R147:R148"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="R152:R153"/>
+    <mergeCell ref="R154:R155"/>
+    <mergeCell ref="R156:R157"/>
+    <mergeCell ref="R159:R160"/>
+    <mergeCell ref="V175:V176"/>
+    <mergeCell ref="V177:V178"/>
+    <mergeCell ref="V152:V153"/>
+    <mergeCell ref="V154:V155"/>
+    <mergeCell ref="V156:V157"/>
+    <mergeCell ref="V159:V160"/>
+    <mergeCell ref="V161:V162"/>
+    <mergeCell ref="V163:V164"/>
+    <mergeCell ref="V166:V167"/>
+    <mergeCell ref="Z100:Z101"/>
+    <mergeCell ref="Z103:Z104"/>
+    <mergeCell ref="Z105:Z106"/>
+    <mergeCell ref="Z107:Z108"/>
+    <mergeCell ref="Z109:Z110"/>
+    <mergeCell ref="Z112:Z113"/>
+    <mergeCell ref="Z114:Z115"/>
+    <mergeCell ref="Z116:Z117"/>
+    <mergeCell ref="Z118:Z119"/>
+    <mergeCell ref="Z121:Z122"/>
+    <mergeCell ref="Z123:Z124"/>
+    <mergeCell ref="Z125:Z126"/>
+    <mergeCell ref="Z127:Z128"/>
+    <mergeCell ref="Z130:Z131"/>
+    <mergeCell ref="Z132:Z133"/>
+    <mergeCell ref="Z134:Z135"/>
+    <mergeCell ref="Z136:Z137"/>
+    <mergeCell ref="Z145:Z146"/>
+    <mergeCell ref="Z147:Z148"/>
+    <mergeCell ref="Z149:Z150"/>
+    <mergeCell ref="Z152:Z153"/>
+    <mergeCell ref="Z173:Z174"/>
+    <mergeCell ref="Z175:Z176"/>
+    <mergeCell ref="Z177:Z178"/>
+    <mergeCell ref="Z154:Z155"/>
+    <mergeCell ref="Z156:Z157"/>
+    <mergeCell ref="Z159:Z160"/>
+    <mergeCell ref="Z161:Z162"/>
+    <mergeCell ref="Z163:Z164"/>
+    <mergeCell ref="Z166:Z167"/>
+    <mergeCell ref="Z170:Z171"/>
+    <mergeCell ref="N134:N135"/>
+    <mergeCell ref="N136:N137"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="N149:N150"/>
+    <mergeCell ref="N152:N153"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="N175:N176"/>
     <mergeCell ref="N177:N178"/>
     <mergeCell ref="N154:N155"/>
     <mergeCell ref="N156:N157"/>
@@ -47887,318 +48222,26 @@
     <mergeCell ref="N48:N49"/>
     <mergeCell ref="N50:N51"/>
     <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N134:N135"/>
-    <mergeCell ref="N136:N137"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="N149:N150"/>
-    <mergeCell ref="N152:N153"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N173:N174"/>
-    <mergeCell ref="N175:N176"/>
-    <mergeCell ref="Z147:Z148"/>
-    <mergeCell ref="Z149:Z150"/>
-    <mergeCell ref="Z152:Z153"/>
-    <mergeCell ref="Z173:Z174"/>
-    <mergeCell ref="Z175:Z176"/>
-    <mergeCell ref="Z177:Z178"/>
-    <mergeCell ref="Z154:Z155"/>
-    <mergeCell ref="Z156:Z157"/>
-    <mergeCell ref="Z159:Z160"/>
-    <mergeCell ref="Z161:Z162"/>
-    <mergeCell ref="Z163:Z164"/>
-    <mergeCell ref="Z166:Z167"/>
-    <mergeCell ref="Z170:Z171"/>
-    <mergeCell ref="Z121:Z122"/>
-    <mergeCell ref="Z123:Z124"/>
-    <mergeCell ref="Z125:Z126"/>
-    <mergeCell ref="Z127:Z128"/>
-    <mergeCell ref="Z130:Z131"/>
-    <mergeCell ref="Z132:Z133"/>
-    <mergeCell ref="Z134:Z135"/>
-    <mergeCell ref="Z136:Z137"/>
-    <mergeCell ref="Z145:Z146"/>
-    <mergeCell ref="Z100:Z101"/>
-    <mergeCell ref="Z103:Z104"/>
-    <mergeCell ref="Z105:Z106"/>
-    <mergeCell ref="Z107:Z108"/>
-    <mergeCell ref="Z109:Z110"/>
-    <mergeCell ref="Z112:Z113"/>
-    <mergeCell ref="Z114:Z115"/>
-    <mergeCell ref="Z116:Z117"/>
-    <mergeCell ref="Z118:Z119"/>
-    <mergeCell ref="V175:V176"/>
-    <mergeCell ref="V177:V178"/>
-    <mergeCell ref="V152:V153"/>
-    <mergeCell ref="V154:V155"/>
-    <mergeCell ref="V156:V157"/>
-    <mergeCell ref="V159:V160"/>
-    <mergeCell ref="V161:V162"/>
-    <mergeCell ref="V163:V164"/>
-    <mergeCell ref="V166:V167"/>
-    <mergeCell ref="R175:R176"/>
-    <mergeCell ref="R177:R178"/>
-    <mergeCell ref="R145:R146"/>
-    <mergeCell ref="R147:R148"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="R152:R153"/>
-    <mergeCell ref="R154:R155"/>
-    <mergeCell ref="R156:R157"/>
-    <mergeCell ref="R159:R160"/>
-    <mergeCell ref="V145:V146"/>
-    <mergeCell ref="V147:V148"/>
-    <mergeCell ref="V149:V150"/>
-    <mergeCell ref="R161:R162"/>
-    <mergeCell ref="R163:R164"/>
-    <mergeCell ref="R166:R167"/>
-    <mergeCell ref="R168:R169"/>
-    <mergeCell ref="R170:R171"/>
-    <mergeCell ref="R173:R174"/>
-    <mergeCell ref="V168:V169"/>
-    <mergeCell ref="V170:V171"/>
-    <mergeCell ref="V173:V174"/>
-    <mergeCell ref="V127:V128"/>
-    <mergeCell ref="R123:R124"/>
-    <mergeCell ref="R125:R126"/>
-    <mergeCell ref="R127:R128"/>
-    <mergeCell ref="R130:R131"/>
-    <mergeCell ref="R132:R133"/>
-    <mergeCell ref="R134:R135"/>
-    <mergeCell ref="R136:R137"/>
-    <mergeCell ref="V130:V131"/>
-    <mergeCell ref="V132:V133"/>
-    <mergeCell ref="V134:V135"/>
-    <mergeCell ref="V136:V137"/>
-    <mergeCell ref="R109:R110"/>
-    <mergeCell ref="R112:R113"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="R116:R117"/>
-    <mergeCell ref="R118:R119"/>
-    <mergeCell ref="R121:R122"/>
-    <mergeCell ref="V121:V122"/>
-    <mergeCell ref="V123:V124"/>
-    <mergeCell ref="V125:V126"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="R107:R108"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="R96:R97"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="R86:R87"/>
-    <mergeCell ref="R88:R89"/>
-    <mergeCell ref="R94:R95"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N132:N133"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="J168:J169"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="Z86:Z87"/>
-    <mergeCell ref="Z88:Z89"/>
-    <mergeCell ref="Z94:Z95"/>
-    <mergeCell ref="Z96:Z97"/>
-    <mergeCell ref="Z98:Z99"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="V66:V67"/>
-    <mergeCell ref="V68:V69"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="Z68:Z69"/>
-    <mergeCell ref="Z70:Z71"/>
-    <mergeCell ref="Z73:Z74"/>
-    <mergeCell ref="Z75:Z76"/>
-    <mergeCell ref="Z77:Z78"/>
-    <mergeCell ref="Z79:Z80"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="Z57:Z58"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="Z61:Z62"/>
-    <mergeCell ref="Z64:Z65"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="V64:V65"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Z48:Z49"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="V109:V110"/>
-    <mergeCell ref="V112:V113"/>
-    <mergeCell ref="V114:V115"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="V118:V119"/>
-    <mergeCell ref="V86:V87"/>
-    <mergeCell ref="V88:V89"/>
-    <mergeCell ref="V94:V95"/>
-    <mergeCell ref="V96:V97"/>
-    <mergeCell ref="V98:V99"/>
-    <mergeCell ref="V100:V101"/>
-    <mergeCell ref="V103:V104"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="V82:V83"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="V105:V106"/>
-    <mergeCell ref="V107:V108"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="N127:N128"/>
+    <mergeCell ref="N130:N131"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="N112:N113"/>
+    <mergeCell ref="N114:N115"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="N118:N119"/>
+    <mergeCell ref="N121:N122"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="N125:N126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M21" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/app-server/src/main/resources/2021_sessions.xlsx
+++ b/app-server/src/main/resources/2021_sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577DAD31-9E7C-5140-9485-7F1701B26747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAAF64-15BF-A343-96E2-14021CB65044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session Chairs" sheetId="1" r:id="rId1"/>
@@ -2234,9 +2234,6 @@
     <t>University of Eastern Finland, Finland</t>
   </si>
   <si>
-    <t>first.last@uef.fi</t>
-  </si>
-  <si>
     <t>Vicent Sanz Marco</t>
   </si>
   <si>
@@ -2607,6 +2604,9 @@
   </si>
   <si>
     <t>IRMAS-INTOP</t>
+  </si>
+  <si>
+    <t>franti@cs.uef.fi </t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2925,6 +2925,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3006,10 +3013,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3213,8 +3221,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3431,10 +3441,10 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3575,7 +3585,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>19</v>
@@ -3587,16 +3597,16 @@
         <v>44277</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G4" s="16">
         <v>44277</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>21</v>
@@ -3646,13 +3656,13 @@
         <v>44277</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G5" s="16">
         <v>44277</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="18"/>
@@ -3720,13 +3730,13 @@
         <v>44277</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G7" s="20">
         <v>44277</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>30</v>
@@ -3765,13 +3775,13 @@
         <v>44277</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G8" s="20">
         <v>44277</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>30</v>
@@ -3810,13 +3820,13 @@
         <v>44277</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G9" s="20">
         <v>44277</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3855,13 +3865,13 @@
         <v>44278</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G10" s="20">
         <v>44278</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>30</v>
@@ -3900,13 +3910,13 @@
         <v>44277</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G11" s="20">
         <v>44277</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>30</v>
@@ -3945,13 +3955,13 @@
         <v>44278</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G12" s="20">
         <v>44278</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>30</v>
@@ -4005,13 +4015,13 @@
         <v>44277</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G14" s="20">
         <v>44277</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>52</v>
@@ -4054,13 +4064,13 @@
         <v>44277</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G15" s="20">
         <v>44277</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>52</v>
@@ -4103,13 +4113,13 @@
         <v>44277</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G16" s="20">
         <v>44277</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>62</v>
@@ -4154,13 +4164,13 @@
         <v>44278</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G17" s="20">
         <v>44278</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>62</v>
@@ -4203,13 +4213,13 @@
         <v>44277</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G18" s="20">
         <v>44277</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>71</v>
@@ -4250,13 +4260,13 @@
         <v>44278</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G19" s="20">
         <v>44278</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>71</v>
@@ -4312,13 +4322,13 @@
         <v>44277</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G21" s="20">
         <v>44277</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>76</v>
@@ -4361,13 +4371,13 @@
         <v>44277</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G22" s="20">
         <v>44277</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>76</v>
@@ -4410,13 +4420,13 @@
         <v>44277</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G23" s="20">
         <v>44277</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>82</v>
@@ -4455,13 +4465,13 @@
         <v>44278</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G24" s="20">
         <v>44278</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>82</v>
@@ -4500,13 +4510,13 @@
         <v>44277</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G25" s="20">
         <v>44277</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>90</v>
@@ -4541,13 +4551,13 @@
         <v>44278</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G26" s="20">
         <v>44278</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>90</v>
@@ -4597,13 +4607,13 @@
         <v>44277</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G28" s="20">
         <v>44277</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>94</v>
@@ -4638,13 +4648,13 @@
         <v>44277</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G29" s="20">
         <v>44277</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>94</v>
@@ -4679,13 +4689,13 @@
         <v>44277</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G30" s="20">
         <v>44277</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>94</v>
@@ -4720,13 +4730,13 @@
         <v>44278</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G31" s="20">
         <v>44278</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>94</v>
@@ -4761,13 +4771,13 @@
         <v>44277</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G32" s="20">
         <v>44277</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>99</v>
@@ -4781,7 +4791,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O32" s="24" t="s">
         <v>102</v>
@@ -4806,13 +4816,13 @@
         <v>44278</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G33" s="20">
         <v>44278</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>99</v>
@@ -4826,7 +4836,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O33" s="24" t="s">
         <v>102</v>
@@ -4866,13 +4876,13 @@
         <v>44277</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G35" s="20">
         <v>44277</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>106</v>
@@ -4915,13 +4925,13 @@
         <v>44277</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G36" s="20">
         <v>44277</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>106</v>
@@ -4964,13 +4974,13 @@
         <v>44277</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G37" s="20">
         <v>44277</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>112</v>
@@ -5005,13 +5015,13 @@
         <v>44278</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G38" s="20">
         <v>44278</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>112</v>
@@ -5046,13 +5056,13 @@
         <v>44277</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G39" s="20">
         <v>44277</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>116</v>
@@ -5095,13 +5105,13 @@
         <v>44278</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G40" s="20">
         <v>44278</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>116</v>
@@ -5190,16 +5200,16 @@
         <v>44278</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G43" s="38">
         <v>44278</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J43" s="41" t="s">
         <v>21</v>
@@ -5251,16 +5261,16 @@
         <v>44278</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G44" s="38">
         <v>44278</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>21</v>
@@ -5341,16 +5351,16 @@
         <v>44278</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G46" s="20">
         <v>44278</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>134</v>
@@ -5394,16 +5404,16 @@
         <v>44278</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G47" s="20">
         <v>44278</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>134</v>
@@ -5447,13 +5457,13 @@
         <v>44278</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G48" s="20">
         <v>44278</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I48" s="23" t="s">
         <v>140</v>
@@ -5498,13 +5508,13 @@
         <v>44278</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G49" s="20">
         <v>44278</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>140</v>
@@ -5549,13 +5559,13 @@
         <v>44278</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G50" s="20">
         <v>44278</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>30</v>
@@ -5602,13 +5612,13 @@
         <v>44278</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G51" s="20">
         <v>44279</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>30</v>
@@ -5655,13 +5665,13 @@
         <v>44278</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G52" s="20">
         <v>44278</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>30</v>
@@ -5708,13 +5718,13 @@
         <v>44279</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G53" s="20">
         <v>44279</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>30</v>
@@ -5790,16 +5800,16 @@
         <v>44278</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G55" s="20">
         <v>44278</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>154</v>
@@ -5841,16 +5851,16 @@
         <v>44278</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G56" s="20">
         <v>44278</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>154</v>
@@ -5892,16 +5902,16 @@
         <v>44278</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G57" s="20">
         <v>44278</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>159</v>
@@ -5951,16 +5961,16 @@
         <v>44278</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G58" s="20">
         <v>44278</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>159</v>
@@ -6010,13 +6020,13 @@
         <v>44278</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G59" s="20">
         <v>44278</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>167</v>
@@ -6069,13 +6079,13 @@
         <v>44278</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G60" s="20">
         <v>44279</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>167</v>
@@ -6128,13 +6138,13 @@
         <v>44278</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G61" s="20">
         <v>44278</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>174</v>
@@ -6146,7 +6156,7 @@
         <v>177</v>
       </c>
       <c r="L61" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -6181,13 +6191,13 @@
         <v>44279</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G62" s="20">
         <v>44279</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>174</v>
@@ -6199,7 +6209,7 @@
         <v>179</v>
       </c>
       <c r="L62" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -6263,13 +6273,13 @@
         <v>44278</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G64" s="20">
         <v>44278</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>30</v>
@@ -6314,13 +6324,13 @@
         <v>44278</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G65" s="20">
         <v>44278</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>30</v>
@@ -6365,13 +6375,13 @@
         <v>44278</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G66" s="20">
         <v>44278</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>30</v>
@@ -6416,13 +6426,13 @@
         <v>44278</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G67" s="20">
         <v>44278</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>30</v>
@@ -6467,13 +6477,13 @@
         <v>44278</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G68" s="20">
         <v>44278</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>184</v>
@@ -6526,13 +6536,13 @@
         <v>44278</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G69" s="20">
         <v>44279</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>184</v>
@@ -6585,13 +6595,13 @@
         <v>44278</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G70" s="20">
         <v>44278</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>191</v>
@@ -6644,13 +6654,13 @@
         <v>44279</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G71" s="20">
         <v>44279</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>191</v>
@@ -6732,16 +6742,16 @@
         <v>44278</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G73" s="20">
         <v>44278</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J73" s="24" t="s">
         <v>31</v>
@@ -6783,16 +6793,16 @@
         <v>44278</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G74" s="20">
         <v>44278</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J74" s="24" t="s">
         <v>31</v>
@@ -6834,16 +6844,16 @@
         <v>44278</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G75" s="20">
         <v>44278</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>207</v>
@@ -6885,16 +6895,16 @@
         <v>44278</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G76" s="20">
         <v>44278</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>207</v>
@@ -6936,13 +6946,13 @@
         <v>44278</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G77" s="20">
         <v>44278</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>209</v>
@@ -6995,13 +7005,13 @@
         <v>44278</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G78" s="20">
         <v>44279</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>209</v>
@@ -7054,13 +7064,13 @@
         <v>44278</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G79" s="20">
         <v>44278</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>217</v>
@@ -7109,13 +7119,13 @@
         <v>44279</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G80" s="20">
         <v>44279</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>217</v>
@@ -7193,16 +7203,16 @@
         <v>44278</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G82" s="20">
         <v>44278</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J82" s="31" t="s">
         <v>225</v>
@@ -7248,16 +7258,16 @@
         <v>44278</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G83" s="20">
         <v>44278</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>225</v>
@@ -7301,16 +7311,16 @@
         <v>44278</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G84" s="20">
         <v>44278</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>211</v>
@@ -7360,16 +7370,16 @@
         <v>44278</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G85" s="20">
         <v>44278</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>211</v>
@@ -7419,13 +7429,13 @@
         <v>44278</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G86" s="20">
         <v>44278</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>235</v>
@@ -7478,13 +7488,13 @@
         <v>44278</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G87" s="20">
         <v>44279</v>
       </c>
       <c r="H87" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>235</v>
@@ -7537,13 +7547,13 @@
         <v>44278</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G88" s="20">
         <v>44278</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>235</v>
@@ -7586,13 +7596,13 @@
         <v>44279</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G89" s="20">
         <v>44279</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>235</v>
@@ -7681,16 +7691,16 @@
         <v>44279</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G92" s="38">
         <v>44279</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I92" s="122" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J92" s="41" t="s">
         <v>250</v>
@@ -7771,13 +7781,13 @@
         <v>44279</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G94" s="20">
         <v>44279</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>167</v>
@@ -7830,13 +7840,13 @@
         <v>44279</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G95" s="20">
         <v>44279</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>167</v>
@@ -7889,13 +7899,13 @@
         <v>44279</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G96" s="20">
         <v>44279</v>
       </c>
       <c r="H96" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>62</v>
@@ -7946,13 +7956,13 @@
         <v>44279</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G97" s="20">
         <v>44279</v>
       </c>
       <c r="H97" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>62</v>
@@ -8003,13 +8013,13 @@
         <v>44279</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G98" s="20">
         <v>44279</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>266</v>
@@ -8060,13 +8070,13 @@
         <v>44279</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G99" s="20">
         <v>44280</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>266</v>
@@ -8117,13 +8127,13 @@
         <v>44279</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G100" s="20">
         <v>44279</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>275</v>
@@ -8176,13 +8186,13 @@
         <v>44280</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G101" s="20">
         <v>44280</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>275</v>
@@ -8264,16 +8274,16 @@
         <v>44279</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G103" s="20">
         <v>44279</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I103" s="52" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J103" s="50" t="s">
         <v>289</v>
@@ -8319,16 +8329,16 @@
         <v>44279</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G104" s="20">
         <v>44279</v>
       </c>
       <c r="H104" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I104" s="52" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J104" s="50" t="s">
         <v>289</v>
@@ -8374,16 +8384,16 @@
         <v>44279</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G105" s="20">
         <v>44279</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>295</v>
@@ -8425,16 +8435,16 @@
         <v>44279</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G106" s="20">
         <v>44279</v>
       </c>
       <c r="H106" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>295</v>
@@ -8476,13 +8486,13 @@
         <v>44279</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G107" s="20">
         <v>44279</v>
       </c>
       <c r="H107" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>297</v>
@@ -8527,13 +8537,13 @@
         <v>44279</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G108" s="20">
         <v>44280</v>
       </c>
       <c r="H108" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>297</v>
@@ -8578,13 +8588,13 @@
         <v>44279</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G109" s="20">
         <v>44279</v>
       </c>
       <c r="H109" s="54" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>301</v>
@@ -8637,13 +8647,13 @@
         <v>44280</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G110" s="20">
         <v>44280</v>
       </c>
       <c r="H110" s="54" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>301</v>
@@ -8725,13 +8735,13 @@
         <v>44279</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G112" s="20">
         <v>44279</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>311</v>
@@ -8784,13 +8794,13 @@
         <v>44279</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G113" s="20">
         <v>44279</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>311</v>
@@ -8843,16 +8853,16 @@
         <v>44279</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G114" s="20">
         <v>44279</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>312</v>
@@ -8902,16 +8912,16 @@
         <v>44279</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G115" s="20">
         <v>44279</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>312</v>
@@ -8961,13 +8971,13 @@
         <v>44279</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G116" s="20">
         <v>44279</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>326</v>
@@ -9012,13 +9022,13 @@
         <v>44279</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G117" s="20">
         <v>44280</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>326</v>
@@ -9063,13 +9073,13 @@
         <v>44279</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G118" s="20">
         <v>44279</v>
       </c>
       <c r="H118" s="54" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>327</v>
@@ -9120,13 +9130,13 @@
         <v>44280</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G119" s="20">
         <v>44280</v>
       </c>
       <c r="H119" s="54" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>327</v>
@@ -9206,13 +9216,13 @@
         <v>44279</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G121" s="20">
         <v>44279</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>94</v>
@@ -9257,13 +9267,13 @@
         <v>44279</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G122" s="20">
         <v>44279</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>94</v>
@@ -9308,16 +9318,16 @@
         <v>44279</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G123" s="20">
         <v>44279</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J123" s="24" t="s">
         <v>114</v>
@@ -9363,16 +9373,16 @@
         <v>44279</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G124" s="20">
         <v>44279</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J124" s="24" t="s">
         <v>114</v>
@@ -9418,13 +9428,13 @@
         <v>44279</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G125" s="20">
         <v>44279</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>311</v>
@@ -9477,13 +9487,13 @@
         <v>44279</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G126" s="20">
         <v>44280</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>311</v>
@@ -9536,13 +9546,13 @@
         <v>44279</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G127" s="20">
         <v>44279</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>311</v>
@@ -9595,13 +9605,13 @@
         <v>44280</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G128" s="20">
         <v>44280</v>
       </c>
       <c r="H128" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>311</v>
@@ -9683,16 +9693,16 @@
         <v>44279</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G130" s="20">
         <v>44279</v>
       </c>
       <c r="H130" s="21" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>277</v>
@@ -9742,16 +9752,16 @@
         <v>44279</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G131" s="20">
         <v>44279</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>277</v>
@@ -9801,13 +9811,13 @@
         <v>44279</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G132" s="20">
         <v>44279</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>357</v>
@@ -9852,13 +9862,13 @@
         <v>44279</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G133" s="20">
         <v>44279</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>357</v>
@@ -9903,13 +9913,13 @@
         <v>44279</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G134" s="20">
         <v>44279</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>364</v>
@@ -9958,13 +9968,13 @@
         <v>44279</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G135" s="20">
         <v>44280</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>364</v>
@@ -10013,13 +10023,13 @@
         <v>44279</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G136" s="20">
         <v>44279</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>364</v>
@@ -10068,13 +10078,13 @@
         <v>44280</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G137" s="20">
         <v>44280</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>364</v>
@@ -10185,13 +10195,13 @@
         <v>44280</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G140" s="16">
         <v>44280</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="18"/>
@@ -10218,7 +10228,7 @@
         <v>18</v>
       </c>
       <c r="B141" s="121" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>374</v>
@@ -10230,13 +10240,13 @@
         <v>44280</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G141" s="16">
         <v>44280</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>20</v>
@@ -10318,13 +10328,13 @@
         <v>44280</v>
       </c>
       <c r="F143" s="63" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G143" s="38">
         <v>44280</v>
       </c>
       <c r="H143" s="39" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I143" s="40" t="s">
         <v>20</v>
@@ -10408,13 +10418,13 @@
         <v>44280</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G145" s="20">
         <v>44280</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>140</v>
@@ -10459,13 +10469,13 @@
         <v>44280</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G146" s="20">
         <v>44280</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>140</v>
@@ -10510,13 +10520,13 @@
         <v>44280</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G147" s="20">
         <v>44280</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>379</v>
@@ -10565,13 +10575,13 @@
         <v>44281</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G148" s="20">
         <v>44281</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>379</v>
@@ -10624,13 +10634,13 @@
         <v>44280</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G149" s="20">
         <v>44280</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>385</v>
@@ -10679,13 +10689,13 @@
         <v>44281</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G150" s="20">
         <v>44281</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>385</v>
@@ -10763,13 +10773,13 @@
         <v>44280</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G152" s="20">
         <v>44280</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>389</v>
@@ -10822,13 +10832,13 @@
         <v>44280</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G153" s="20">
         <v>44280</v>
       </c>
       <c r="H153" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>389</v>
@@ -10881,13 +10891,13 @@
         <v>44280</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G154" s="20">
         <v>44280</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>397</v>
@@ -10934,13 +10944,13 @@
         <v>44281</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G155" s="20">
         <v>44281</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>397</v>
@@ -10987,13 +10997,13 @@
         <v>44280</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G156" s="20">
         <v>44280</v>
       </c>
       <c r="H156" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>404</v>
@@ -11007,7 +11017,7 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O156" s="66" t="s">
         <v>408</v>
@@ -11042,13 +11052,13 @@
         <v>44281</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G157" s="20">
         <v>44281</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>404</v>
@@ -11062,7 +11072,7 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
       <c r="N157" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O157" s="66" t="s">
         <v>409</v>
@@ -11126,13 +11136,13 @@
         <v>44280</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G159" s="20">
         <v>44280</v>
       </c>
       <c r="H159" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>357</v>
@@ -11177,13 +11187,13 @@
         <v>44280</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G160" s="20">
         <v>44280</v>
       </c>
       <c r="H160" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>357</v>
@@ -11228,13 +11238,13 @@
         <v>44280</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G161" s="20">
         <v>44280</v>
       </c>
       <c r="H161" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>357</v>
@@ -11279,13 +11289,13 @@
         <v>44281</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G162" s="20">
         <v>44281</v>
       </c>
       <c r="H162" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>357</v>
@@ -11330,13 +11340,13 @@
         <v>44280</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G163" s="20">
         <v>44280</v>
       </c>
       <c r="H163" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>357</v>
@@ -11381,13 +11391,13 @@
         <v>44281</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G164" s="20">
         <v>44281</v>
       </c>
       <c r="H164" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>357</v>
@@ -11461,13 +11471,13 @@
         <v>44280</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G166" s="20">
         <v>44280</v>
       </c>
       <c r="H166" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>311</v>
@@ -11520,13 +11530,13 @@
         <v>44280</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G167" s="20">
         <v>44280</v>
       </c>
       <c r="H167" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>311</v>
@@ -11579,13 +11589,13 @@
         <v>44280</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G168" s="20">
         <v>44280</v>
       </c>
       <c r="H168" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>422</v>
@@ -11638,13 +11648,13 @@
         <v>44281</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G169" s="20">
         <v>44281</v>
       </c>
       <c r="H169" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>422</v>
@@ -11697,13 +11707,13 @@
         <v>44280</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G170" s="20">
         <v>44280</v>
       </c>
       <c r="H170" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>430</v>
@@ -11756,13 +11766,13 @@
         <v>44281</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G171" s="20">
         <v>44281</v>
       </c>
       <c r="H171" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>430</v>
@@ -11844,13 +11854,13 @@
         <v>44280</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G173" s="20">
         <v>44280</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>440</v>
@@ -11903,13 +11913,13 @@
         <v>44280</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G174" s="20">
         <v>44280</v>
       </c>
       <c r="H174" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>440</v>
@@ -11962,13 +11972,13 @@
         <v>44280</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G175" s="20">
         <v>44280</v>
       </c>
       <c r="H175" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>440</v>
@@ -12021,13 +12031,13 @@
         <v>44281</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G176" s="20">
         <v>44281</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>440</v>
@@ -12080,13 +12090,13 @@
         <v>44280</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G177" s="20">
         <v>44280</v>
       </c>
       <c r="H177" s="21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>454</v>
@@ -12139,13 +12149,13 @@
         <v>44281</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G178" s="20">
         <v>44281</v>
       </c>
       <c r="H178" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>454</v>
@@ -19435,10 +19445,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K141" sqref="K141"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -19629,7 +19639,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C4" s="73" t="s">
         <v>19</v>
@@ -19638,19 +19648,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F4" s="75">
         <v>44277</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H4" s="75">
         <v>44277</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J4" s="77">
         <v>9991</v>
@@ -19661,7 +19671,7 @@
       <c r="L4" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="139" t="s">
         <v>407</v>
       </c>
       <c r="N4" s="79"/>
@@ -19695,13 +19705,13 @@
         <v>44277</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H5" s="75">
         <v>44277</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J5" s="77"/>
       <c r="K5" s="78"/>
@@ -19772,13 +19782,13 @@
         <v>44277</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H7" s="81">
         <v>44277</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J7" s="128"/>
       <c r="K7" s="25"/>
@@ -19821,13 +19831,13 @@
         <v>44277</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H8" s="81">
         <v>44277</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J8" s="124"/>
       <c r="K8" s="25"/>
@@ -19870,13 +19880,13 @@
         <v>44277</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H9" s="81">
         <v>44277</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J9" s="128"/>
       <c r="K9" s="25"/>
@@ -19919,13 +19929,13 @@
         <v>44278</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H10" s="81">
         <v>44278</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J10" s="124"/>
       <c r="K10" s="25"/>
@@ -19968,13 +19978,13 @@
         <v>44277</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H11" s="81">
         <v>44277</v>
       </c>
       <c r="I11" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J11" s="128"/>
       <c r="K11" s="25"/>
@@ -20017,13 +20027,13 @@
         <v>44278</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H12" s="81">
         <v>44278</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J12" s="124"/>
       <c r="K12" s="25"/>
@@ -20098,13 +20108,13 @@
         <v>44277</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H14" s="81">
         <v>44277</v>
       </c>
       <c r="I14" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J14" s="128"/>
       <c r="K14" s="25"/>
@@ -20147,13 +20157,13 @@
         <v>44277</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H15" s="81">
         <v>44277</v>
       </c>
       <c r="I15" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J15" s="124"/>
       <c r="K15" s="25"/>
@@ -20196,13 +20206,13 @@
         <v>44277</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H16" s="81">
         <v>44277</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J16" s="128"/>
       <c r="K16" s="25"/>
@@ -20245,13 +20255,13 @@
         <v>44278</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H17" s="81">
         <v>44278</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J17" s="124"/>
       <c r="K17" s="25"/>
@@ -20294,13 +20304,13 @@
         <v>44277</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H18" s="81">
         <v>44277</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J18" s="128"/>
       <c r="K18" s="25"/>
@@ -20343,13 +20353,13 @@
         <v>44278</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H19" s="81">
         <v>44278</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J19" s="124"/>
       <c r="K19" s="25"/>
@@ -20432,13 +20442,13 @@
         <v>44277</v>
       </c>
       <c r="G21" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H21" s="81">
         <v>44277</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J21" s="129">
         <v>1216</v>
@@ -20513,13 +20523,13 @@
         <v>44277</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H22" s="81">
         <v>44277</v>
       </c>
       <c r="I22" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J22" s="124"/>
       <c r="K22" s="2" t="s">
@@ -20586,13 +20596,13 @@
         <v>44277</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H23" s="81">
         <v>44277</v>
       </c>
       <c r="I23" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J23" s="129">
         <v>1147</v>
@@ -20643,13 +20653,13 @@
         <v>44278</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H24" s="81">
         <v>44278</v>
       </c>
       <c r="I24" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J24" s="124"/>
       <c r="K24" s="2" t="s">
@@ -20698,13 +20708,13 @@
         <v>44277</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H25" s="81">
         <v>44277</v>
       </c>
       <c r="I25" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J25" s="128"/>
       <c r="K25" s="25"/>
@@ -20747,13 +20757,13 @@
         <v>44278</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H26" s="81">
         <v>44278</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J26" s="124"/>
       <c r="K26" s="25"/>
@@ -20836,13 +20846,13 @@
         <v>44277</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H28" s="81">
         <v>44277</v>
       </c>
       <c r="I28" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J28" s="128">
         <v>1245</v>
@@ -20899,13 +20909,13 @@
         <v>44277</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H29" s="81">
         <v>44277</v>
       </c>
       <c r="I29" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J29" s="124"/>
       <c r="K29" s="25"/>
@@ -20954,13 +20964,13 @@
         <v>44277</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H30" s="81">
         <v>44277</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J30" s="128">
         <v>1012</v>
@@ -21009,13 +21019,13 @@
         <v>44278</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H31" s="81">
         <v>44278</v>
       </c>
       <c r="I31" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J31" s="124"/>
       <c r="K31" s="25"/>
@@ -21058,13 +21068,13 @@
         <v>44277</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H32" s="81">
         <v>44277</v>
       </c>
       <c r="I32" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J32" s="128">
         <v>1182</v>
@@ -21133,13 +21143,13 @@
         <v>44278</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H33" s="81">
         <v>44278</v>
       </c>
       <c r="I33" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J33" s="124"/>
       <c r="K33" s="25"/>
@@ -21240,13 +21250,13 @@
         <v>44277</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H35" s="81">
         <v>44277</v>
       </c>
       <c r="I35" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J35" s="128">
         <v>1085</v>
@@ -21313,13 +21323,13 @@
         <v>44277</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H36" s="81">
         <v>44277</v>
       </c>
       <c r="I36" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J36" s="124"/>
       <c r="K36" s="24" t="s">
@@ -21380,13 +21390,13 @@
         <v>44277</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H37" s="81">
         <v>44277</v>
       </c>
       <c r="I37" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J37" s="128"/>
       <c r="K37" s="25"/>
@@ -21429,13 +21439,13 @@
         <v>44278</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H38" s="81">
         <v>44278</v>
       </c>
       <c r="I38" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J38" s="124"/>
       <c r="K38" s="25"/>
@@ -21478,13 +21488,13 @@
         <v>44277</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H39" s="81">
         <v>44277</v>
       </c>
       <c r="I39" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J39" s="128">
         <v>1447</v>
@@ -21533,13 +21543,13 @@
         <v>44278</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H40" s="81">
         <v>44278</v>
       </c>
       <c r="I40" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J40" s="124"/>
       <c r="K40" s="25"/>
@@ -21654,13 +21664,13 @@
         <v>44278</v>
       </c>
       <c r="G43" s="82" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H43" s="81">
         <v>44278</v>
       </c>
       <c r="I43" s="82" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J43" s="83"/>
       <c r="K43" s="25"/>
@@ -21698,13 +21708,13 @@
         <v>44278</v>
       </c>
       <c r="G44" s="82" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H44" s="81">
         <v>44278</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J44" s="83"/>
       <c r="K44" s="25"/>
@@ -21791,13 +21801,13 @@
         <v>44278</v>
       </c>
       <c r="G46" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H46" s="81">
         <v>44278</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J46" s="129">
         <v>1691</v>
@@ -21860,13 +21870,13 @@
         <v>44278</v>
       </c>
       <c r="G47" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H47" s="81">
         <v>44278</v>
       </c>
       <c r="I47" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J47" s="124"/>
       <c r="K47" s="7" t="s">
@@ -21923,13 +21933,13 @@
         <v>44278</v>
       </c>
       <c r="G48" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H48" s="81">
         <v>44278</v>
       </c>
       <c r="I48" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J48" s="128"/>
       <c r="K48" s="25"/>
@@ -21972,13 +21982,13 @@
         <v>44278</v>
       </c>
       <c r="G49" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H49" s="81">
         <v>44278</v>
       </c>
       <c r="I49" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J49" s="124"/>
       <c r="K49" s="25"/>
@@ -22021,13 +22031,13 @@
         <v>44278</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H50" s="81">
         <v>44278</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J50" s="128"/>
       <c r="K50" s="25"/>
@@ -22070,13 +22080,13 @@
         <v>44278</v>
       </c>
       <c r="G51" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H51" s="81">
         <v>44279</v>
       </c>
       <c r="I51" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J51" s="124"/>
       <c r="K51" s="25"/>
@@ -22119,13 +22129,13 @@
         <v>44278</v>
       </c>
       <c r="G52" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H52" s="81">
         <v>44278</v>
       </c>
       <c r="I52" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J52" s="128"/>
       <c r="K52" s="25"/>
@@ -22168,13 +22178,13 @@
         <v>44279</v>
       </c>
       <c r="G53" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H53" s="81">
         <v>44279</v>
       </c>
       <c r="I53" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J53" s="124"/>
       <c r="K53" s="25"/>
@@ -22257,13 +22267,13 @@
         <v>44278</v>
       </c>
       <c r="G55" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H55" s="81">
         <v>44278</v>
       </c>
       <c r="I55" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J55" s="128"/>
       <c r="K55" s="25"/>
@@ -22314,13 +22324,13 @@
         <v>44278</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H56" s="81">
         <v>44278</v>
       </c>
       <c r="I56" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J56" s="124"/>
       <c r="K56" s="25"/>
@@ -22369,13 +22379,13 @@
         <v>44278</v>
       </c>
       <c r="G57" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H57" s="81">
         <v>44278</v>
       </c>
       <c r="I57" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J57" s="129">
         <v>1408</v>
@@ -22434,13 +22444,13 @@
         <v>44278</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H58" s="81">
         <v>44278</v>
       </c>
       <c r="I58" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J58" s="124"/>
       <c r="K58" s="91" t="s">
@@ -22495,13 +22505,13 @@
         <v>44278</v>
       </c>
       <c r="G59" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H59" s="81">
         <v>44278</v>
       </c>
       <c r="I59" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J59" s="128">
         <v>1055</v>
@@ -22578,13 +22588,13 @@
         <v>44278</v>
       </c>
       <c r="G60" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H60" s="81">
         <v>44279</v>
       </c>
       <c r="I60" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J60" s="124"/>
       <c r="K60" s="92" t="s">
@@ -22651,13 +22661,13 @@
         <v>44278</v>
       </c>
       <c r="G61" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H61" s="81">
         <v>44278</v>
       </c>
       <c r="I61" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J61" s="136">
         <v>1738</v>
@@ -22724,13 +22734,13 @@
         <v>44279</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H62" s="81">
         <v>44279</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J62" s="124"/>
       <c r="K62" s="94" t="s">
@@ -22819,13 +22829,13 @@
         <v>44278</v>
       </c>
       <c r="G64" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H64" s="81">
         <v>44278</v>
       </c>
       <c r="I64" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J64" s="128"/>
       <c r="K64" s="25"/>
@@ -22868,13 +22878,13 @@
         <v>44278</v>
       </c>
       <c r="G65" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H65" s="81">
         <v>44278</v>
       </c>
       <c r="I65" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J65" s="124"/>
       <c r="K65" s="25"/>
@@ -22917,13 +22927,13 @@
         <v>44278</v>
       </c>
       <c r="G66" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H66" s="81">
         <v>44278</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J66" s="128"/>
       <c r="K66" s="25"/>
@@ -22966,13 +22976,13 @@
         <v>44278</v>
       </c>
       <c r="G67" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H67" s="81">
         <v>44278</v>
       </c>
       <c r="I67" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J67" s="124"/>
       <c r="K67" s="25"/>
@@ -23015,13 +23025,13 @@
         <v>44278</v>
       </c>
       <c r="G68" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H68" s="81">
         <v>44278</v>
       </c>
       <c r="I68" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J68" s="128">
         <v>1176</v>
@@ -23096,13 +23106,13 @@
         <v>44278</v>
       </c>
       <c r="G69" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H69" s="81">
         <v>44279</v>
       </c>
       <c r="I69" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J69" s="124"/>
       <c r="K69" s="25"/>
@@ -23145,13 +23155,13 @@
         <v>44278</v>
       </c>
       <c r="G70" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H70" s="81">
         <v>44278</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J70" s="128">
         <v>1219</v>
@@ -23202,13 +23212,13 @@
         <v>44279</v>
       </c>
       <c r="G71" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H71" s="81">
         <v>44279</v>
       </c>
       <c r="I71" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J71" s="124"/>
       <c r="K71" s="25"/>
@@ -23291,13 +23301,13 @@
         <v>44278</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H73" s="81">
         <v>44278</v>
       </c>
       <c r="I73" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J73" s="128"/>
       <c r="K73" s="25"/>
@@ -23340,13 +23350,13 @@
         <v>44278</v>
       </c>
       <c r="G74" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H74" s="81">
         <v>44278</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J74" s="124"/>
       <c r="K74" s="25"/>
@@ -23389,13 +23399,13 @@
         <v>44278</v>
       </c>
       <c r="G75" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H75" s="81">
         <v>44278</v>
       </c>
       <c r="I75" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J75" s="128">
         <v>1133</v>
@@ -23446,13 +23456,13 @@
         <v>44278</v>
       </c>
       <c r="G76" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H76" s="81">
         <v>44278</v>
       </c>
       <c r="I76" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J76" s="124"/>
       <c r="K76" s="95" t="s">
@@ -23507,13 +23517,13 @@
         <v>44278</v>
       </c>
       <c r="G77" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H77" s="81">
         <v>44278</v>
       </c>
       <c r="I77" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J77" s="128">
         <v>1047</v>
@@ -23588,13 +23598,13 @@
         <v>44278</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H78" s="81">
         <v>44279</v>
       </c>
       <c r="I78" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J78" s="124"/>
       <c r="K78" s="24" t="s">
@@ -23661,13 +23671,13 @@
         <v>44278</v>
       </c>
       <c r="G79" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H79" s="81">
         <v>44278</v>
       </c>
       <c r="I79" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J79" s="128"/>
       <c r="K79" s="25"/>
@@ -23710,13 +23720,13 @@
         <v>44279</v>
       </c>
       <c r="G80" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H80" s="81">
         <v>44279</v>
       </c>
       <c r="I80" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J80" s="124"/>
       <c r="K80" s="25"/>
@@ -23799,13 +23809,13 @@
         <v>44278</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H82" s="81">
         <v>44278</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J82" s="128">
         <v>1611</v>
@@ -23872,13 +23882,13 @@
         <v>44278</v>
       </c>
       <c r="G83" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H83" s="81">
         <v>44278</v>
       </c>
       <c r="I83" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J83" s="124"/>
       <c r="K83" s="24" t="s">
@@ -23939,13 +23949,13 @@
         <v>44278</v>
       </c>
       <c r="G84" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H84" s="81">
         <v>44278</v>
       </c>
       <c r="I84" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J84" s="128">
         <v>1127</v>
@@ -24012,13 +24022,13 @@
         <v>44278</v>
       </c>
       <c r="G85" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H85" s="81">
         <v>44278</v>
       </c>
       <c r="I85" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J85" s="124"/>
       <c r="K85" s="24" t="s">
@@ -24079,13 +24089,13 @@
         <v>44278</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H86" s="81">
         <v>44278</v>
       </c>
       <c r="I86" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J86" s="129">
         <v>1402</v>
@@ -24152,13 +24162,13 @@
         <v>44278</v>
       </c>
       <c r="G87" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H87" s="81">
         <v>44279</v>
       </c>
       <c r="I87" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J87" s="124"/>
       <c r="K87" s="7" t="s">
@@ -24219,13 +24229,13 @@
         <v>44278</v>
       </c>
       <c r="G88" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H88" s="81">
         <v>44278</v>
       </c>
       <c r="I88" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J88" s="129">
         <v>1591</v>
@@ -24292,13 +24302,13 @@
         <v>44279</v>
       </c>
       <c r="G89" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H89" s="81">
         <v>44279</v>
       </c>
       <c r="I89" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J89" s="124"/>
       <c r="K89" s="7" t="s">
@@ -24431,13 +24441,13 @@
         <v>44279</v>
       </c>
       <c r="G92" s="82" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H92" s="81">
         <v>44279</v>
       </c>
       <c r="I92" s="82" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J92" s="83"/>
       <c r="K92" s="25"/>
@@ -24524,13 +24534,13 @@
         <v>44279</v>
       </c>
       <c r="G94" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H94" s="81">
         <v>44279</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J94" s="128">
         <v>1170</v>
@@ -24583,13 +24593,13 @@
         <v>44279</v>
       </c>
       <c r="G95" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H95" s="81">
         <v>44279</v>
       </c>
       <c r="I95" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J95" s="124"/>
       <c r="K95" s="24" t="s">
@@ -24636,13 +24646,13 @@
         <v>44279</v>
       </c>
       <c r="G96" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H96" s="81">
         <v>44279</v>
       </c>
       <c r="I96" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J96" s="128"/>
       <c r="K96" s="25"/>
@@ -24685,13 +24695,13 @@
         <v>44279</v>
       </c>
       <c r="G97" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H97" s="81">
         <v>44279</v>
       </c>
       <c r="I97" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J97" s="124"/>
       <c r="K97" s="25"/>
@@ -24734,13 +24744,13 @@
         <v>44279</v>
       </c>
       <c r="G98" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H98" s="81">
         <v>44279</v>
       </c>
       <c r="I98" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J98" s="128">
         <v>1541</v>
@@ -24815,13 +24825,13 @@
         <v>44279</v>
       </c>
       <c r="G99" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H99" s="81">
         <v>44280</v>
       </c>
       <c r="I99" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J99" s="124"/>
       <c r="K99" s="24" t="s">
@@ -24888,13 +24898,13 @@
         <v>44279</v>
       </c>
       <c r="G100" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H100" s="81">
         <v>44279</v>
       </c>
       <c r="I100" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J100" s="128">
         <v>1326</v>
@@ -24969,13 +24979,13 @@
         <v>44280</v>
       </c>
       <c r="G101" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H101" s="81">
         <v>44280</v>
       </c>
       <c r="I101" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J101" s="124"/>
       <c r="K101" s="24" t="s">
@@ -25082,13 +25092,13 @@
         <v>44279</v>
       </c>
       <c r="G103" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H103" s="81">
         <v>44279</v>
       </c>
       <c r="I103" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J103" s="128"/>
       <c r="K103" s="99"/>
@@ -25139,13 +25149,13 @@
         <v>44279</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H104" s="81">
         <v>44279</v>
       </c>
       <c r="I104" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J104" s="124"/>
       <c r="K104" s="25"/>
@@ -25194,13 +25204,13 @@
         <v>44279</v>
       </c>
       <c r="G105" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H105" s="81">
         <v>44279</v>
       </c>
       <c r="I105" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J105" s="128">
         <v>1793</v>
@@ -25259,13 +25269,13 @@
         <v>44279</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H106" s="81">
         <v>44279</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J106" s="124"/>
       <c r="K106" s="24" t="s">
@@ -25320,13 +25330,13 @@
         <v>44279</v>
       </c>
       <c r="G107" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H107" s="81">
         <v>44279</v>
       </c>
       <c r="I107" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J107" s="128">
         <v>1482</v>
@@ -25377,13 +25387,13 @@
         <v>44279</v>
       </c>
       <c r="G108" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H108" s="81">
         <v>44280</v>
       </c>
       <c r="I108" s="85" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J108" s="124"/>
       <c r="K108" s="25"/>
@@ -25426,13 +25436,13 @@
         <v>44279</v>
       </c>
       <c r="G109" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H109" s="81">
         <v>44279</v>
       </c>
       <c r="I109" s="100" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J109" s="128"/>
       <c r="K109" s="25"/>
@@ -25475,13 +25485,13 @@
         <v>44280</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H110" s="81">
         <v>44280</v>
       </c>
       <c r="I110" s="100" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J110" s="124"/>
       <c r="K110" s="25"/>
@@ -25564,13 +25574,13 @@
         <v>44279</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H112" s="81">
         <v>44279</v>
       </c>
       <c r="I112" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J112" s="128">
         <v>1043</v>
@@ -25637,13 +25647,13 @@
         <v>44279</v>
       </c>
       <c r="G113" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H113" s="81">
         <v>44279</v>
       </c>
       <c r="I113" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J113" s="124"/>
       <c r="K113" s="97" t="s">
@@ -25704,13 +25714,13 @@
         <v>44279</v>
       </c>
       <c r="G114" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H114" s="81">
         <v>44279</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J114" s="128">
         <v>1431</v>
@@ -25769,13 +25779,13 @@
         <v>44279</v>
       </c>
       <c r="G115" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H115" s="81">
         <v>44279</v>
       </c>
       <c r="I115" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J115" s="124"/>
       <c r="K115" s="97" t="s">
@@ -25830,13 +25840,13 @@
         <v>44279</v>
       </c>
       <c r="G116" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H116" s="81">
         <v>44279</v>
       </c>
       <c r="I116" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J116" s="128">
         <v>1659</v>
@@ -25911,13 +25921,13 @@
         <v>44279</v>
       </c>
       <c r="G117" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H117" s="81">
         <v>44280</v>
       </c>
       <c r="I117" s="85" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J117" s="124"/>
       <c r="K117" s="24" t="s">
@@ -25984,13 +25994,13 @@
         <v>44279</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H118" s="81">
         <v>44279</v>
       </c>
       <c r="I118" s="100" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J118" s="128">
         <v>1297</v>
@@ -26049,13 +26059,13 @@
         <v>44280</v>
       </c>
       <c r="G119" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H119" s="81">
         <v>44280</v>
       </c>
       <c r="I119" s="100" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J119" s="124"/>
       <c r="K119" s="24" t="s">
@@ -26150,13 +26160,13 @@
         <v>44279</v>
       </c>
       <c r="G121" s="85" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H121" s="81">
         <v>44279</v>
       </c>
       <c r="I121" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J121" s="128">
         <v>1134</v>
@@ -26205,13 +26215,13 @@
         <v>44279</v>
       </c>
       <c r="G122" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H122" s="81">
         <v>44279</v>
       </c>
       <c r="I122" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J122" s="124"/>
       <c r="K122" s="25"/>
@@ -26254,13 +26264,13 @@
         <v>44279</v>
       </c>
       <c r="G123" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H123" s="81">
         <v>44279</v>
       </c>
       <c r="I123" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J123" s="128"/>
       <c r="K123" s="25"/>
@@ -26303,13 +26313,13 @@
         <v>44279</v>
       </c>
       <c r="G124" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H124" s="81">
         <v>44279</v>
       </c>
       <c r="I124" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J124" s="124"/>
       <c r="K124" s="25"/>
@@ -26352,13 +26362,13 @@
         <v>44279</v>
       </c>
       <c r="G125" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H125" s="81">
         <v>44279</v>
       </c>
       <c r="I125" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J125" s="128">
         <v>1014</v>
@@ -26433,13 +26443,13 @@
         <v>44279</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H126" s="81">
         <v>44280</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J126" s="124"/>
       <c r="K126" s="24" t="s">
@@ -26506,13 +26516,13 @@
         <v>44279</v>
       </c>
       <c r="G127" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H127" s="81">
         <v>44279</v>
       </c>
       <c r="I127" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J127" s="128">
         <v>1291</v>
@@ -26587,13 +26597,13 @@
         <v>44280</v>
       </c>
       <c r="G128" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H128" s="81">
         <v>44280</v>
       </c>
       <c r="I128" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J128" s="124"/>
       <c r="K128" s="24" t="s">
@@ -26700,13 +26710,13 @@
         <v>44279</v>
       </c>
       <c r="G130" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H130" s="81">
         <v>44279</v>
       </c>
       <c r="I130" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J130" s="128">
         <v>1741</v>
@@ -26773,13 +26783,13 @@
         <v>44279</v>
       </c>
       <c r="G131" s="82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H131" s="81">
         <v>44279</v>
       </c>
       <c r="I131" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J131" s="124"/>
       <c r="K131" s="24" t="s">
@@ -26840,13 +26850,13 @@
         <v>44279</v>
       </c>
       <c r="G132" s="85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H132" s="81">
         <v>44279</v>
       </c>
       <c r="I132" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J132" s="128"/>
       <c r="K132" s="25"/>
@@ -26889,13 +26899,13 @@
         <v>44279</v>
       </c>
       <c r="G133" s="85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H133" s="81">
         <v>44279</v>
       </c>
       <c r="I133" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J133" s="124"/>
       <c r="K133" s="25"/>
@@ -26938,13 +26948,13 @@
         <v>44279</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H134" s="81">
         <v>44279</v>
       </c>
       <c r="I134" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J134" s="133">
         <v>1109</v>
@@ -27007,13 +27017,13 @@
         <v>44279</v>
       </c>
       <c r="G135" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H135" s="81">
         <v>44280</v>
       </c>
       <c r="I135" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J135" s="124"/>
       <c r="K135" s="24" t="s">
@@ -27080,13 +27090,13 @@
         <v>44279</v>
       </c>
       <c r="G136" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H136" s="81">
         <v>44279</v>
       </c>
       <c r="I136" s="85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J136" s="128">
         <v>1796</v>
@@ -27149,13 +27159,13 @@
         <v>44280</v>
       </c>
       <c r="G137" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H137" s="81">
         <v>44280</v>
       </c>
       <c r="I137" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J137" s="124"/>
       <c r="K137" s="24" t="s">
@@ -27285,13 +27295,13 @@
         <v>44280</v>
       </c>
       <c r="G140" s="76" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H140" s="75">
         <v>44280</v>
       </c>
       <c r="I140" s="76" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J140" s="137">
         <v>9992</v>
@@ -27321,7 +27331,7 @@
         <v>18</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C141" s="73" t="s">
         <v>374</v>
@@ -27336,13 +27346,13 @@
         <v>44280</v>
       </c>
       <c r="G141" s="76" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H141" s="75">
         <v>44280</v>
       </c>
       <c r="I141" s="76" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J141" s="124"/>
       <c r="K141" s="78" t="s">
@@ -27351,8 +27361,8 @@
       <c r="L141" s="78" t="s">
         <v>722</v>
       </c>
-      <c r="M141" s="78" t="s">
-        <v>723</v>
+      <c r="M141" t="s">
+        <v>847</v>
       </c>
       <c r="N141" s="84"/>
       <c r="O141" s="79"/>
@@ -27506,13 +27516,13 @@
         <v>44280</v>
       </c>
       <c r="G145" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H145" s="81">
         <v>44280</v>
       </c>
       <c r="I145" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J145" s="128"/>
       <c r="K145" s="25"/>
@@ -27555,13 +27565,13 @@
         <v>44280</v>
       </c>
       <c r="G146" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H146" s="81">
         <v>44280</v>
       </c>
       <c r="I146" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J146" s="124"/>
       <c r="K146" s="25"/>
@@ -27604,25 +27614,25 @@
         <v>44280</v>
       </c>
       <c r="G147" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H147" s="81">
         <v>44280</v>
       </c>
       <c r="I147" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J147" s="128">
         <v>1236</v>
       </c>
       <c r="K147" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="L147" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="L147" s="24" t="s">
+      <c r="M147" s="24" t="s">
         <v>725</v>
-      </c>
-      <c r="M147" s="24" t="s">
-        <v>726</v>
       </c>
       <c r="N147" s="131">
         <v>1481</v>
@@ -27663,33 +27673,33 @@
         <v>44281</v>
       </c>
       <c r="G148" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H148" s="81">
         <v>44281</v>
       </c>
       <c r="I148" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J148" s="124"/>
       <c r="K148" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="L148" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="L148" s="24" t="s">
+      <c r="M148" s="24" t="s">
         <v>725</v>
-      </c>
-      <c r="M148" s="24" t="s">
-        <v>726</v>
       </c>
       <c r="N148" s="124"/>
       <c r="O148" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="P148" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="P148" s="24" t="s">
+      <c r="Q148" s="111" t="s">
         <v>728</v>
-      </c>
-      <c r="Q148" s="111" t="s">
-        <v>729</v>
       </c>
       <c r="R148" s="124"/>
       <c r="S148" s="25"/>
@@ -27724,49 +27734,49 @@
         <v>44280</v>
       </c>
       <c r="G149" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H149" s="81">
         <v>44280</v>
       </c>
       <c r="I149" s="112" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J149" s="128">
         <v>1400</v>
       </c>
       <c r="K149" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="L149" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="L149" s="24" t="s">
+      <c r="M149" s="24" t="s">
         <v>731</v>
-      </c>
-      <c r="M149" s="24" t="s">
-        <v>732</v>
       </c>
       <c r="N149" s="128">
         <v>1714</v>
       </c>
       <c r="O149" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="P149" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="P149" s="24" t="s">
+      <c r="Q149" s="24" t="s">
         <v>734</v>
-      </c>
-      <c r="Q149" s="24" t="s">
-        <v>735</v>
       </c>
       <c r="R149" s="128">
         <v>1255</v>
       </c>
       <c r="S149" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="T149" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="T149" s="24" t="s">
+      <c r="U149" s="24" t="s">
         <v>737</v>
-      </c>
-      <c r="U149" s="24" t="s">
-        <v>738</v>
       </c>
       <c r="V149" s="132"/>
       <c r="W149" s="79"/>
@@ -27797,43 +27807,43 @@
         <v>44281</v>
       </c>
       <c r="G150" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H150" s="81">
         <v>44281</v>
       </c>
       <c r="I150" s="112" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J150" s="124"/>
       <c r="K150" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="L150" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="L150" s="24" t="s">
+      <c r="M150" s="24" t="s">
         <v>731</v>
-      </c>
-      <c r="M150" s="24" t="s">
-        <v>732</v>
       </c>
       <c r="N150" s="124"/>
       <c r="O150" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="P150" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="P150" s="24" t="s">
+      <c r="Q150" s="24" t="s">
         <v>734</v>
-      </c>
-      <c r="Q150" s="24" t="s">
-        <v>735</v>
       </c>
       <c r="R150" s="124"/>
       <c r="S150" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="T150" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="T150" s="24" t="s">
+      <c r="U150" s="24" t="s">
         <v>737</v>
-      </c>
-      <c r="U150" s="24" t="s">
-        <v>738</v>
       </c>
       <c r="V150" s="124"/>
       <c r="W150" s="79"/>
@@ -27904,13 +27914,13 @@
         <v>44280</v>
       </c>
       <c r="G152" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H152" s="81">
         <v>44280</v>
       </c>
       <c r="I152" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J152" s="128"/>
       <c r="K152" s="25"/>
@@ -27924,25 +27934,25 @@
         <v>1422</v>
       </c>
       <c r="S152" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="T152" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="T152" s="24" t="s">
+      <c r="U152" s="24" t="s">
         <v>740</v>
-      </c>
-      <c r="U152" s="24" t="s">
-        <v>741</v>
       </c>
       <c r="V152" s="128">
         <v>1544</v>
       </c>
       <c r="W152" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="X152" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="X152" s="24" t="s">
+      <c r="Y152" s="24" t="s">
         <v>743</v>
-      </c>
-      <c r="Y152" s="24" t="s">
-        <v>744</v>
       </c>
       <c r="Z152" s="132"/>
       <c r="AA152" s="79"/>
@@ -27969,13 +27979,13 @@
         <v>44280</v>
       </c>
       <c r="G153" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H153" s="81">
         <v>44280</v>
       </c>
       <c r="I153" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J153" s="124"/>
       <c r="K153" s="25"/>
@@ -27987,23 +27997,23 @@
       <c r="Q153" s="25"/>
       <c r="R153" s="124"/>
       <c r="S153" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T153" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="U153" s="24" t="s">
         <v>740</v>
-      </c>
-      <c r="U153" s="24" t="s">
-        <v>741</v>
       </c>
       <c r="V153" s="124"/>
       <c r="W153" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="X153" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="X153" s="24" t="s">
+      <c r="Y153" s="24" t="s">
         <v>743</v>
-      </c>
-      <c r="Y153" s="24" t="s">
-        <v>744</v>
       </c>
       <c r="Z153" s="124"/>
       <c r="AA153" s="79"/>
@@ -28030,13 +28040,13 @@
         <v>44280</v>
       </c>
       <c r="G154" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H154" s="81">
         <v>44280</v>
       </c>
       <c r="I154" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J154" s="128"/>
       <c r="K154" s="25"/>
@@ -28079,13 +28089,13 @@
         <v>44281</v>
       </c>
       <c r="G155" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H155" s="81">
         <v>44281</v>
       </c>
       <c r="I155" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J155" s="124"/>
       <c r="K155" s="25"/>
@@ -28128,13 +28138,13 @@
         <v>44280</v>
       </c>
       <c r="G156" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H156" s="81">
         <v>44280</v>
       </c>
       <c r="I156" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J156" s="25"/>
       <c r="K156" s="25"/>
@@ -28144,37 +28154,37 @@
         <v>1517</v>
       </c>
       <c r="O156" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="P156" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="P156" s="24" t="s">
+      <c r="Q156" s="113" t="s">
         <v>747</v>
-      </c>
-      <c r="Q156" s="113" t="s">
-        <v>748</v>
       </c>
       <c r="R156" s="128">
         <v>1083</v>
       </c>
       <c r="S156" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="T156" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="T156" s="24" t="s">
+      <c r="U156" s="114" t="s">
         <v>750</v>
-      </c>
-      <c r="U156" s="114" t="s">
-        <v>751</v>
       </c>
       <c r="V156" s="128">
         <v>1174</v>
       </c>
       <c r="W156" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="X156" s="89" t="s">
         <v>752</v>
       </c>
-      <c r="X156" s="89" t="s">
+      <c r="Y156" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="Y156" s="113" t="s">
-        <v>754</v>
       </c>
       <c r="Z156" s="132"/>
       <c r="AA156" s="79"/>
@@ -28201,13 +28211,13 @@
         <v>44281</v>
       </c>
       <c r="G157" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H157" s="81">
         <v>44281</v>
       </c>
       <c r="I157" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J157" s="25"/>
       <c r="K157" s="25"/>
@@ -28215,33 +28225,33 @@
       <c r="M157" s="25"/>
       <c r="N157" s="124"/>
       <c r="O157" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="P157" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="P157" s="24" t="s">
+      <c r="Q157" s="113" t="s">
         <v>747</v>
-      </c>
-      <c r="Q157" s="113" t="s">
-        <v>748</v>
       </c>
       <c r="R157" s="124"/>
       <c r="S157" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="T157" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="T157" s="24" t="s">
+      <c r="U157" s="114" t="s">
         <v>750</v>
-      </c>
-      <c r="U157" s="114" t="s">
-        <v>751</v>
       </c>
       <c r="V157" s="124"/>
       <c r="W157" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="X157" s="89" t="s">
         <v>752</v>
       </c>
-      <c r="X157" s="89" t="s">
+      <c r="Y157" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="Y157" s="113" t="s">
-        <v>754</v>
       </c>
       <c r="Z157" s="124"/>
       <c r="AA157" s="79"/>
@@ -28308,13 +28318,13 @@
         <v>44280</v>
       </c>
       <c r="G159" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H159" s="81">
         <v>44280</v>
       </c>
       <c r="I159" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J159" s="128"/>
       <c r="K159" s="25"/>
@@ -28357,13 +28367,13 @@
         <v>44280</v>
       </c>
       <c r="G160" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H160" s="81">
         <v>44280</v>
       </c>
       <c r="I160" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J160" s="124"/>
       <c r="K160" s="25"/>
@@ -28406,13 +28416,13 @@
         <v>44280</v>
       </c>
       <c r="G161" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H161" s="81">
         <v>44280</v>
       </c>
       <c r="I161" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J161" s="128"/>
       <c r="K161" s="25"/>
@@ -28455,13 +28465,13 @@
         <v>44281</v>
       </c>
       <c r="G162" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H162" s="81">
         <v>44281</v>
       </c>
       <c r="I162" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J162" s="124"/>
       <c r="K162" s="25"/>
@@ -28504,13 +28514,13 @@
         <v>44280</v>
       </c>
       <c r="G163" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H163" s="81">
         <v>44280</v>
       </c>
       <c r="I163" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J163" s="128"/>
       <c r="K163" s="25"/>
@@ -28553,13 +28563,13 @@
         <v>44281</v>
       </c>
       <c r="G164" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H164" s="81">
         <v>44281</v>
       </c>
       <c r="I164" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J164" s="124"/>
       <c r="K164" s="25"/>
@@ -28642,61 +28652,61 @@
         <v>44280</v>
       </c>
       <c r="G166" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H166" s="81">
         <v>44280</v>
       </c>
       <c r="I166" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J166" s="128">
         <v>1494</v>
       </c>
       <c r="K166" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="L166" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="L166" s="24" t="s">
+      <c r="M166" s="97" t="s">
         <v>756</v>
-      </c>
-      <c r="M166" s="97" t="s">
-        <v>757</v>
       </c>
       <c r="N166" s="128">
         <v>1498</v>
       </c>
       <c r="O166" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="P166" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="P166" s="24" t="s">
+      <c r="Q166" s="97" t="s">
         <v>759</v>
-      </c>
-      <c r="Q166" s="97" t="s">
-        <v>760</v>
       </c>
       <c r="R166" s="128">
         <v>1516</v>
       </c>
       <c r="S166" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="T166" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="T166" s="24" t="s">
+      <c r="U166" s="97" t="s">
         <v>762</v>
-      </c>
-      <c r="U166" s="97" t="s">
-        <v>763</v>
       </c>
       <c r="V166" s="128">
         <v>1602</v>
       </c>
       <c r="W166" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="X166" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="X166" s="24" t="s">
+      <c r="Y166" s="97" t="s">
         <v>765</v>
-      </c>
-      <c r="Y166" s="97" t="s">
-        <v>766</v>
       </c>
       <c r="Z166" s="132"/>
       <c r="AA166" s="79"/>
@@ -28723,53 +28733,53 @@
         <v>44280</v>
       </c>
       <c r="G167" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H167" s="81">
         <v>44280</v>
       </c>
       <c r="I167" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J167" s="124"/>
       <c r="K167" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="L167" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="L167" s="24" t="s">
+      <c r="M167" s="97" t="s">
         <v>756</v>
-      </c>
-      <c r="M167" s="97" t="s">
-        <v>757</v>
       </c>
       <c r="N167" s="124"/>
       <c r="O167" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="P167" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="P167" s="24" t="s">
+      <c r="Q167" s="97" t="s">
         <v>759</v>
-      </c>
-      <c r="Q167" s="97" t="s">
-        <v>760</v>
       </c>
       <c r="R167" s="124"/>
       <c r="S167" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="T167" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="T167" s="24" t="s">
+      <c r="U167" s="97" t="s">
         <v>762</v>
-      </c>
-      <c r="U167" s="97" t="s">
-        <v>763</v>
       </c>
       <c r="V167" s="124"/>
       <c r="W167" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="X167" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="X167" s="24" t="s">
+      <c r="Y167" s="97" t="s">
         <v>765</v>
-      </c>
-      <c r="Y167" s="97" t="s">
-        <v>766</v>
       </c>
       <c r="Z167" s="124"/>
       <c r="AA167" s="79"/>
@@ -28796,31 +28806,31 @@
         <v>44280</v>
       </c>
       <c r="G168" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H168" s="81">
         <v>44280</v>
       </c>
       <c r="I168" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J168" s="128">
         <v>1760</v>
       </c>
       <c r="K168" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="L168" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="L168" s="24" t="s">
+      <c r="M168" s="97" t="s">
         <v>768</v>
-      </c>
-      <c r="M168" s="97" t="s">
-        <v>769</v>
       </c>
       <c r="N168" s="130">
         <v>1237</v>
       </c>
       <c r="O168" s="24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P168" s="115" t="s">
         <v>515</v>
@@ -28832,25 +28842,25 @@
         <v>1488</v>
       </c>
       <c r="S168" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="T168" s="97" t="s">
         <v>771</v>
       </c>
-      <c r="T168" s="97" t="s">
+      <c r="U168" s="24" t="s">
         <v>772</v>
-      </c>
-      <c r="U168" s="24" t="s">
-        <v>773</v>
       </c>
       <c r="V168" s="133">
         <v>1765</v>
       </c>
       <c r="W168" s="116" t="s">
+        <v>773</v>
+      </c>
+      <c r="X168" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="X168" s="24" t="s">
+      <c r="Y168" s="98" t="s">
         <v>775</v>
-      </c>
-      <c r="Y168" s="98" t="s">
-        <v>776</v>
       </c>
       <c r="Z168" s="79"/>
       <c r="AA168" s="79"/>
@@ -28877,27 +28887,27 @@
         <v>44281</v>
       </c>
       <c r="G169" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H169" s="81">
         <v>44281</v>
       </c>
       <c r="I169" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J169" s="124"/>
       <c r="K169" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="L169" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="L169" s="24" t="s">
+      <c r="M169" s="97" t="s">
         <v>768</v>
-      </c>
-      <c r="M169" s="97" t="s">
-        <v>769</v>
       </c>
       <c r="N169" s="124"/>
       <c r="O169" s="24" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P169" s="115" t="s">
         <v>515</v>
@@ -28907,23 +28917,23 @@
       </c>
       <c r="R169" s="124"/>
       <c r="S169" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="T169" s="97" t="s">
         <v>771</v>
       </c>
-      <c r="T169" s="97" t="s">
+      <c r="U169" s="24" t="s">
         <v>772</v>
-      </c>
-      <c r="U169" s="24" t="s">
-        <v>773</v>
       </c>
       <c r="V169" s="124"/>
       <c r="W169" s="116" t="s">
+        <v>773</v>
+      </c>
+      <c r="X169" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="X169" s="24" t="s">
+      <c r="Y169" s="98" t="s">
         <v>775</v>
-      </c>
-      <c r="Y169" s="98" t="s">
-        <v>776</v>
       </c>
       <c r="Z169" s="79"/>
       <c r="AA169" s="79"/>
@@ -28950,52 +28960,52 @@
         <v>44280</v>
       </c>
       <c r="G170" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H170" s="81">
         <v>44280</v>
       </c>
       <c r="I170" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J170" s="128">
         <v>1234</v>
       </c>
       <c r="K170" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="L170" s="24" t="s">
         <v>777</v>
-      </c>
-      <c r="L170" s="24" t="s">
-        <v>778</v>
       </c>
       <c r="M170" s="25"/>
       <c r="N170" s="128">
         <v>1464</v>
       </c>
       <c r="O170" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="P170" s="117" t="s">
         <v>779</v>
-      </c>
-      <c r="P170" s="117" t="s">
-        <v>780</v>
       </c>
       <c r="Q170" s="25"/>
       <c r="R170" s="128">
         <v>1547</v>
       </c>
       <c r="S170" s="118" t="s">
+        <v>780</v>
+      </c>
+      <c r="T170" s="98" t="s">
         <v>781</v>
-      </c>
-      <c r="T170" s="98" t="s">
-        <v>782</v>
       </c>
       <c r="U170" s="25"/>
       <c r="V170" s="128">
         <v>1574</v>
       </c>
       <c r="W170" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="X170" s="119" t="s">
         <v>783</v>
-      </c>
-      <c r="X170" s="119" t="s">
-        <v>784</v>
       </c>
       <c r="Y170" s="25"/>
       <c r="Z170" s="132"/>
@@ -29023,36 +29033,36 @@
         <v>44281</v>
       </c>
       <c r="G171" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H171" s="81">
         <v>44281</v>
       </c>
       <c r="I171" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J171" s="124"/>
       <c r="K171" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="L171" s="24" t="s">
         <v>777</v>
-      </c>
-      <c r="L171" s="24" t="s">
-        <v>778</v>
       </c>
       <c r="M171" s="25"/>
       <c r="N171" s="124"/>
       <c r="O171" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="P171" s="117" t="s">
         <v>779</v>
-      </c>
-      <c r="P171" s="117" t="s">
-        <v>780</v>
       </c>
       <c r="Q171" s="25"/>
       <c r="R171" s="124"/>
       <c r="S171" s="118" t="s">
+        <v>780</v>
+      </c>
+      <c r="T171" s="98" t="s">
         <v>781</v>
-      </c>
-      <c r="T171" s="98" t="s">
-        <v>782</v>
       </c>
       <c r="U171" s="25"/>
       <c r="V171" s="124"/>
@@ -29124,13 +29134,13 @@
         <v>44280</v>
       </c>
       <c r="G173" s="82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H173" s="81">
         <v>44280</v>
       </c>
       <c r="I173" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J173" s="128">
         <v>106</v>
@@ -29175,13 +29185,13 @@
         <v>44280</v>
       </c>
       <c r="G174" s="82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H174" s="81">
         <v>44280</v>
       </c>
       <c r="I174" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J174" s="124"/>
       <c r="K174" s="25"/>
@@ -29224,13 +29234,13 @@
         <v>44280</v>
       </c>
       <c r="G175" s="82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H175" s="81">
         <v>44280</v>
       </c>
       <c r="I175" s="82" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J175" s="128"/>
       <c r="K175" s="25"/>
@@ -29273,13 +29283,13 @@
         <v>44281</v>
       </c>
       <c r="G176" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H176" s="81">
         <v>44281</v>
       </c>
       <c r="I176" s="82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J176" s="124"/>
       <c r="K176" s="25"/>
@@ -29322,13 +29332,13 @@
         <v>44280</v>
       </c>
       <c r="G177" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H177" s="81">
         <v>44280</v>
       </c>
       <c r="I177" s="85" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J177" s="128"/>
       <c r="K177" s="25"/>
@@ -29371,13 +29381,13 @@
         <v>44281</v>
       </c>
       <c r="G178" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H178" s="81">
         <v>44281</v>
       </c>
       <c r="I178" s="82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J178" s="124"/>
       <c r="K178" s="25"/>
@@ -48278,6 +48288,8 @@
     <hyperlink ref="Y156" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="Q157" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="Y157" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="M141" r:id="rId35" tooltip="mailto:franti@cs.uef.fi" display="mailto:franti@cs.uef.fi" xr:uid="{AEFD56C7-A6E6-EE4E-83E6-F6A282DF1A58}"/>
+    <hyperlink ref="M4" r:id="rId36" xr:uid="{04B67BD1-D7A8-404E-A701-0F7E978107A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app-server/src/main/resources/2021_sessions.xlsx
+++ b/app-server/src/main/resources/2021_sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636048CA-58BA-A34A-9E9D-A083B803D7D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCABA69-5FA4-D048-97F3-D92E160FC070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session Chairs" sheetId="1" r:id="rId1"/>
@@ -3819,11 +3819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J147" sqref="J147"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -19732,11 +19732,11 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J138" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y180" sqref="Y180"/>
+      <selection pane="bottomRight" activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -22928,7 +22928,7 @@
         <v>500</v>
       </c>
       <c r="R57" s="86">
-        <v>1415</v>
+        <v>1451</v>
       </c>
       <c r="S57" s="23" t="s">
         <v>860</v>

--- a/app-server/src/main/resources/2021_sessions.xlsx
+++ b/app-server/src/main/resources/2021_sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB747C32-07E0-EB49-97F9-478591E2DCB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1DA1EB-F5E2-7540-8C39-141942B3EEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4082,10 +4082,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -8770,7 +8770,7 @@
         <v>44280</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>242</v>
@@ -10222,7 +10222,7 @@
         <v>44280</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>287</v>
@@ -10712,7 +10712,7 @@
         <v>44280</v>
       </c>
       <c r="H135" s="20" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>335</v>
@@ -20170,10 +20170,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="M152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I140" sqref="I140"/>
+      <selection pane="bottomRight" activeCell="P188" sqref="P188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -26374,7 +26374,7 @@
         <v>44280</v>
       </c>
       <c r="I99" s="50" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="J99" s="95"/>
       <c r="K99" s="100" t="s">
@@ -28222,7 +28222,7 @@
         <v>44280</v>
       </c>
       <c r="I126" s="50" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="J126" s="95"/>
       <c r="K126" s="100" t="s">
@@ -28830,7 +28830,7 @@
         <v>44280</v>
       </c>
       <c r="I135" s="50" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="J135" s="95"/>
       <c r="K135" s="100" t="s">

--- a/app-server/src/main/resources/2021_sessions.xlsx
+++ b/app-server/src/main/resources/2021_sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAD676-345B-AB44-877D-BFF611AF5FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCA6701-7680-F241-952F-6D2326D2B669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1155">
   <si>
     <t>Lead TC</t>
   </si>
@@ -2583,9 +2583,6 @@
   </si>
   <si>
     <t>avadhkishor133@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilya Smagin </t>
   </si>
   <si>
     <t>Waves Platform</t>
@@ -3953,7 +3950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4189,6 +4186,7 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4564,19 +4562,19 @@
         <v>44277</v>
       </c>
       <c r="H4" s="76" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>780</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="74" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M4" s="74" t="s">
         <v>389</v>
@@ -4620,7 +4618,7 @@
         <v>44277</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="18"/>
@@ -4704,13 +4702,13 @@
         <v>30</v>
       </c>
       <c r="L7" s="88" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M7" s="88" t="s">
         <v>1046</v>
       </c>
-      <c r="M7" s="88" t="s">
-        <v>1047</v>
-      </c>
       <c r="N7" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O7" s="91"/>
       <c r="P7" s="92" t="s">
@@ -4752,13 +4750,13 @@
         <v>30</v>
       </c>
       <c r="L8" s="88" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M8" s="88" t="s">
         <v>1046</v>
       </c>
-      <c r="M8" s="88" t="s">
-        <v>1047</v>
-      </c>
       <c r="N8" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O8" s="91"/>
       <c r="P8" s="92" t="s">
@@ -4800,13 +4798,13 @@
         <v>30</v>
       </c>
       <c r="L9" s="88" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M9" s="88" t="s">
         <v>1048</v>
       </c>
-      <c r="M9" s="88" t="s">
-        <v>1049</v>
-      </c>
       <c r="N9" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O9" s="91"/>
       <c r="P9" s="92" t="s">
@@ -4848,13 +4846,13 @@
         <v>30</v>
       </c>
       <c r="L10" s="88" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M10" s="88" t="s">
         <v>1050</v>
       </c>
-      <c r="M10" s="88" t="s">
-        <v>1051</v>
-      </c>
       <c r="N10" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O10" s="91"/>
       <c r="P10" s="92" t="s">
@@ -4896,13 +4894,13 @@
         <v>30</v>
       </c>
       <c r="L11" s="88" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M11" s="88" t="s">
         <v>1052</v>
       </c>
-      <c r="M11" s="88" t="s">
-        <v>1053</v>
-      </c>
       <c r="N11" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O11" s="91"/>
       <c r="P11" s="92" t="s">
@@ -4944,13 +4942,13 @@
         <v>30</v>
       </c>
       <c r="L12" s="88" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M12" s="88" t="s">
         <v>1052</v>
       </c>
-      <c r="M12" s="88" t="s">
-        <v>1053</v>
-      </c>
       <c r="N12" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O12" s="91"/>
       <c r="P12" s="92" t="s">
@@ -5099,7 +5097,7 @@
         <v>56</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L16" s="58" t="s">
         <v>47</v>
@@ -5111,7 +5109,7 @@
         <v>62</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P16" s="92" t="s">
         <v>57</v>
@@ -5149,7 +5147,7 @@
         <v>56</v>
       </c>
       <c r="K17" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L17" s="91" t="s">
         <v>51</v>
@@ -5161,7 +5159,7 @@
         <v>62</v>
       </c>
       <c r="O17" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P17" s="95" t="s">
         <v>58</v>
@@ -5199,19 +5197,19 @@
         <v>56</v>
       </c>
       <c r="K18" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L18" s="91" t="s">
         <v>62</v>
       </c>
       <c r="M18" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N18" s="91" t="s">
         <v>62</v>
       </c>
       <c r="O18" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P18" s="93"/>
     </row>
@@ -5247,19 +5245,19 @@
         <v>56</v>
       </c>
       <c r="K19" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L19" s="91" t="s">
         <v>62</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N19" s="91" t="s">
         <v>62</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P19" s="93"/>
     </row>
@@ -5408,13 +5406,13 @@
         <v>75</v>
       </c>
       <c r="L23" s="58" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M23" s="58" t="s">
         <v>76</v>
       </c>
       <c r="N23" s="96" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O23" s="91"/>
       <c r="P23" s="93"/>
@@ -5454,13 +5452,13 @@
         <v>75</v>
       </c>
       <c r="L24" s="58" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M24" s="58" t="s">
         <v>76</v>
       </c>
       <c r="N24" s="96" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O24" s="91"/>
       <c r="P24" s="93"/>
@@ -5500,11 +5498,11 @@
         <v>75</v>
       </c>
       <c r="L25" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M25" s="58"/>
       <c r="N25" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O25" s="91"/>
       <c r="P25" s="93"/>
@@ -5544,11 +5542,11 @@
         <v>75</v>
       </c>
       <c r="L26" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M26" s="58"/>
       <c r="N26" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O26" s="91"/>
       <c r="P26" s="93"/>
@@ -5602,13 +5600,13 @@
         <v>85</v>
       </c>
       <c r="L28" s="91" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M28" s="91" t="s">
         <v>452</v>
       </c>
       <c r="N28" s="91" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O28" s="91" t="s">
         <v>85</v>
@@ -5650,16 +5648,16 @@
         <v>85</v>
       </c>
       <c r="L29" s="97" t="s">
+        <v>942</v>
+      </c>
+      <c r="M29" s="91" t="s">
         <v>943</v>
       </c>
-      <c r="M29" s="91" t="s">
+      <c r="N29" s="97" t="s">
         <v>944</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="O29" s="94" t="s">
         <v>945</v>
-      </c>
-      <c r="O29" s="94" t="s">
-        <v>946</v>
       </c>
       <c r="P29" s="93"/>
     </row>
@@ -5698,16 +5696,16 @@
         <v>85</v>
       </c>
       <c r="L30" s="91" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M30" s="91" t="s">
         <v>455</v>
       </c>
       <c r="N30" s="97" t="s">
+        <v>944</v>
+      </c>
+      <c r="O30" s="94" t="s">
         <v>945</v>
-      </c>
-      <c r="O30" s="94" t="s">
-        <v>946</v>
       </c>
       <c r="P30" s="93"/>
     </row>
@@ -5746,13 +5744,13 @@
         <v>85</v>
       </c>
       <c r="L31" s="91" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M31" s="91" t="s">
         <v>801</v>
       </c>
       <c r="N31" s="91" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O31" s="91" t="s">
         <v>85</v>
@@ -5794,10 +5792,10 @@
         <v>91</v>
       </c>
       <c r="L32" s="58" t="s">
+        <v>944</v>
+      </c>
+      <c r="M32" s="91" t="s">
         <v>945</v>
-      </c>
-      <c r="M32" s="91" t="s">
-        <v>946</v>
       </c>
       <c r="N32" s="58" t="s">
         <v>779</v>
@@ -5842,10 +5840,10 @@
         <v>91</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M33" s="91" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N33" s="58" t="s">
         <v>779</v>
@@ -5898,13 +5896,13 @@
         <v>95</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>96</v>
       </c>
       <c r="L35" s="91" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M35" s="58" t="s">
         <v>96</v>
@@ -5946,16 +5944,16 @@
         <v>95</v>
       </c>
       <c r="J36" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="K36" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="L36" s="91" t="s">
         <v>902</v>
       </c>
-      <c r="L36" s="91" t="s">
-        <v>903</v>
-      </c>
       <c r="M36" s="58" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N36" s="91" t="s">
         <v>97</v>
@@ -6000,16 +5998,16 @@
         <v>102</v>
       </c>
       <c r="L37" s="91" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M37" s="58" t="s">
         <v>96</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O37" s="91" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P37" s="93"/>
     </row>
@@ -6048,16 +6046,16 @@
         <v>102</v>
       </c>
       <c r="L38" s="91" t="s">
+        <v>902</v>
+      </c>
+      <c r="M38" s="58" t="s">
+        <v>901</v>
+      </c>
+      <c r="N38" s="58" t="s">
+        <v>935</v>
+      </c>
+      <c r="O38" s="91" t="s">
         <v>903</v>
-      </c>
-      <c r="M38" s="58" t="s">
-        <v>902</v>
-      </c>
-      <c r="N38" s="58" t="s">
-        <v>936</v>
-      </c>
-      <c r="O38" s="91" t="s">
-        <v>904</v>
       </c>
       <c r="P38" s="93"/>
     </row>
@@ -6248,7 +6246,7 @@
         <v>234</v>
       </c>
       <c r="P43" s="92" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q43" s="137"/>
       <c r="R43" s="27"/>
@@ -6354,11 +6352,11 @@
         <v>118</v>
       </c>
       <c r="L46" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M46" s="58"/>
       <c r="N46" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O46" s="58"/>
       <c r="P46" s="92" t="s">
@@ -6410,11 +6408,11 @@
         <v>118</v>
       </c>
       <c r="L47" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M47" s="58"/>
       <c r="N47" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O47" s="58"/>
       <c r="P47" s="89" t="s">
@@ -6466,11 +6464,11 @@
         <v>125</v>
       </c>
       <c r="L48" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M48" s="58"/>
       <c r="N48" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O48" s="58"/>
       <c r="P48" s="71"/>
@@ -6520,11 +6518,11 @@
         <v>125</v>
       </c>
       <c r="L49" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M49" s="58"/>
       <c r="N49" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O49" s="58"/>
       <c r="P49" s="71"/>
@@ -6574,13 +6572,13 @@
         <v>30</v>
       </c>
       <c r="L50" s="88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M50" s="88" t="s">
         <v>1054</v>
       </c>
-      <c r="M50" s="88" t="s">
-        <v>1055</v>
-      </c>
       <c r="N50" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O50" s="58"/>
       <c r="P50" s="92" t="s">
@@ -6632,13 +6630,13 @@
         <v>30</v>
       </c>
       <c r="L51" s="88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M51" s="88" t="s">
         <v>1054</v>
       </c>
-      <c r="M51" s="88" t="s">
-        <v>1055</v>
-      </c>
       <c r="N51" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O51" s="58"/>
       <c r="P51" s="92" t="s">
@@ -6690,13 +6688,13 @@
         <v>30</v>
       </c>
       <c r="L52" s="88" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M52" s="88" t="s">
         <v>30</v>
       </c>
       <c r="N52" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O52" s="58"/>
       <c r="P52" s="89" t="s">
@@ -6748,13 +6746,13 @@
         <v>30</v>
       </c>
       <c r="L53" s="88" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M53" s="88" t="s">
         <v>30</v>
       </c>
       <c r="N53" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O53" s="58"/>
       <c r="P53" s="92" t="s">
@@ -6834,11 +6832,11 @@
         <v>138</v>
       </c>
       <c r="L55" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M55" s="58"/>
       <c r="N55" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O55" s="58"/>
       <c r="P55" s="71"/>
@@ -6888,11 +6886,11 @@
         <v>138</v>
       </c>
       <c r="L56" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M56" s="58"/>
       <c r="N56" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O56" s="58"/>
       <c r="P56" s="71"/>
@@ -7180,7 +7178,7 @@
         <v>160</v>
       </c>
       <c r="N61" s="90" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O61" s="91"/>
       <c r="P61" s="93"/>
@@ -7236,7 +7234,7 @@
         <v>162</v>
       </c>
       <c r="N62" s="90" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O62" s="58"/>
       <c r="P62" s="71"/>
@@ -7314,13 +7312,13 @@
         <v>30</v>
       </c>
       <c r="L64" s="88" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M64" s="88" t="s">
         <v>1057</v>
       </c>
-      <c r="M64" s="88" t="s">
-        <v>1058</v>
-      </c>
       <c r="N64" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O64" s="58"/>
       <c r="P64" s="71"/>
@@ -7370,13 +7368,13 @@
         <v>30</v>
       </c>
       <c r="L65" s="88" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M65" s="88" t="s">
         <v>1050</v>
       </c>
-      <c r="M65" s="88" t="s">
-        <v>1051</v>
-      </c>
       <c r="N65" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O65" s="58"/>
       <c r="P65" s="71"/>
@@ -7426,13 +7424,13 @@
         <v>30</v>
       </c>
       <c r="L66" s="69" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M66" s="88" t="s">
         <v>1059</v>
       </c>
-      <c r="M66" s="88" t="s">
-        <v>1060</v>
-      </c>
       <c r="N66" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O66" s="58"/>
       <c r="P66" s="71"/>
@@ -7482,13 +7480,13 @@
         <v>30</v>
       </c>
       <c r="L67" s="69" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M67" s="88" t="s">
         <v>1061</v>
       </c>
-      <c r="M67" s="88" t="s">
-        <v>1062</v>
-      </c>
       <c r="N67" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O67" s="58"/>
       <c r="P67" s="71"/>
@@ -7798,11 +7796,11 @@
         <v>30</v>
       </c>
       <c r="L73" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M73" s="58"/>
       <c r="N73" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O73" s="58"/>
       <c r="P73" s="71"/>
@@ -7852,11 +7850,11 @@
         <v>30</v>
       </c>
       <c r="L74" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M74" s="58"/>
       <c r="N74" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O74" s="58"/>
       <c r="P74" s="71"/>
@@ -7906,11 +7904,11 @@
         <v>191</v>
       </c>
       <c r="L75" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M75" s="58"/>
       <c r="N75" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O75" s="58"/>
       <c r="P75" s="71"/>
@@ -7960,11 +7958,11 @@
         <v>191</v>
       </c>
       <c r="L76" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M76" s="58"/>
       <c r="N76" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O76" s="58"/>
       <c r="P76" s="71"/>
@@ -8130,16 +8128,16 @@
         <v>203</v>
       </c>
       <c r="L79" s="58" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M79" s="58" t="s">
         <v>203</v>
       </c>
       <c r="N79" s="58" t="s">
+        <v>949</v>
+      </c>
+      <c r="O79" s="58" t="s">
         <v>950</v>
-      </c>
-      <c r="O79" s="58" t="s">
-        <v>951</v>
       </c>
       <c r="P79" s="71"/>
       <c r="Q79" s="2"/>
@@ -8188,16 +8186,16 @@
         <v>203</v>
       </c>
       <c r="L80" s="58" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M80" s="58" t="s">
         <v>203</v>
       </c>
       <c r="N80" s="58" t="s">
+        <v>951</v>
+      </c>
+      <c r="O80" s="58" t="s">
         <v>952</v>
-      </c>
-      <c r="O80" s="58" t="s">
-        <v>953</v>
       </c>
       <c r="P80" s="71"/>
       <c r="Q80" s="2"/>
@@ -8268,13 +8266,13 @@
         <v>790</v>
       </c>
       <c r="J82" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K82" s="58" t="s">
         <v>96</v>
       </c>
       <c r="L82" s="58" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M82" s="70" t="s">
         <v>96</v>
@@ -8326,19 +8324,19 @@
         <v>790</v>
       </c>
       <c r="J83" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="K83" s="58" t="s">
         <v>901</v>
       </c>
-      <c r="K83" s="58" t="s">
+      <c r="L83" s="58" t="s">
         <v>902</v>
       </c>
-      <c r="L83" s="58" t="s">
-        <v>903</v>
-      </c>
       <c r="M83" s="58" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N83" s="60" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O83" s="58"/>
       <c r="P83" s="71"/>
@@ -8733,7 +8731,7 @@
         <v>111</v>
       </c>
       <c r="C92" s="72" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D92" s="53">
         <v>1</v>
@@ -8742,13 +8740,13 @@
         <v>44279</v>
       </c>
       <c r="F92" s="86" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G92" s="26">
         <v>44279</v>
       </c>
       <c r="H92" s="86" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I92" s="55" t="s">
         <v>780</v>
@@ -8772,7 +8770,7 @@
         <v>113</v>
       </c>
       <c r="P92" s="92" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q92" s="27"/>
       <c r="R92" s="27"/>
@@ -8964,7 +8962,7 @@
         <v>46</v>
       </c>
       <c r="L96" s="58" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M96" s="91" t="s">
         <v>241</v>
@@ -8973,7 +8971,7 @@
         <v>62</v>
       </c>
       <c r="O96" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P96" s="71"/>
       <c r="Q96" s="2"/>
@@ -9031,7 +9029,7 @@
         <v>62</v>
       </c>
       <c r="O97" s="58" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P97" s="71"/>
       <c r="Q97" s="2"/>
@@ -9342,10 +9340,10 @@
         <v>266</v>
       </c>
       <c r="N103" s="58" t="s">
+        <v>906</v>
+      </c>
+      <c r="O103" s="58" t="s">
         <v>907</v>
-      </c>
-      <c r="O103" s="58" t="s">
-        <v>908</v>
       </c>
       <c r="P103" s="71"/>
       <c r="Q103" s="2"/>
@@ -9400,10 +9398,10 @@
         <v>266</v>
       </c>
       <c r="N104" s="58" t="s">
+        <v>908</v>
+      </c>
+      <c r="O104" s="60" t="s">
         <v>909</v>
-      </c>
-      <c r="O104" s="60" t="s">
-        <v>910</v>
       </c>
       <c r="P104" s="71"/>
       <c r="Q104" s="2"/>
@@ -9452,11 +9450,11 @@
         <v>272</v>
       </c>
       <c r="L105" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M105" s="58"/>
       <c r="N105" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O105" s="58"/>
       <c r="P105" s="71"/>
@@ -9506,11 +9504,11 @@
         <v>272</v>
       </c>
       <c r="L106" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M106" s="58"/>
       <c r="N106" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O106" s="58"/>
       <c r="P106" s="71"/>
@@ -9560,16 +9558,16 @@
         <v>276</v>
       </c>
       <c r="L107" s="63" t="s">
+        <v>910</v>
+      </c>
+      <c r="M107" s="58" t="s">
         <v>911</v>
       </c>
-      <c r="M107" s="58" t="s">
-        <v>912</v>
-      </c>
       <c r="N107" s="63" t="s">
+        <v>910</v>
+      </c>
+      <c r="O107" s="63" t="s">
         <v>911</v>
-      </c>
-      <c r="O107" s="63" t="s">
-        <v>912</v>
       </c>
       <c r="P107" s="71"/>
       <c r="Q107" s="2"/>
@@ -9618,16 +9616,16 @@
         <v>276</v>
       </c>
       <c r="L108" s="58" t="s">
+        <v>910</v>
+      </c>
+      <c r="M108" s="58" t="s">
         <v>911</v>
       </c>
-      <c r="M108" s="58" t="s">
-        <v>912</v>
-      </c>
       <c r="N108" s="63" t="s">
+        <v>910</v>
+      </c>
+      <c r="O108" s="63" t="s">
         <v>911</v>
-      </c>
-      <c r="O108" s="63" t="s">
-        <v>912</v>
       </c>
       <c r="P108" s="71"/>
       <c r="Q108" s="2"/>
@@ -9930,16 +9928,16 @@
         <v>794</v>
       </c>
       <c r="J114" s="58" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K114" s="58" t="s">
         <v>289</v>
       </c>
       <c r="L114" s="69" t="s">
+        <v>913</v>
+      </c>
+      <c r="M114" s="58" t="s">
         <v>914</v>
-      </c>
-      <c r="M114" s="58" t="s">
-        <v>915</v>
       </c>
       <c r="N114" s="104" t="s">
         <v>292</v>
@@ -9988,16 +9986,16 @@
         <v>794</v>
       </c>
       <c r="J115" s="58" t="s">
+        <v>915</v>
+      </c>
+      <c r="K115" s="58" t="s">
         <v>916</v>
       </c>
-      <c r="K115" s="58" t="s">
+      <c r="L115" s="69" t="s">
         <v>917</v>
       </c>
-      <c r="L115" s="69" t="s">
+      <c r="M115" s="58" t="s">
         <v>918</v>
-      </c>
-      <c r="M115" s="58" t="s">
-        <v>919</v>
       </c>
       <c r="N115" s="69" t="s">
         <v>295</v>
@@ -10052,11 +10050,11 @@
         <v>272</v>
       </c>
       <c r="L116" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M116" s="58"/>
       <c r="N116" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O116" s="58"/>
       <c r="P116" s="71"/>
@@ -10106,11 +10104,11 @@
         <v>272</v>
       </c>
       <c r="L117" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M117" s="58"/>
       <c r="N117" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O117" s="58"/>
       <c r="P117" s="71"/>
@@ -10160,11 +10158,11 @@
         <v>306</v>
       </c>
       <c r="L118" s="90" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M118" s="58"/>
       <c r="N118" s="58" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O118" s="58" t="s">
         <v>307</v>
@@ -10216,11 +10214,11 @@
         <v>306</v>
       </c>
       <c r="L119" s="90" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M119" s="58"/>
       <c r="N119" s="58" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O119" s="63" t="s">
         <v>308</v>
@@ -10300,13 +10298,13 @@
         <v>85</v>
       </c>
       <c r="L121" s="97" t="s">
+        <v>944</v>
+      </c>
+      <c r="M121" s="91" t="s">
         <v>945</v>
       </c>
-      <c r="M121" s="91" t="s">
-        <v>946</v>
-      </c>
       <c r="N121" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O121" s="58"/>
       <c r="P121" s="71"/>
@@ -10356,13 +10354,13 @@
         <v>85</v>
       </c>
       <c r="L122" s="97" t="s">
+        <v>919</v>
+      </c>
+      <c r="M122" s="105" t="s">
         <v>920</v>
       </c>
-      <c r="M122" s="105" t="s">
-        <v>921</v>
-      </c>
       <c r="N122" s="91" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O122" s="91" t="s">
         <v>85</v>
@@ -10414,13 +10412,13 @@
         <v>102</v>
       </c>
       <c r="L123" s="58" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M123" s="91" t="s">
         <v>102</v>
       </c>
       <c r="N123" s="70" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O123" s="58" t="s">
         <v>314</v>
@@ -10472,13 +10470,13 @@
         <v>102</v>
       </c>
       <c r="L124" s="58" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M124" s="91" t="s">
         <v>102</v>
       </c>
       <c r="N124" s="70" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O124" s="58" t="s">
         <v>308</v>
@@ -10530,7 +10528,7 @@
         <v>289</v>
       </c>
       <c r="L125" s="58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M125" s="58" t="s">
         <v>291</v>
@@ -10588,7 +10586,7 @@
         <v>289</v>
       </c>
       <c r="L126" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M126" s="58" t="s">
         <v>289</v>
@@ -10646,7 +10644,7 @@
         <v>289</v>
       </c>
       <c r="L127" s="58" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M127" s="58" t="s">
         <v>291</v>
@@ -10704,7 +10702,7 @@
         <v>289</v>
       </c>
       <c r="L128" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M128" s="58" t="s">
         <v>289</v>
@@ -10796,10 +10794,10 @@
         <v>259</v>
       </c>
       <c r="N130" s="58" t="s">
+        <v>921</v>
+      </c>
+      <c r="O130" s="58" t="s">
         <v>922</v>
-      </c>
-      <c r="O130" s="58" t="s">
-        <v>923</v>
       </c>
       <c r="P130" s="71"/>
       <c r="Q130" s="2"/>
@@ -10915,7 +10913,7 @@
         <v>376</v>
       </c>
       <c r="O132" s="58" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P132" s="71"/>
       <c r="Q132" s="2"/>
@@ -10973,7 +10971,7 @@
         <v>376</v>
       </c>
       <c r="O133" s="58" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P133" s="71"/>
       <c r="Q133" s="2"/>
@@ -11028,7 +11026,7 @@
         <v>191</v>
       </c>
       <c r="N134" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O134" s="58"/>
       <c r="P134" s="71"/>
@@ -11084,7 +11082,7 @@
         <v>337</v>
       </c>
       <c r="N135" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O135" s="58"/>
       <c r="P135" s="71"/>
@@ -11140,7 +11138,7 @@
         <v>337</v>
       </c>
       <c r="N136" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O136" s="58"/>
       <c r="P136" s="71"/>
@@ -11288,13 +11286,13 @@
         <v>44280</v>
       </c>
       <c r="F140" s="76" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G140" s="16">
         <v>44280</v>
       </c>
       <c r="H140" s="76" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I140" s="87" t="s">
         <v>780</v>
@@ -11318,7 +11316,7 @@
         <v>24</v>
       </c>
       <c r="P140" s="92" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q140" s="15"/>
       <c r="R140" s="15"/>
@@ -11482,11 +11480,11 @@
         <v>125</v>
       </c>
       <c r="L145" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M145" s="58"/>
       <c r="N145" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O145" s="58"/>
       <c r="P145" s="71"/>
@@ -11536,11 +11534,11 @@
         <v>125</v>
       </c>
       <c r="L146" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M146" s="58"/>
       <c r="N146" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O146" s="58"/>
       <c r="P146" s="71"/>
@@ -11590,7 +11588,7 @@
         <v>350</v>
       </c>
       <c r="L147" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M147" s="58"/>
       <c r="N147" s="58" t="s">
@@ -11710,7 +11708,7 @@
         <v>356</v>
       </c>
       <c r="N149" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O149" s="58"/>
       <c r="P149" s="71"/>
@@ -11766,7 +11764,7 @@
         <v>356</v>
       </c>
       <c r="N150" s="90" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O150" s="58"/>
       <c r="P150" s="71"/>
@@ -11850,7 +11848,7 @@
         <v>266</v>
       </c>
       <c r="N152" s="58" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O152" s="63" t="s">
         <v>359</v>
@@ -11908,7 +11906,7 @@
         <v>266</v>
       </c>
       <c r="N153" s="58" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O153" s="63" t="s">
         <v>360</v>
@@ -12012,22 +12010,22 @@
         <v>363</v>
       </c>
       <c r="J155" s="58" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K155" s="58" t="s">
         <v>367</v>
       </c>
       <c r="L155" s="58" t="s">
+        <v>924</v>
+      </c>
+      <c r="M155" s="58" t="s">
         <v>925</v>
       </c>
-      <c r="M155" s="58" t="s">
+      <c r="N155" s="69" t="s">
         <v>926</v>
       </c>
-      <c r="N155" s="69" t="s">
+      <c r="O155" s="70" t="s">
         <v>927</v>
-      </c>
-      <c r="O155" s="70" t="s">
-        <v>928</v>
       </c>
       <c r="P155" s="71"/>
       <c r="Q155" s="2"/>
@@ -12076,11 +12074,11 @@
         <v>371</v>
       </c>
       <c r="L156" s="90" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M156" s="58"/>
       <c r="N156" s="58" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O156" s="110" t="s">
         <v>372</v>
@@ -12132,11 +12130,11 @@
         <v>371</v>
       </c>
       <c r="L157" s="90" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M157" s="58"/>
       <c r="N157" s="58" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O157" s="110" t="s">
         <v>373</v>
@@ -12268,16 +12266,16 @@
         <v>328</v>
       </c>
       <c r="J160" s="58" t="s">
+        <v>928</v>
+      </c>
+      <c r="K160" s="58" t="s">
         <v>929</v>
       </c>
-      <c r="K160" s="58" t="s">
-        <v>930</v>
-      </c>
       <c r="L160" s="58" t="s">
+        <v>928</v>
+      </c>
+      <c r="M160" s="58" t="s">
         <v>929</v>
-      </c>
-      <c r="M160" s="58" t="s">
-        <v>930</v>
       </c>
       <c r="N160" s="58" t="s">
         <v>376</v>
@@ -12506,10 +12504,10 @@
         <v>377</v>
       </c>
       <c r="L164" s="58" t="s">
+        <v>930</v>
+      </c>
+      <c r="M164" s="58" t="s">
         <v>931</v>
-      </c>
-      <c r="M164" s="58" t="s">
-        <v>932</v>
       </c>
       <c r="N164" s="58" t="s">
         <v>376</v>
@@ -12592,7 +12590,7 @@
         <v>289</v>
       </c>
       <c r="L166" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M166" s="58" t="s">
         <v>289</v>
@@ -12650,7 +12648,7 @@
         <v>289</v>
       </c>
       <c r="L167" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M167" s="58" t="s">
         <v>289</v>
@@ -12708,7 +12706,7 @@
         <v>389</v>
       </c>
       <c r="L168" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M168" s="58" t="s">
         <v>289</v>
@@ -12766,7 +12764,7 @@
         <v>389</v>
       </c>
       <c r="L169" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M169" s="58" t="s">
         <v>289</v>
@@ -20524,10 +20522,10 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="U157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7:AC178"/>
+      <selection pane="bottomRight" activeCell="J96" sqref="J96:Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -20873,49 +20871,49 @@
         <v>1002</v>
       </c>
       <c r="K7" s="88" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L7" s="88" t="s">
         <v>1063</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="M7" s="88" t="s">
         <v>1064</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>1065</v>
       </c>
       <c r="N7" s="139">
         <v>1008</v>
       </c>
       <c r="O7" s="88" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P7" s="88" t="s">
         <v>1066</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="Q7" s="88" t="s">
         <v>1067</v>
-      </c>
-      <c r="Q7" s="88" t="s">
-        <v>1068</v>
       </c>
       <c r="R7" s="139">
         <v>1032</v>
       </c>
       <c r="S7" s="88" t="s">
+        <v>1068</v>
+      </c>
+      <c r="T7" s="88" t="s">
         <v>1069</v>
       </c>
-      <c r="T7" s="88" t="s">
+      <c r="U7" s="88" t="s">
         <v>1070</v>
-      </c>
-      <c r="U7" s="88" t="s">
-        <v>1071</v>
       </c>
       <c r="V7" s="139">
         <v>1070</v>
       </c>
       <c r="W7" s="88" t="s">
+        <v>1071</v>
+      </c>
+      <c r="X7" s="88" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Y7" s="88" t="s">
         <v>1072</v>
-      </c>
-      <c r="X7" s="88" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Y7" s="88" t="s">
-        <v>1073</v>
       </c>
       <c r="Z7" s="145"/>
       <c r="AA7" s="153"/>
@@ -20952,43 +20950,43 @@
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="88" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L8" s="88" t="s">
         <v>1063</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="M8" s="88" t="s">
         <v>1064</v>
-      </c>
-      <c r="M8" s="88" t="s">
-        <v>1065</v>
       </c>
       <c r="N8" s="140"/>
       <c r="O8" s="88" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P8" s="154" t="s">
         <v>1066</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="Q8" s="154" t="s">
         <v>1067</v>
-      </c>
-      <c r="Q8" s="154" t="s">
-        <v>1068</v>
       </c>
       <c r="R8" s="140"/>
       <c r="S8" s="88" t="s">
+        <v>1068</v>
+      </c>
+      <c r="T8" s="88" t="s">
         <v>1069</v>
       </c>
-      <c r="T8" s="88" t="s">
+      <c r="U8" s="88" t="s">
         <v>1070</v>
-      </c>
-      <c r="U8" s="88" t="s">
-        <v>1071</v>
       </c>
       <c r="V8" s="140"/>
       <c r="W8" s="88" t="s">
+        <v>1071</v>
+      </c>
+      <c r="X8" s="88" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Y8" s="88" t="s">
         <v>1072</v>
-      </c>
-      <c r="X8" s="88" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Y8" s="88" t="s">
-        <v>1073</v>
       </c>
       <c r="Z8" s="140"/>
       <c r="AA8" s="153"/>
@@ -21027,31 +21025,31 @@
         <v>1096</v>
       </c>
       <c r="K9" s="88" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L9" s="88" t="s">
         <v>1074</v>
       </c>
-      <c r="L9" s="88" t="s">
+      <c r="M9" s="88" t="s">
         <v>1075</v>
-      </c>
-      <c r="M9" s="88" t="s">
-        <v>1076</v>
       </c>
       <c r="N9" s="139">
         <v>1118</v>
       </c>
       <c r="O9" s="88" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P9" s="88" t="s">
         <v>1077</v>
       </c>
-      <c r="P9" s="88" t="s">
+      <c r="Q9" s="88" t="s">
         <v>1078</v>
-      </c>
-      <c r="Q9" s="88" t="s">
-        <v>1079</v>
       </c>
       <c r="R9" s="139">
         <v>1121</v>
       </c>
       <c r="S9" s="88" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="T9" s="88" t="s">
         <v>797</v>
@@ -21063,13 +21061,13 @@
         <v>1178</v>
       </c>
       <c r="W9" s="155" t="s">
+        <v>1080</v>
+      </c>
+      <c r="X9" s="155" t="s">
         <v>1081</v>
       </c>
-      <c r="X9" s="155" t="s">
+      <c r="Y9" s="88" t="s">
         <v>1082</v>
-      </c>
-      <c r="Y9" s="88" t="s">
-        <v>1083</v>
       </c>
       <c r="Z9" s="145"/>
       <c r="AA9" s="153"/>
@@ -21106,27 +21104,27 @@
       </c>
       <c r="J10" s="140"/>
       <c r="K10" s="88" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L10" s="88" t="s">
         <v>1074</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="M10" s="154" t="s">
         <v>1075</v>
-      </c>
-      <c r="M10" s="154" t="s">
-        <v>1076</v>
       </c>
       <c r="N10" s="140"/>
       <c r="O10" s="88" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P10" s="88" t="s">
         <v>1077</v>
       </c>
-      <c r="P10" s="88" t="s">
+      <c r="Q10" s="88" t="s">
         <v>1078</v>
-      </c>
-      <c r="Q10" s="88" t="s">
-        <v>1079</v>
       </c>
       <c r="R10" s="140"/>
       <c r="S10" s="88" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="T10" s="88" t="s">
         <v>797</v>
@@ -21136,13 +21134,13 @@
       </c>
       <c r="V10" s="140"/>
       <c r="W10" s="155" t="s">
+        <v>1080</v>
+      </c>
+      <c r="X10" s="155" t="s">
         <v>1081</v>
       </c>
-      <c r="X10" s="155" t="s">
+      <c r="Y10" s="88" t="s">
         <v>1082</v>
-      </c>
-      <c r="Y10" s="88" t="s">
-        <v>1083</v>
       </c>
       <c r="Z10" s="140"/>
       <c r="AA10" s="153"/>
@@ -21181,49 +21179,49 @@
         <v>1233</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L11" s="88" t="s">
         <v>434</v>
       </c>
       <c r="M11" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N11" s="139">
         <v>1254</v>
       </c>
       <c r="O11" s="88" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P11" s="88" t="s">
         <v>1086</v>
       </c>
-      <c r="P11" s="88" t="s">
+      <c r="Q11" s="88" t="s">
         <v>1087</v>
-      </c>
-      <c r="Q11" s="88" t="s">
-        <v>1088</v>
       </c>
       <c r="R11" s="139">
         <v>1270</v>
       </c>
       <c r="S11" s="88" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T11" s="88" t="s">
         <v>1089</v>
       </c>
-      <c r="T11" s="88" t="s">
-        <v>1090</v>
-      </c>
       <c r="U11" s="88" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V11" s="139">
         <v>1312</v>
       </c>
       <c r="W11" s="88" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="X11" s="70" t="s">
         <v>434</v>
       </c>
       <c r="Y11" s="88" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Z11" s="145"/>
       <c r="AA11" s="153"/>
@@ -21260,43 +21258,43 @@
       </c>
       <c r="J12" s="140"/>
       <c r="K12" s="88" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L12" s="88" t="s">
         <v>434</v>
       </c>
       <c r="M12" s="88" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N12" s="140"/>
       <c r="O12" s="88" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P12" s="88" t="s">
         <v>1086</v>
       </c>
-      <c r="P12" s="88" t="s">
+      <c r="Q12" s="88" t="s">
         <v>1087</v>
-      </c>
-      <c r="Q12" s="88" t="s">
-        <v>1088</v>
       </c>
       <c r="R12" s="140"/>
       <c r="S12" s="88" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T12" s="88" t="s">
         <v>1089</v>
       </c>
-      <c r="T12" s="88" t="s">
-        <v>1090</v>
-      </c>
       <c r="U12" s="88" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V12" s="140"/>
       <c r="W12" s="88" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="X12" s="70" t="s">
         <v>434</v>
       </c>
       <c r="Y12" s="88" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Z12" s="140"/>
       <c r="AA12" s="153"/>
@@ -21367,22 +21365,22 @@
         <v>1146</v>
       </c>
       <c r="K14" s="155" t="s">
+        <v>979</v>
+      </c>
+      <c r="L14" s="155" t="s">
         <v>980</v>
       </c>
-      <c r="L14" s="155" t="s">
+      <c r="M14" s="155" t="s">
         <v>981</v>
-      </c>
-      <c r="M14" s="155" t="s">
-        <v>982</v>
       </c>
       <c r="N14" s="139">
         <v>1225</v>
       </c>
       <c r="O14" s="155" t="s">
+        <v>982</v>
+      </c>
+      <c r="P14" s="155" t="s">
         <v>983</v>
-      </c>
-      <c r="P14" s="155" t="s">
-        <v>984</v>
       </c>
       <c r="Q14" s="155" t="s">
         <v>50</v>
@@ -21391,25 +21389,25 @@
         <v>1523</v>
       </c>
       <c r="S14" s="155" t="s">
+        <v>984</v>
+      </c>
+      <c r="T14" s="155" t="s">
         <v>985</v>
       </c>
-      <c r="T14" s="155" t="s">
+      <c r="U14" s="155" t="s">
         <v>986</v>
-      </c>
-      <c r="U14" s="155" t="s">
-        <v>987</v>
       </c>
       <c r="V14" s="139">
         <v>1535</v>
       </c>
       <c r="W14" s="155" t="s">
+        <v>987</v>
+      </c>
+      <c r="X14" s="155" t="s">
         <v>988</v>
       </c>
-      <c r="X14" s="155" t="s">
+      <c r="Y14" s="155" t="s">
         <v>989</v>
-      </c>
-      <c r="Y14" s="155" t="s">
-        <v>990</v>
       </c>
       <c r="Z14" s="145"/>
       <c r="AA14" s="153"/>
@@ -21446,43 +21444,43 @@
       </c>
       <c r="J15" s="140"/>
       <c r="K15" s="155" t="s">
+        <v>979</v>
+      </c>
+      <c r="L15" s="155" t="s">
         <v>980</v>
       </c>
-      <c r="L15" s="155" t="s">
+      <c r="M15" s="155" t="s">
         <v>981</v>
-      </c>
-      <c r="M15" s="155" t="s">
-        <v>982</v>
       </c>
       <c r="N15" s="140"/>
       <c r="O15" s="155" t="s">
+        <v>982</v>
+      </c>
+      <c r="P15" s="155" t="s">
         <v>983</v>
-      </c>
-      <c r="P15" s="155" t="s">
-        <v>984</v>
       </c>
       <c r="Q15" s="155" t="s">
         <v>50</v>
       </c>
       <c r="R15" s="140"/>
       <c r="S15" s="155" t="s">
+        <v>984</v>
+      </c>
+      <c r="T15" s="155" t="s">
         <v>985</v>
       </c>
-      <c r="T15" s="155" t="s">
+      <c r="U15" s="155" t="s">
         <v>986</v>
-      </c>
-      <c r="U15" s="155" t="s">
-        <v>987</v>
       </c>
       <c r="V15" s="140"/>
       <c r="W15" s="155" t="s">
+        <v>987</v>
+      </c>
+      <c r="X15" s="155" t="s">
         <v>988</v>
       </c>
-      <c r="X15" s="155" t="s">
+      <c r="Y15" s="155" t="s">
         <v>989</v>
-      </c>
-      <c r="Y15" s="155" t="s">
-        <v>990</v>
       </c>
       <c r="Z15" s="140"/>
       <c r="AA15" s="153"/>
@@ -21521,49 +21519,49 @@
         <v>1770</v>
       </c>
       <c r="K16" s="63" t="s">
+        <v>990</v>
+      </c>
+      <c r="L16" s="155" t="s">
         <v>991</v>
       </c>
-      <c r="L16" s="155" t="s">
+      <c r="M16" s="63" t="s">
         <v>992</v>
-      </c>
-      <c r="M16" s="63" t="s">
-        <v>993</v>
       </c>
       <c r="N16" s="139">
         <v>1078</v>
       </c>
       <c r="O16" s="155" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P16" s="155" t="s">
         <v>1093</v>
       </c>
-      <c r="P16" s="155" t="s">
+      <c r="Q16" s="155" t="s">
         <v>1094</v>
-      </c>
-      <c r="Q16" s="155" t="s">
-        <v>1095</v>
       </c>
       <c r="R16" s="139">
         <v>1183</v>
       </c>
       <c r="S16" s="155" t="s">
+        <v>1095</v>
+      </c>
+      <c r="T16" s="155" t="s">
         <v>1096</v>
       </c>
-      <c r="T16" s="155" t="s">
+      <c r="U16" s="155" t="s">
         <v>1097</v>
-      </c>
-      <c r="U16" s="155" t="s">
-        <v>1098</v>
       </c>
       <c r="V16" s="139">
         <v>1206</v>
       </c>
       <c r="W16" s="155" t="s">
+        <v>1098</v>
+      </c>
+      <c r="X16" s="155" t="s">
         <v>1099</v>
       </c>
-      <c r="X16" s="155" t="s">
+      <c r="Y16" s="155" t="s">
         <v>1100</v>
-      </c>
-      <c r="Y16" s="155" t="s">
-        <v>1101</v>
       </c>
       <c r="Z16" s="145"/>
       <c r="AA16" s="153"/>
@@ -21600,43 +21598,43 @@
       </c>
       <c r="J17" s="140"/>
       <c r="K17" s="63" t="s">
+        <v>990</v>
+      </c>
+      <c r="L17" s="155" t="s">
         <v>991</v>
       </c>
-      <c r="L17" s="155" t="s">
+      <c r="M17" s="63" t="s">
         <v>992</v>
-      </c>
-      <c r="M17" s="63" t="s">
-        <v>993</v>
       </c>
       <c r="N17" s="140"/>
       <c r="O17" s="155" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P17" s="155" t="s">
         <v>1093</v>
       </c>
-      <c r="P17" s="155" t="s">
+      <c r="Q17" s="155" t="s">
         <v>1094</v>
-      </c>
-      <c r="Q17" s="155" t="s">
-        <v>1095</v>
       </c>
       <c r="R17" s="140"/>
       <c r="S17" s="155" t="s">
+        <v>1095</v>
+      </c>
+      <c r="T17" s="155" t="s">
         <v>1096</v>
       </c>
-      <c r="T17" s="155" t="s">
+      <c r="U17" s="155" t="s">
         <v>1097</v>
-      </c>
-      <c r="U17" s="155" t="s">
-        <v>1098</v>
       </c>
       <c r="V17" s="140"/>
       <c r="W17" s="155" t="s">
+        <v>1098</v>
+      </c>
+      <c r="X17" s="155" t="s">
         <v>1099</v>
       </c>
-      <c r="X17" s="155" t="s">
+      <c r="Y17" s="155" t="s">
         <v>1100</v>
-      </c>
-      <c r="Y17" s="155" t="s">
-        <v>1101</v>
       </c>
       <c r="Z17" s="140"/>
       <c r="AA17" s="153"/>
@@ -21675,49 +21673,49 @@
         <v>1387</v>
       </c>
       <c r="K18" s="155" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L18" s="155" t="s">
         <v>1102</v>
       </c>
-      <c r="L18" s="155" t="s">
+      <c r="M18" s="155" t="s">
         <v>1103</v>
-      </c>
-      <c r="M18" s="155" t="s">
-        <v>1104</v>
       </c>
       <c r="N18" s="139">
         <v>1413</v>
       </c>
       <c r="O18" s="155" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P18" s="155" t="s">
         <v>597</v>
       </c>
       <c r="Q18" s="155" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R18" s="139">
         <v>1746</v>
       </c>
       <c r="S18" s="155" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T18" s="155" t="s">
         <v>1106</v>
       </c>
-      <c r="T18" s="155" t="s">
+      <c r="U18" s="155" t="s">
         <v>1107</v>
-      </c>
-      <c r="U18" s="155" t="s">
-        <v>1108</v>
       </c>
       <c r="V18" s="139">
         <v>1748</v>
       </c>
       <c r="W18" s="155" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X18" s="155" t="s">
         <v>1109</v>
       </c>
-      <c r="X18" s="155" t="s">
+      <c r="Y18" s="155" t="s">
         <v>1110</v>
-      </c>
-      <c r="Y18" s="155" t="s">
-        <v>1111</v>
       </c>
       <c r="Z18" s="145"/>
       <c r="AA18" s="153"/>
@@ -21754,43 +21752,43 @@
       </c>
       <c r="J19" s="140"/>
       <c r="K19" s="155" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L19" s="155" t="s">
         <v>1102</v>
       </c>
-      <c r="L19" s="155" t="s">
+      <c r="M19" s="155" t="s">
         <v>1103</v>
-      </c>
-      <c r="M19" s="155" t="s">
-        <v>1104</v>
       </c>
       <c r="N19" s="140"/>
       <c r="O19" s="155" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P19" s="155" t="s">
         <v>597</v>
       </c>
       <c r="Q19" s="155" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R19" s="140"/>
       <c r="S19" s="155" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T19" s="155" t="s">
         <v>1106</v>
       </c>
-      <c r="T19" s="155" t="s">
+      <c r="U19" s="155" t="s">
         <v>1107</v>
-      </c>
-      <c r="U19" s="155" t="s">
-        <v>1108</v>
       </c>
       <c r="V19" s="140"/>
       <c r="W19" s="155" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X19" s="155" t="s">
         <v>1109</v>
       </c>
-      <c r="X19" s="155" t="s">
+      <c r="Y19" s="155" t="s">
         <v>1110</v>
-      </c>
-      <c r="Y19" s="155" t="s">
-        <v>1111</v>
       </c>
       <c r="Z19" s="140"/>
       <c r="AA19" s="153"/>
@@ -22027,37 +22025,37 @@
         <v>1025</v>
       </c>
       <c r="O23" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P23" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P23" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q23" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R23" s="139">
         <v>1153</v>
       </c>
       <c r="S23" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T23" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T23" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U23" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V23" s="139">
         <v>1418</v>
       </c>
       <c r="W23" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X23" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X23" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y23" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z23" s="145"/>
       <c r="AA23" s="153"/>
@@ -22104,33 +22102,33 @@
       </c>
       <c r="N24" s="140"/>
       <c r="O24" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P24" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P24" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q24" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R24" s="140"/>
       <c r="S24" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T24" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T24" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U24" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V24" s="140"/>
       <c r="W24" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X24" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X24" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y24" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z24" s="140"/>
       <c r="AA24" s="153"/>
@@ -22169,47 +22167,47 @@
         <v>1497</v>
       </c>
       <c r="K25" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L25" s="156" t="s">
         <v>978</v>
-      </c>
-      <c r="L25" s="156" t="s">
-        <v>979</v>
       </c>
       <c r="M25" s="155"/>
       <c r="N25" s="139">
         <v>1540</v>
       </c>
       <c r="O25" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P25" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P25" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q25" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R25" s="139">
         <v>1731</v>
       </c>
       <c r="S25" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T25" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T25" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U25" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V25" s="139">
         <v>1799</v>
       </c>
       <c r="W25" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X25" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X25" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y25" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z25" s="145"/>
       <c r="AA25" s="153"/>
@@ -22246,41 +22244,41 @@
       </c>
       <c r="J26" s="140"/>
       <c r="K26" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L26" s="156" t="s">
         <v>978</v>
-      </c>
-      <c r="L26" s="156" t="s">
-        <v>979</v>
       </c>
       <c r="M26" s="155"/>
       <c r="N26" s="140"/>
       <c r="O26" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P26" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P26" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q26" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R26" s="140"/>
       <c r="S26" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T26" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T26" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U26" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V26" s="140"/>
       <c r="W26" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X26" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X26" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y26" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z26" s="140"/>
       <c r="AA26" s="153"/>
@@ -22351,13 +22349,13 @@
         <v>1245</v>
       </c>
       <c r="K28" s="155" t="s">
+        <v>993</v>
+      </c>
+      <c r="L28" s="155" t="s">
         <v>994</v>
       </c>
-      <c r="L28" s="155" t="s">
+      <c r="M28" s="155" t="s">
         <v>995</v>
-      </c>
-      <c r="M28" s="155" t="s">
-        <v>996</v>
       </c>
       <c r="N28" s="139">
         <v>1251</v>
@@ -22381,7 +22379,7 @@
         <v>803</v>
       </c>
       <c r="U28" s="155" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V28" s="139">
         <v>1701</v>
@@ -22430,13 +22428,13 @@
       </c>
       <c r="J29" s="140"/>
       <c r="K29" s="155" t="s">
+        <v>993</v>
+      </c>
+      <c r="L29" s="155" t="s">
         <v>994</v>
       </c>
-      <c r="L29" s="155" t="s">
+      <c r="M29" s="155" t="s">
         <v>995</v>
-      </c>
-      <c r="M29" s="155" t="s">
-        <v>996</v>
       </c>
       <c r="N29" s="140"/>
       <c r="O29" s="155" t="s">
@@ -22456,7 +22454,7 @@
         <v>803</v>
       </c>
       <c r="U29" s="155" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V29" s="140"/>
       <c r="W29" s="155" t="s">
@@ -23484,25 +23482,25 @@
         <v>1017</v>
       </c>
       <c r="O46" s="88" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P46" s="88" t="s">
         <v>474</v>
       </c>
       <c r="Q46" s="158" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R46" s="140">
         <v>1410</v>
       </c>
       <c r="S46" s="88" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="T46" s="88" t="s">
         <v>475</v>
       </c>
       <c r="U46" s="158" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V46" s="145"/>
       <c r="W46" s="153"/>
@@ -23553,23 +23551,23 @@
       </c>
       <c r="N47" s="140"/>
       <c r="O47" s="88" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P47" s="88" t="s">
         <v>474</v>
       </c>
       <c r="Q47" s="158" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R47" s="140"/>
       <c r="S47" s="88" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="T47" s="88" t="s">
         <v>475</v>
       </c>
       <c r="U47" s="158" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V47" s="140"/>
       <c r="W47" s="153"/>
@@ -23612,25 +23610,25 @@
         <v>1515</v>
       </c>
       <c r="K48" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L48" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L48" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M48" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N48" s="139">
         <v>1726</v>
       </c>
       <c r="O48" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P48" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P48" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q48" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R48" s="145"/>
       <c r="S48" s="153"/>
@@ -23675,23 +23673,23 @@
       </c>
       <c r="J49" s="140"/>
       <c r="K49" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L49" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L49" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M49" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N49" s="140"/>
       <c r="O49" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P49" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P49" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q49" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R49" s="140"/>
       <c r="S49" s="153"/>
@@ -23738,49 +23736,49 @@
         <v>1342</v>
       </c>
       <c r="K50" s="88" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L50" s="88" t="s">
         <v>1113</v>
       </c>
-      <c r="L50" s="88" t="s">
+      <c r="M50" s="88" t="s">
         <v>1114</v>
-      </c>
-      <c r="M50" s="88" t="s">
-        <v>1115</v>
       </c>
       <c r="N50" s="159">
         <v>1353</v>
       </c>
       <c r="O50" s="88" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P50" s="88" t="s">
         <v>1116</v>
       </c>
-      <c r="P50" s="88" t="s">
+      <c r="Q50" s="88" t="s">
         <v>1117</v>
-      </c>
-      <c r="Q50" s="88" t="s">
-        <v>1118</v>
       </c>
       <c r="R50" s="159">
         <v>1355</v>
       </c>
       <c r="S50" s="88" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T50" s="88" t="s">
         <v>1119</v>
       </c>
-      <c r="T50" s="88" t="s">
+      <c r="U50" s="88" t="s">
         <v>1120</v>
-      </c>
-      <c r="U50" s="88" t="s">
-        <v>1121</v>
       </c>
       <c r="V50" s="139">
         <v>1385</v>
       </c>
       <c r="W50" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X50" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X50" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y50" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z50" s="145"/>
       <c r="AA50" s="153"/>
@@ -23817,43 +23815,43 @@
       </c>
       <c r="J51" s="140"/>
       <c r="K51" s="88" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L51" s="88" t="s">
         <v>1113</v>
       </c>
-      <c r="L51" s="88" t="s">
+      <c r="M51" s="88" t="s">
         <v>1114</v>
-      </c>
-      <c r="M51" s="88" t="s">
-        <v>1115</v>
       </c>
       <c r="N51" s="140"/>
       <c r="O51" s="88" t="s">
+        <v>1115</v>
+      </c>
+      <c r="P51" s="88" t="s">
         <v>1116</v>
       </c>
-      <c r="P51" s="88" t="s">
+      <c r="Q51" s="88" t="s">
         <v>1117</v>
-      </c>
-      <c r="Q51" s="88" t="s">
-        <v>1118</v>
       </c>
       <c r="R51" s="140"/>
       <c r="S51" s="88" t="s">
+        <v>1118</v>
+      </c>
+      <c r="T51" s="88" t="s">
         <v>1119</v>
       </c>
-      <c r="T51" s="88" t="s">
+      <c r="U51" s="88" t="s">
         <v>1120</v>
-      </c>
-      <c r="U51" s="88" t="s">
-        <v>1121</v>
       </c>
       <c r="V51" s="140"/>
       <c r="W51" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X51" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X51" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y51" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z51" s="140"/>
       <c r="AA51" s="153"/>
@@ -23892,37 +23890,37 @@
         <v>1441</v>
       </c>
       <c r="K52" s="88" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L52" s="88" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M52" s="88" t="s">
         <v>1122</v>
-      </c>
-      <c r="L52" s="88" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M52" s="88" t="s">
-        <v>1123</v>
       </c>
       <c r="N52" s="159">
         <v>1628</v>
       </c>
       <c r="O52" s="88" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P52" s="88" t="s">
         <v>1124</v>
       </c>
-      <c r="P52" s="88" t="s">
+      <c r="Q52" s="88" t="s">
         <v>1125</v>
-      </c>
-      <c r="Q52" s="88" t="s">
-        <v>1126</v>
       </c>
       <c r="R52" s="159">
         <v>1664</v>
       </c>
       <c r="S52" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="T52" s="88" t="s">
         <v>1127</v>
       </c>
-      <c r="T52" s="88" t="s">
+      <c r="U52" s="88" t="s">
         <v>1128</v>
-      </c>
-      <c r="U52" s="88" t="s">
-        <v>1129</v>
       </c>
       <c r="V52" s="145"/>
       <c r="W52" s="153"/>
@@ -23963,33 +23961,33 @@
       </c>
       <c r="J53" s="140"/>
       <c r="K53" s="88" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L53" s="88" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M53" s="88" t="s">
         <v>1122</v>
-      </c>
-      <c r="L53" s="88" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M53" s="88" t="s">
-        <v>1123</v>
       </c>
       <c r="N53" s="140"/>
       <c r="O53" s="88" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P53" s="63" t="s">
         <v>1124</v>
       </c>
-      <c r="P53" s="63" t="s">
+      <c r="Q53" s="88" t="s">
         <v>1125</v>
-      </c>
-      <c r="Q53" s="88" t="s">
-        <v>1126</v>
       </c>
       <c r="R53" s="140"/>
       <c r="S53" s="116" t="s">
+        <v>1126</v>
+      </c>
+      <c r="T53" s="88" t="s">
         <v>1127</v>
       </c>
-      <c r="T53" s="88" t="s">
+      <c r="U53" s="88" t="s">
         <v>1128</v>
-      </c>
-      <c r="U53" s="88" t="s">
-        <v>1129</v>
       </c>
       <c r="V53" s="140"/>
       <c r="W53" s="153"/>
@@ -24064,25 +24062,25 @@
         <v>1608</v>
       </c>
       <c r="K55" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L55" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L55" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M55" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N55" s="139">
         <v>1790</v>
       </c>
       <c r="O55" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P55" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P55" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q55" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R55" s="147">
         <v>1348</v>
@@ -24135,23 +24133,23 @@
       </c>
       <c r="J56" s="140"/>
       <c r="K56" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L56" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L56" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M56" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N56" s="140"/>
       <c r="O56" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P56" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P56" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q56" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R56" s="140"/>
       <c r="S56" s="114" t="s">
@@ -24670,37 +24668,37 @@
         <v>1063</v>
       </c>
       <c r="K64" s="88" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L64" s="88" t="s">
         <v>564</v>
       </c>
       <c r="M64" s="88" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="N64" s="159">
         <v>1160</v>
       </c>
       <c r="O64" s="88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P64" s="88" t="s">
         <v>1132</v>
       </c>
-      <c r="P64" s="88" t="s">
-        <v>1133</v>
-      </c>
       <c r="Q64" s="88" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R64" s="159">
         <v>1184</v>
       </c>
       <c r="S64" s="88" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T64" s="88" t="s">
         <v>1063</v>
       </c>
-      <c r="T64" s="88" t="s">
+      <c r="U64" s="88" t="s">
         <v>1064</v>
-      </c>
-      <c r="U64" s="88" t="s">
-        <v>1065</v>
       </c>
       <c r="V64" s="145"/>
       <c r="W64" s="153"/>
@@ -24741,33 +24739,33 @@
       </c>
       <c r="J65" s="140"/>
       <c r="K65" s="88" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L65" s="88" t="s">
         <v>564</v>
       </c>
       <c r="M65" s="88" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="N65" s="140"/>
       <c r="O65" s="88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P65" s="88" t="s">
         <v>1132</v>
       </c>
-      <c r="P65" s="88" t="s">
-        <v>1133</v>
-      </c>
       <c r="Q65" s="88" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R65" s="140"/>
       <c r="S65" s="88" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T65" s="88" t="s">
         <v>1063</v>
       </c>
-      <c r="T65" s="88" t="s">
+      <c r="U65" s="88" t="s">
         <v>1064</v>
-      </c>
-      <c r="U65" s="88" t="s">
-        <v>1065</v>
       </c>
       <c r="V65" s="140"/>
       <c r="W65" s="153"/>
@@ -24810,37 +24808,37 @@
         <v>1302</v>
       </c>
       <c r="K66" s="88" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L66" s="88" t="s">
         <v>434</v>
       </c>
       <c r="M66" s="88" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="N66" s="159">
         <v>1366</v>
       </c>
       <c r="O66" s="88" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="P66" s="88" t="s">
         <v>474</v>
       </c>
       <c r="Q66" s="88" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R66" s="159">
         <v>1440</v>
       </c>
       <c r="S66" s="88" t="s">
+        <v>1137</v>
+      </c>
+      <c r="T66" s="88" t="s">
         <v>1138</v>
       </c>
-      <c r="T66" s="88" t="s">
+      <c r="U66" s="88" t="s">
         <v>1139</v>
-      </c>
-      <c r="U66" s="88" t="s">
-        <v>1140</v>
       </c>
       <c r="V66" s="145"/>
       <c r="W66" s="153"/>
@@ -24881,33 +24879,33 @@
       </c>
       <c r="J67" s="140"/>
       <c r="K67" s="88" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L67" s="88" t="s">
         <v>434</v>
       </c>
       <c r="M67" s="88" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="N67" s="140"/>
       <c r="O67" s="88" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="P67" s="88" t="s">
         <v>474</v>
       </c>
       <c r="Q67" s="88" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R67" s="140"/>
       <c r="S67" s="88" t="s">
+        <v>1137</v>
+      </c>
+      <c r="T67" s="154" t="s">
         <v>1138</v>
       </c>
-      <c r="T67" s="154" t="s">
+      <c r="U67" s="88" t="s">
         <v>1139</v>
-      </c>
-      <c r="U67" s="88" t="s">
-        <v>1140</v>
       </c>
       <c r="V67" s="140"/>
       <c r="W67" s="153"/>
@@ -25029,43 +25027,43 @@
       </c>
       <c r="J69" s="140"/>
       <c r="K69" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L69" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L69" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M69" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N69" s="140"/>
       <c r="O69" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P69" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P69" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q69" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R69" s="140"/>
       <c r="S69" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T69" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T69" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U69" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V69" s="140"/>
       <c r="W69" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X69" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X69" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y69" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z69" s="140"/>
       <c r="AA69" s="153"/>
@@ -25104,49 +25102,49 @@
         <v>1219</v>
       </c>
       <c r="K70" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L70" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L70" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M70" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N70" s="139">
         <v>1335</v>
       </c>
       <c r="O70" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P70" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P70" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q70" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R70" s="139">
         <v>1356</v>
       </c>
       <c r="S70" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T70" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T70" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U70" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V70" s="139">
         <v>1466</v>
       </c>
       <c r="W70" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X70" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X70" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y70" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z70" s="145"/>
       <c r="AA70" s="153"/>
@@ -25183,43 +25181,43 @@
       </c>
       <c r="J71" s="140"/>
       <c r="K71" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L71" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L71" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M71" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N71" s="140"/>
       <c r="O71" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P71" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P71" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q71" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R71" s="140"/>
       <c r="S71" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T71" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T71" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U71" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V71" s="140"/>
       <c r="W71" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X71" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X71" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y71" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z71" s="140"/>
       <c r="AA71" s="153"/>
@@ -25290,37 +25288,37 @@
         <v>1555</v>
       </c>
       <c r="K73" s="88" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L73" s="160" t="s">
         <v>1141</v>
       </c>
-      <c r="L73" s="160" t="s">
+      <c r="M73" s="88" t="s">
         <v>1142</v>
-      </c>
-      <c r="M73" s="88" t="s">
-        <v>1143</v>
       </c>
       <c r="N73" s="139">
         <v>1674</v>
       </c>
       <c r="O73" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="P73" s="88" t="s">
         <v>1144</v>
       </c>
-      <c r="P73" s="88" t="s">
+      <c r="Q73" s="88" t="s">
         <v>1145</v>
-      </c>
-      <c r="Q73" s="88" t="s">
-        <v>1146</v>
       </c>
       <c r="R73" s="139">
         <v>1534</v>
       </c>
       <c r="S73" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T73" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T73" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U73" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V73" s="145"/>
       <c r="W73" s="153"/>
@@ -25361,33 +25359,33 @@
       </c>
       <c r="J74" s="140"/>
       <c r="K74" s="154" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L74" s="160" t="s">
         <v>1141</v>
       </c>
-      <c r="L74" s="160" t="s">
+      <c r="M74" s="88" t="s">
         <v>1142</v>
-      </c>
-      <c r="M74" s="88" t="s">
-        <v>1143</v>
       </c>
       <c r="N74" s="140"/>
       <c r="O74" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="P74" s="88" t="s">
         <v>1144</v>
       </c>
-      <c r="P74" s="88" t="s">
+      <c r="Q74" s="88" t="s">
         <v>1145</v>
-      </c>
-      <c r="Q74" s="88" t="s">
-        <v>1146</v>
       </c>
       <c r="R74" s="140"/>
       <c r="S74" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T74" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T74" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U74" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V74" s="140"/>
       <c r="W74" s="153"/>
@@ -25446,13 +25444,13 @@
         <v>1327</v>
       </c>
       <c r="S75" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T75" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T75" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U75" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V75" s="145"/>
       <c r="W75" s="153"/>
@@ -25513,13 +25511,13 @@
       </c>
       <c r="R76" s="140"/>
       <c r="S76" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T76" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T76" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U76" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V76" s="140"/>
       <c r="W76" s="153"/>
@@ -25716,37 +25714,37 @@
         <v>1095</v>
       </c>
       <c r="K79" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L79" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L79" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M79" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N79" s="139">
         <v>1718</v>
       </c>
       <c r="O79" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P79" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P79" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q79" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R79" s="139">
         <v>1730</v>
       </c>
       <c r="S79" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T79" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T79" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U79" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V79" s="145"/>
       <c r="W79" s="153"/>
@@ -25787,33 +25785,33 @@
       </c>
       <c r="J80" s="140"/>
       <c r="K80" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L80" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L80" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M80" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N80" s="140"/>
       <c r="O80" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P80" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P80" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q80" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R80" s="140"/>
       <c r="S80" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T80" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T80" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U80" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V80" s="140"/>
       <c r="W80" s="153"/>
@@ -25912,13 +25910,13 @@
         <v>1717</v>
       </c>
       <c r="S82" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T82" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T82" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U82" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V82" s="145"/>
       <c r="W82" s="153"/>
@@ -25979,13 +25977,13 @@
       </c>
       <c r="R83" s="150"/>
       <c r="S83" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T83" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T83" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U83" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V83" s="140"/>
       <c r="W83" s="153"/>
@@ -26732,52 +26730,52 @@
         <v>762</v>
       </c>
       <c r="J96" s="139">
-        <v>1452</v>
-      </c>
-      <c r="K96" s="155" t="s">
-        <v>851</v>
-      </c>
-      <c r="L96" s="155" t="s">
-        <v>852</v>
-      </c>
-      <c r="M96" s="120" t="s">
-        <v>853</v>
+        <v>1227</v>
+      </c>
+      <c r="K96" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L96" s="156" t="s">
+        <v>978</v>
+      </c>
+      <c r="M96" s="165" t="s">
+        <v>1111</v>
       </c>
       <c r="N96" s="139">
-        <v>1490</v>
-      </c>
-      <c r="O96" s="155" t="s">
-        <v>854</v>
-      </c>
-      <c r="P96" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q96" s="120" t="s">
-        <v>855</v>
+        <v>1474</v>
+      </c>
+      <c r="O96" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P96" s="156" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q96" s="165" t="s">
+        <v>1111</v>
       </c>
       <c r="R96" s="139">
         <v>1452</v>
       </c>
       <c r="S96" s="155" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="T96" s="155" t="s">
+        <v>851</v>
+      </c>
+      <c r="U96" s="155" t="s">
         <v>852</v>
-      </c>
-      <c r="U96" s="155" t="s">
-        <v>853</v>
       </c>
       <c r="V96" s="139">
         <v>1490</v>
       </c>
       <c r="W96" s="155" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X96" s="155" t="s">
         <v>597</v>
       </c>
       <c r="Y96" s="120" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Z96" s="145"/>
       <c r="AA96" s="153"/>
@@ -26813,44 +26811,44 @@
         <v>763</v>
       </c>
       <c r="J97" s="140"/>
-      <c r="K97" s="155" t="s">
-        <v>851</v>
-      </c>
-      <c r="L97" s="155" t="s">
-        <v>852</v>
-      </c>
-      <c r="M97" s="120" t="s">
-        <v>853</v>
+      <c r="K97" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L97" s="156" t="s">
+        <v>978</v>
+      </c>
+      <c r="M97" s="165" t="s">
+        <v>1111</v>
       </c>
       <c r="N97" s="140"/>
-      <c r="O97" s="155" t="s">
-        <v>854</v>
-      </c>
-      <c r="P97" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q97" s="120" t="s">
-        <v>855</v>
+      <c r="O97" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P97" s="156" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q97" s="165" t="s">
+        <v>1111</v>
       </c>
       <c r="R97" s="140"/>
       <c r="S97" s="155" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="T97" s="155" t="s">
+        <v>851</v>
+      </c>
+      <c r="U97" s="155" t="s">
         <v>852</v>
-      </c>
-      <c r="U97" s="155" t="s">
-        <v>853</v>
       </c>
       <c r="V97" s="140"/>
       <c r="W97" s="155" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X97" s="155" t="s">
         <v>597</v>
       </c>
       <c r="Y97" s="120" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Z97" s="140"/>
       <c r="AA97" s="153"/>
@@ -27229,13 +27227,13 @@
         <v>1728</v>
       </c>
       <c r="K103" s="162" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L103" s="155" t="s">
+        <v>855</v>
+      </c>
+      <c r="M103" s="155" t="s">
         <v>856</v>
-      </c>
-      <c r="M103" s="155" t="s">
-        <v>857</v>
       </c>
       <c r="N103" s="139">
         <v>1805</v>
@@ -27244,7 +27242,7 @@
         <v>74</v>
       </c>
       <c r="P103" s="155" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q103" s="155" t="s">
         <v>75</v>
@@ -27253,7 +27251,7 @@
         <v>1781</v>
       </c>
       <c r="S103" s="63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="T103" s="155" t="s">
         <v>592</v>
@@ -27300,27 +27298,27 @@
       </c>
       <c r="J104" s="140"/>
       <c r="K104" s="162" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L104" s="155" t="s">
+        <v>855</v>
+      </c>
+      <c r="M104" s="155" t="s">
         <v>856</v>
-      </c>
-      <c r="M104" s="155" t="s">
-        <v>857</v>
       </c>
       <c r="N104" s="140"/>
       <c r="O104" s="155" t="s">
         <v>74</v>
       </c>
       <c r="P104" s="155" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q104" s="155" t="s">
         <v>75</v>
       </c>
       <c r="R104" s="140"/>
       <c r="S104" s="63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="T104" s="155" t="s">
         <v>592</v>
@@ -27393,13 +27391,13 @@
         <v>1675</v>
       </c>
       <c r="S105" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T105" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T105" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U105" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V105" s="145"/>
       <c r="W105" s="153"/>
@@ -27460,13 +27458,13 @@
       </c>
       <c r="R106" s="140"/>
       <c r="S106" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T106" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T106" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U106" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V106" s="140"/>
       <c r="W106" s="153"/>
@@ -27509,49 +27507,49 @@
         <v>1482</v>
       </c>
       <c r="K107" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L107" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L107" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M107" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N107" s="139">
         <v>1139</v>
       </c>
       <c r="O107" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P107" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P107" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q107" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R107" s="139">
         <v>1458</v>
       </c>
       <c r="S107" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T107" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T107" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U107" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V107" s="139">
         <v>1252</v>
       </c>
       <c r="W107" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X107" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X107" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y107" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z107" s="145"/>
       <c r="AA107" s="153"/>
@@ -27588,43 +27586,43 @@
       </c>
       <c r="J108" s="140"/>
       <c r="K108" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L108" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L108" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M108" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N108" s="140"/>
       <c r="O108" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P108" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P108" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q108" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R108" s="140"/>
       <c r="S108" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T108" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T108" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U108" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V108" s="140"/>
       <c r="W108" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X108" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X108" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y108" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z108" s="140"/>
       <c r="AA108" s="153"/>
@@ -27663,61 +27661,61 @@
         <v>1321</v>
       </c>
       <c r="K109" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L109" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L109" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M109" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N109" s="139">
         <v>1469</v>
       </c>
       <c r="O109" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P109" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P109" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q109" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R109" s="139">
         <v>1519</v>
       </c>
       <c r="S109" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T109" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T109" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U109" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V109" s="139">
         <v>1650</v>
       </c>
       <c r="W109" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X109" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X109" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y109" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z109" s="139">
         <v>1651</v>
       </c>
       <c r="AA109" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB109" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="AB109" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="AC109" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
@@ -27750,53 +27748,53 @@
       </c>
       <c r="J110" s="140"/>
       <c r="K110" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L110" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L110" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M110" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N110" s="140"/>
       <c r="O110" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P110" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P110" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q110" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R110" s="140"/>
       <c r="S110" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T110" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T110" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U110" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V110" s="140"/>
       <c r="W110" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X110" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X110" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y110" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z110" s="140"/>
       <c r="AA110" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB110" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="AB110" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="AC110" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
@@ -28027,13 +28025,13 @@
         <v>1485</v>
       </c>
       <c r="S114" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T114" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T114" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U114" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V114" s="145"/>
       <c r="W114" s="153"/>
@@ -28094,13 +28092,13 @@
       </c>
       <c r="R115" s="140"/>
       <c r="S115" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T115" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T115" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U115" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V115" s="140"/>
       <c r="W115" s="153"/>
@@ -28321,37 +28319,37 @@
         <v>1256</v>
       </c>
       <c r="S118" s="155" t="s">
+        <v>859</v>
+      </c>
+      <c r="T118" s="155" t="s">
         <v>860</v>
       </c>
-      <c r="T118" s="155" t="s">
+      <c r="U118" s="155" t="s">
         <v>861</v>
-      </c>
-      <c r="U118" s="155" t="s">
-        <v>862</v>
       </c>
       <c r="V118" s="139">
         <v>1388</v>
       </c>
       <c r="W118" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="X118" s="155" t="s">
         <v>863</v>
       </c>
-      <c r="X118" s="155" t="s">
+      <c r="Y118" s="65" t="s">
         <v>864</v>
-      </c>
-      <c r="Y118" s="65" t="s">
-        <v>865</v>
       </c>
       <c r="Z118" s="139">
         <v>1459</v>
       </c>
       <c r="AA118" s="155" t="s">
+        <v>865</v>
+      </c>
+      <c r="AB118" s="155" t="s">
         <v>866</v>
       </c>
-      <c r="AB118" s="155" t="s">
+      <c r="AC118" s="155" t="s">
         <v>867</v>
-      </c>
-      <c r="AC118" s="155" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
@@ -28404,33 +28402,33 @@
       </c>
       <c r="R119" s="140"/>
       <c r="S119" s="155" t="s">
+        <v>859</v>
+      </c>
+      <c r="T119" s="155" t="s">
         <v>860</v>
       </c>
-      <c r="T119" s="155" t="s">
+      <c r="U119" s="155" t="s">
         <v>861</v>
-      </c>
-      <c r="U119" s="155" t="s">
-        <v>862</v>
       </c>
       <c r="V119" s="140"/>
       <c r="W119" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="X119" s="155" t="s">
         <v>863</v>
       </c>
-      <c r="X119" s="155" t="s">
+      <c r="Y119" s="65" t="s">
         <v>864</v>
-      </c>
-      <c r="Y119" s="65" t="s">
-        <v>865</v>
       </c>
       <c r="Z119" s="140"/>
       <c r="AA119" s="155" t="s">
+        <v>865</v>
+      </c>
+      <c r="AB119" s="155" t="s">
         <v>866</v>
       </c>
-      <c r="AB119" s="155" t="s">
+      <c r="AC119" s="155" t="s">
         <v>867</v>
-      </c>
-      <c r="AC119" s="155" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
@@ -28497,37 +28495,37 @@
         <v>1134</v>
       </c>
       <c r="K121" s="155" t="s">
+        <v>868</v>
+      </c>
+      <c r="L121" s="155" t="s">
         <v>869</v>
       </c>
-      <c r="L121" s="155" t="s">
+      <c r="M121" s="155" t="s">
         <v>870</v>
-      </c>
-      <c r="M121" s="155" t="s">
-        <v>871</v>
       </c>
       <c r="N121" s="139">
         <v>1424</v>
       </c>
       <c r="O121" s="116" t="s">
+        <v>871</v>
+      </c>
+      <c r="P121" s="155" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q121" s="155" t="s">
         <v>872</v>
-      </c>
-      <c r="P121" s="155" t="s">
-        <v>999</v>
-      </c>
-      <c r="Q121" s="155" t="s">
-        <v>873</v>
       </c>
       <c r="R121" s="139">
         <v>1426</v>
       </c>
       <c r="S121" s="155" t="s">
+        <v>873</v>
+      </c>
+      <c r="T121" s="155" t="s">
         <v>874</v>
       </c>
-      <c r="T121" s="155" t="s">
+      <c r="U121" s="155" t="s">
         <v>875</v>
-      </c>
-      <c r="U121" s="155" t="s">
-        <v>876</v>
       </c>
       <c r="V121" s="145"/>
       <c r="W121" s="153"/>
@@ -28568,33 +28566,33 @@
       </c>
       <c r="J122" s="140"/>
       <c r="K122" s="155" t="s">
+        <v>868</v>
+      </c>
+      <c r="L122" s="155" t="s">
         <v>869</v>
       </c>
-      <c r="L122" s="155" t="s">
+      <c r="M122" s="155" t="s">
         <v>870</v>
-      </c>
-      <c r="M122" s="155" t="s">
-        <v>871</v>
       </c>
       <c r="N122" s="140"/>
       <c r="O122" s="116" t="s">
+        <v>871</v>
+      </c>
+      <c r="P122" s="155" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q122" s="155" t="s">
         <v>872</v>
-      </c>
-      <c r="P122" s="155" t="s">
-        <v>999</v>
-      </c>
-      <c r="Q122" s="155" t="s">
-        <v>873</v>
       </c>
       <c r="R122" s="140"/>
       <c r="S122" s="155" t="s">
+        <v>873</v>
+      </c>
+      <c r="T122" s="155" t="s">
         <v>874</v>
       </c>
-      <c r="T122" s="155" t="s">
+      <c r="U122" s="155" t="s">
         <v>875</v>
-      </c>
-      <c r="U122" s="155" t="s">
-        <v>876</v>
       </c>
       <c r="V122" s="140"/>
       <c r="W122" s="153"/>
@@ -28637,49 +28635,49 @@
         <v>1414</v>
       </c>
       <c r="K123" s="113" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L123" s="113" t="s">
         <v>828</v>
       </c>
       <c r="M123" s="122" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N123" s="142">
         <v>1562</v>
       </c>
       <c r="O123" s="113" t="s">
+        <v>878</v>
+      </c>
+      <c r="P123" s="113" t="s">
         <v>879</v>
       </c>
-      <c r="P123" s="113" t="s">
+      <c r="Q123" s="113" t="s">
         <v>880</v>
-      </c>
-      <c r="Q123" s="113" t="s">
-        <v>881</v>
       </c>
       <c r="R123" s="139">
         <v>1427</v>
       </c>
       <c r="S123" s="155" t="s">
+        <v>881</v>
+      </c>
+      <c r="T123" s="155" t="s">
         <v>882</v>
       </c>
-      <c r="T123" s="155" t="s">
+      <c r="U123" s="105" t="s">
         <v>883</v>
-      </c>
-      <c r="U123" s="105" t="s">
-        <v>884</v>
       </c>
       <c r="V123" s="139">
         <v>1186</v>
       </c>
       <c r="W123" s="155" t="s">
+        <v>884</v>
+      </c>
+      <c r="X123" s="155" t="s">
         <v>885</v>
       </c>
-      <c r="X123" s="155" t="s">
+      <c r="Y123" s="155" t="s">
         <v>886</v>
-      </c>
-      <c r="Y123" s="155" t="s">
-        <v>887</v>
       </c>
       <c r="Z123" s="145"/>
       <c r="AA123" s="153"/>
@@ -28716,43 +28714,43 @@
       </c>
       <c r="J124" s="140"/>
       <c r="K124" s="113" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L124" s="113" t="s">
         <v>828</v>
       </c>
       <c r="M124" s="122" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N124" s="140"/>
       <c r="O124" s="113" t="s">
+        <v>878</v>
+      </c>
+      <c r="P124" s="113" t="s">
         <v>879</v>
       </c>
-      <c r="P124" s="113" t="s">
+      <c r="Q124" s="113" t="s">
         <v>880</v>
-      </c>
-      <c r="Q124" s="113" t="s">
-        <v>881</v>
       </c>
       <c r="R124" s="140"/>
       <c r="S124" s="155" t="s">
+        <v>881</v>
+      </c>
+      <c r="T124" s="155" t="s">
         <v>882</v>
       </c>
-      <c r="T124" s="155" t="s">
+      <c r="U124" s="66" t="s">
         <v>883</v>
-      </c>
-      <c r="U124" s="66" t="s">
-        <v>884</v>
       </c>
       <c r="V124" s="140"/>
       <c r="W124" s="155" t="s">
+        <v>884</v>
+      </c>
+      <c r="X124" s="155" t="s">
         <v>885</v>
       </c>
-      <c r="X124" s="155" t="s">
+      <c r="Y124" s="155" t="s">
         <v>886</v>
-      </c>
-      <c r="Y124" s="155" t="s">
-        <v>887</v>
       </c>
       <c r="Z124" s="140"/>
       <c r="AA124" s="153"/>
@@ -29271,10 +29269,10 @@
         <v>1577</v>
       </c>
       <c r="K132" s="155" t="s">
+        <v>999</v>
+      </c>
+      <c r="L132" s="155" t="s">
         <v>1000</v>
-      </c>
-      <c r="L132" s="155" t="s">
-        <v>1001</v>
       </c>
       <c r="M132" s="155" t="s">
         <v>330</v>
@@ -29283,25 +29281,25 @@
         <v>1578</v>
       </c>
       <c r="O132" s="155" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P132" s="155" t="s">
         <v>1002</v>
       </c>
-      <c r="P132" s="155" t="s">
+      <c r="Q132" s="155" t="s">
         <v>1003</v>
-      </c>
-      <c r="Q132" s="155" t="s">
-        <v>1004</v>
       </c>
       <c r="R132" s="139">
         <v>1694</v>
       </c>
       <c r="S132" s="155" t="s">
+        <v>1004</v>
+      </c>
+      <c r="T132" s="155" t="s">
         <v>1005</v>
       </c>
-      <c r="T132" s="155" t="s">
+      <c r="U132" s="155" t="s">
         <v>1006</v>
-      </c>
-      <c r="U132" s="155" t="s">
-        <v>1007</v>
       </c>
       <c r="V132" s="145"/>
       <c r="W132" s="153"/>
@@ -29342,33 +29340,33 @@
       </c>
       <c r="J133" s="140"/>
       <c r="K133" s="155" t="s">
+        <v>999</v>
+      </c>
+      <c r="L133" s="155" t="s">
         <v>1000</v>
-      </c>
-      <c r="L133" s="155" t="s">
-        <v>1001</v>
       </c>
       <c r="M133" s="155" t="s">
         <v>330</v>
       </c>
       <c r="N133" s="140"/>
       <c r="O133" s="155" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P133" s="155" t="s">
         <v>1002</v>
       </c>
-      <c r="P133" s="155" t="s">
+      <c r="Q133" s="155" t="s">
         <v>1003</v>
-      </c>
-      <c r="Q133" s="155" t="s">
-        <v>1004</v>
       </c>
       <c r="R133" s="140"/>
       <c r="S133" s="155" t="s">
+        <v>1004</v>
+      </c>
+      <c r="T133" s="155" t="s">
         <v>1005</v>
       </c>
-      <c r="T133" s="155" t="s">
+      <c r="U133" s="155" t="s">
         <v>1006</v>
-      </c>
-      <c r="U133" s="155" t="s">
-        <v>1007</v>
       </c>
       <c r="V133" s="140"/>
       <c r="W133" s="153"/>
@@ -29732,13 +29730,13 @@
         <v>44280</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H140" s="40">
         <v>44280</v>
       </c>
       <c r="I140" s="41" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J140" s="163"/>
       <c r="K140" s="163"/>
@@ -29766,7 +29764,7 @@
         <v>17</v>
       </c>
       <c r="J141" s="163" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K141" s="163" t="s">
         <v>680</v>
@@ -29775,7 +29773,7 @@
         <v>681</v>
       </c>
       <c r="M141" s="163" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="N141" s="153"/>
       <c r="O141" s="153"/>
@@ -29941,49 +29939,49 @@
         <v>1149</v>
       </c>
       <c r="K145" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L145" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L145" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M145" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N145" s="139">
         <v>1151</v>
       </c>
       <c r="O145" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P145" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P145" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q145" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R145" s="139">
         <v>1152</v>
       </c>
       <c r="S145" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T145" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T145" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U145" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V145" s="139">
         <v>1272</v>
       </c>
       <c r="W145" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X145" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X145" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y145" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z145" s="145"/>
       <c r="AA145" s="153"/>
@@ -30020,43 +30018,43 @@
       </c>
       <c r="J146" s="140"/>
       <c r="K146" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L146" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L146" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M146" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N146" s="140"/>
       <c r="O146" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P146" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P146" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q146" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R146" s="140"/>
       <c r="S146" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T146" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T146" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U146" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V146" s="140"/>
       <c r="W146" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X146" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X146" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y146" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z146" s="140"/>
       <c r="AA146" s="153"/>
@@ -30113,13 +30111,13 @@
         <v>1450</v>
       </c>
       <c r="S147" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T147" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T147" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U147" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V147" s="145"/>
       <c r="W147" s="153"/>
@@ -30180,13 +30178,13 @@
       </c>
       <c r="R148" s="140"/>
       <c r="S148" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T148" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T148" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U148" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V148" s="140"/>
       <c r="W148" s="153"/>
@@ -30409,49 +30407,49 @@
         <v>1266</v>
       </c>
       <c r="K152" s="164" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L152" s="155" t="s">
+        <v>887</v>
+      </c>
+      <c r="M152" s="155" t="s">
         <v>888</v>
-      </c>
-      <c r="M152" s="155" t="s">
-        <v>889</v>
       </c>
       <c r="N152" s="139">
         <v>1473</v>
       </c>
       <c r="O152" s="155" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P152" s="164" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q152" s="155" t="s">
         <v>890</v>
-      </c>
-      <c r="Q152" s="155" t="s">
-        <v>891</v>
       </c>
       <c r="R152" s="139">
         <v>1422</v>
       </c>
       <c r="S152" s="155" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="T152" s="155" t="s">
         <v>697</v>
       </c>
       <c r="U152" s="155" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V152" s="139">
         <v>1544</v>
       </c>
       <c r="W152" s="155" t="s">
+        <v>893</v>
+      </c>
+      <c r="X152" s="155" t="s">
         <v>894</v>
       </c>
-      <c r="X152" s="155" t="s">
+      <c r="Y152" s="155" t="s">
         <v>895</v>
-      </c>
-      <c r="Y152" s="155" t="s">
-        <v>896</v>
       </c>
       <c r="Z152" s="145"/>
       <c r="AA152" s="153"/>
@@ -30488,43 +30486,43 @@
       </c>
       <c r="J153" s="140"/>
       <c r="K153" s="164" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L153" s="155" t="s">
+        <v>887</v>
+      </c>
+      <c r="M153" s="155" t="s">
         <v>888</v>
-      </c>
-      <c r="M153" s="155" t="s">
-        <v>889</v>
       </c>
       <c r="N153" s="140"/>
       <c r="O153" s="162" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="P153" s="164" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q153" s="155" t="s">
         <v>890</v>
-      </c>
-      <c r="Q153" s="155" t="s">
-        <v>891</v>
       </c>
       <c r="R153" s="140"/>
       <c r="S153" s="155" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="T153" s="63" t="s">
         <v>697</v>
       </c>
       <c r="U153" s="155" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V153" s="140"/>
       <c r="W153" s="155" t="s">
+        <v>893</v>
+      </c>
+      <c r="X153" s="155" t="s">
         <v>894</v>
       </c>
-      <c r="X153" s="155" t="s">
+      <c r="Y153" s="155" t="s">
         <v>895</v>
-      </c>
-      <c r="Y153" s="155" t="s">
-        <v>896</v>
       </c>
       <c r="Z153" s="140"/>
       <c r="AA153" s="153"/>
@@ -30563,49 +30561,49 @@
         <v>1242</v>
       </c>
       <c r="K154" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L154" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L154" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M154" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N154" s="139">
         <v>1582</v>
       </c>
       <c r="O154" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P154" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P154" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q154" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R154" s="139">
         <v>1586</v>
       </c>
       <c r="S154" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T154" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T154" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U154" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V154" s="139">
         <v>1639</v>
       </c>
       <c r="W154" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X154" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X154" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y154" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z154" s="145"/>
       <c r="AA154" s="153"/>
@@ -30642,43 +30640,43 @@
       </c>
       <c r="J155" s="140"/>
       <c r="K155" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L155" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L155" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M155" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N155" s="140"/>
       <c r="O155" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P155" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P155" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q155" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R155" s="140"/>
       <c r="S155" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T155" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T155" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U155" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V155" s="140"/>
       <c r="W155" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X155" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X155" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y155" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z155" s="140"/>
       <c r="AA155" s="153"/>
@@ -30717,13 +30715,13 @@
         <v>1786</v>
       </c>
       <c r="K156" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L156" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L156" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M156" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N156" s="139">
         <v>1517</v>
@@ -30796,13 +30794,13 @@
       </c>
       <c r="J157" s="140"/>
       <c r="K157" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L157" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L157" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M157" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N157" s="140"/>
       <c r="O157" s="155" t="s">
@@ -30911,49 +30909,49 @@
         <v>1003</v>
       </c>
       <c r="K159" s="155" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L159" s="155" t="s">
         <v>1008</v>
       </c>
-      <c r="L159" s="155" t="s">
+      <c r="M159" s="155" t="s">
         <v>1009</v>
-      </c>
-      <c r="M159" s="155" t="s">
-        <v>1010</v>
       </c>
       <c r="N159" s="139">
         <v>1138</v>
       </c>
       <c r="O159" s="155" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P159" s="155" t="s">
         <v>1011</v>
       </c>
-      <c r="P159" s="155" t="s">
+      <c r="Q159" s="155" t="s">
         <v>1012</v>
-      </c>
-      <c r="Q159" s="155" t="s">
-        <v>1013</v>
       </c>
       <c r="R159" s="139">
         <v>1169</v>
       </c>
       <c r="S159" s="155" t="s">
+        <v>1013</v>
+      </c>
+      <c r="T159" s="155" t="s">
         <v>1014</v>
       </c>
-      <c r="T159" s="155" t="s">
+      <c r="U159" s="155" t="s">
         <v>1015</v>
-      </c>
-      <c r="U159" s="155" t="s">
-        <v>1016</v>
       </c>
       <c r="V159" s="139">
         <v>1329</v>
       </c>
       <c r="W159" s="155" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X159" s="155" t="s">
         <v>1017</v>
       </c>
-      <c r="X159" s="155" t="s">
+      <c r="Y159" s="155" t="s">
         <v>1018</v>
-      </c>
-      <c r="Y159" s="155" t="s">
-        <v>1019</v>
       </c>
       <c r="Z159" s="145"/>
       <c r="AA159" s="153"/>
@@ -30990,43 +30988,43 @@
       </c>
       <c r="J160" s="140"/>
       <c r="K160" s="155" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L160" s="155" t="s">
         <v>1008</v>
       </c>
-      <c r="L160" s="155" t="s">
+      <c r="M160" s="155" t="s">
         <v>1009</v>
-      </c>
-      <c r="M160" s="155" t="s">
-        <v>1010</v>
       </c>
       <c r="N160" s="140"/>
       <c r="O160" s="155" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P160" s="155" t="s">
         <v>1011</v>
       </c>
-      <c r="P160" s="155" t="s">
+      <c r="Q160" s="155" t="s">
         <v>1012</v>
-      </c>
-      <c r="Q160" s="155" t="s">
-        <v>1013</v>
       </c>
       <c r="R160" s="140"/>
       <c r="S160" s="155" t="s">
+        <v>1013</v>
+      </c>
+      <c r="T160" s="155" t="s">
         <v>1014</v>
       </c>
-      <c r="T160" s="155" t="s">
+      <c r="U160" s="155" t="s">
         <v>1015</v>
-      </c>
-      <c r="U160" s="155" t="s">
-        <v>1016</v>
       </c>
       <c r="V160" s="140"/>
       <c r="W160" s="155" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X160" s="155" t="s">
         <v>1017</v>
       </c>
-      <c r="X160" s="155" t="s">
+      <c r="Y160" s="155" t="s">
         <v>1018</v>
-      </c>
-      <c r="Y160" s="155" t="s">
-        <v>1019</v>
       </c>
       <c r="Z160" s="140"/>
       <c r="AA160" s="153"/>
@@ -31065,37 +31063,37 @@
         <v>1343</v>
       </c>
       <c r="K161" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L161" s="155" t="s">
         <v>1020</v>
       </c>
-      <c r="L161" s="155" t="s">
+      <c r="M161" s="155" t="s">
         <v>1021</v>
-      </c>
-      <c r="M161" s="155" t="s">
-        <v>1022</v>
       </c>
       <c r="N161" s="139">
         <v>1390</v>
       </c>
       <c r="O161" s="63" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P161" s="155" t="s">
         <v>1023</v>
       </c>
-      <c r="P161" s="155" t="s">
+      <c r="Q161" s="155" t="s">
         <v>1024</v>
-      </c>
-      <c r="Q161" s="155" t="s">
-        <v>1025</v>
       </c>
       <c r="R161" s="139">
         <v>1391</v>
       </c>
       <c r="S161" s="155" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T161" s="155" t="s">
         <v>1026</v>
       </c>
-      <c r="T161" s="155" t="s">
+      <c r="U161" s="155" t="s">
         <v>1027</v>
-      </c>
-      <c r="U161" s="155" t="s">
-        <v>1028</v>
       </c>
       <c r="V161" s="145"/>
       <c r="W161" s="153"/>
@@ -31136,33 +31134,33 @@
       </c>
       <c r="J162" s="140"/>
       <c r="K162" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L162" s="155" t="s">
         <v>1020</v>
       </c>
-      <c r="L162" s="155" t="s">
+      <c r="M162" s="155" t="s">
         <v>1021</v>
-      </c>
-      <c r="M162" s="155" t="s">
-        <v>1022</v>
       </c>
       <c r="N162" s="140"/>
       <c r="O162" s="63" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P162" s="155" t="s">
         <v>1023</v>
       </c>
-      <c r="P162" s="155" t="s">
+      <c r="Q162" s="155" t="s">
         <v>1024</v>
-      </c>
-      <c r="Q162" s="155" t="s">
-        <v>1025</v>
       </c>
       <c r="R162" s="140"/>
       <c r="S162" s="155" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T162" s="155" t="s">
         <v>1026</v>
       </c>
-      <c r="T162" s="155" t="s">
+      <c r="U162" s="155" t="s">
         <v>1027</v>
-      </c>
-      <c r="U162" s="155" t="s">
-        <v>1028</v>
       </c>
       <c r="V162" s="140"/>
       <c r="W162" s="153"/>
@@ -31205,37 +31203,37 @@
         <v>1454</v>
       </c>
       <c r="K163" s="155" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L163" s="155" t="s">
         <v>1029</v>
       </c>
-      <c r="L163" s="155" t="s">
+      <c r="M163" s="155" t="s">
         <v>1030</v>
-      </c>
-      <c r="M163" s="155" t="s">
-        <v>1031</v>
       </c>
       <c r="N163" s="139">
         <v>1527</v>
       </c>
       <c r="O163" s="155" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P163" s="155" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q163" s="155" t="s">
         <v>1032</v>
-      </c>
-      <c r="P163" s="155" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Q163" s="155" t="s">
-        <v>1033</v>
       </c>
       <c r="R163" s="139">
         <v>1529</v>
       </c>
       <c r="S163" s="155" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T163" s="155" t="s">
         <v>1034</v>
       </c>
-      <c r="T163" s="155" t="s">
+      <c r="U163" s="155" t="s">
         <v>1035</v>
-      </c>
-      <c r="U163" s="155" t="s">
-        <v>1036</v>
       </c>
       <c r="V163" s="145"/>
       <c r="W163" s="153"/>
@@ -31276,33 +31274,33 @@
       </c>
       <c r="J164" s="140"/>
       <c r="K164" s="155" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L164" s="155" t="s">
         <v>1029</v>
       </c>
-      <c r="L164" s="155" t="s">
+      <c r="M164" s="155" t="s">
         <v>1030</v>
-      </c>
-      <c r="M164" s="155" t="s">
-        <v>1031</v>
       </c>
       <c r="N164" s="140"/>
       <c r="O164" s="155" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P164" s="155" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q164" s="155" t="s">
         <v>1032</v>
-      </c>
-      <c r="P164" s="155" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Q164" s="155" t="s">
-        <v>1033</v>
       </c>
       <c r="R164" s="140"/>
       <c r="S164" s="155" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T164" s="155" t="s">
         <v>1034</v>
       </c>
-      <c r="T164" s="155" t="s">
+      <c r="U164" s="155" t="s">
         <v>1035</v>
-      </c>
-      <c r="U164" s="155" t="s">
-        <v>1036</v>
       </c>
       <c r="V164" s="140"/>
       <c r="W164" s="153"/>
@@ -31699,7 +31697,7 @@
         <v>730</v>
       </c>
       <c r="M170" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N170" s="139">
         <v>1464</v>
@@ -31772,7 +31770,7 @@
         <v>730</v>
       </c>
       <c r="M171" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N171" s="140"/>
       <c r="O171" s="155" t="s">
@@ -31792,13 +31790,13 @@
       <c r="U171" s="155"/>
       <c r="V171" s="140"/>
       <c r="W171" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X171" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X171" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y171" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z171" s="140"/>
       <c r="AA171" s="153"/>
@@ -31877,49 +31875,49 @@
         <v>1131</v>
       </c>
       <c r="K173" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L173" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L173" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M173" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N173" s="139">
         <v>1264</v>
       </c>
       <c r="O173" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P173" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P173" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q173" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R173" s="139">
         <v>1268</v>
       </c>
       <c r="S173" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T173" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T173" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U173" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V173" s="139">
         <v>1275</v>
       </c>
       <c r="W173" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X173" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X173" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y173" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z173" s="145"/>
       <c r="AA173" s="153"/>
@@ -31956,43 +31954,43 @@
       </c>
       <c r="J174" s="140"/>
       <c r="K174" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L174" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L174" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M174" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N174" s="140"/>
       <c r="O174" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P174" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P174" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q174" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R174" s="140"/>
       <c r="S174" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T174" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T174" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U174" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V174" s="140"/>
       <c r="W174" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X174" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X174" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y174" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z174" s="140"/>
       <c r="AA174" s="153"/>
@@ -32031,49 +32029,49 @@
         <v>1503</v>
       </c>
       <c r="K175" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L175" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L175" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M175" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N175" s="139">
         <v>1652</v>
       </c>
       <c r="O175" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P175" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P175" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q175" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R175" s="139">
         <v>1697</v>
       </c>
       <c r="S175" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T175" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T175" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U175" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V175" s="139">
         <v>1782</v>
       </c>
       <c r="W175" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X175" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X175" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y175" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z175" s="145"/>
       <c r="AA175" s="153"/>
@@ -32110,43 +32108,43 @@
       </c>
       <c r="J176" s="140"/>
       <c r="K176" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="L176" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="L176" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="M176" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N176" s="140"/>
       <c r="O176" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="P176" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="P176" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Q176" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R176" s="140"/>
       <c r="S176" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="T176" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="T176" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="U176" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V176" s="140"/>
       <c r="W176" s="156" t="s">
+        <v>977</v>
+      </c>
+      <c r="X176" s="156" t="s">
         <v>978</v>
       </c>
-      <c r="X176" s="156" t="s">
-        <v>979</v>
-      </c>
       <c r="Y176" s="156" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z176" s="140"/>
       <c r="AA176" s="153"/>
@@ -32185,49 +32183,49 @@
         <v>1721</v>
       </c>
       <c r="K177" s="155" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L177" s="155" t="s">
         <v>1037</v>
       </c>
-      <c r="L177" s="155" t="s">
+      <c r="M177" s="105" t="s">
         <v>1038</v>
-      </c>
-      <c r="M177" s="105" t="s">
-        <v>1039</v>
       </c>
       <c r="N177" s="139">
         <v>1013</v>
       </c>
       <c r="O177" s="155" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P177" s="155" t="s">
         <v>1040</v>
       </c>
-      <c r="P177" s="155" t="s">
+      <c r="Q177" s="105" t="s">
         <v>1041</v>
-      </c>
-      <c r="Q177" s="105" t="s">
-        <v>1042</v>
       </c>
       <c r="R177" s="139">
         <v>1021</v>
       </c>
       <c r="S177" s="155" t="s">
+        <v>1152</v>
+      </c>
+      <c r="T177" s="155" t="s">
         <v>1153</v>
       </c>
-      <c r="T177" s="155" t="s">
+      <c r="U177" s="105" t="s">
         <v>1154</v>
-      </c>
-      <c r="U177" s="105" t="s">
-        <v>1155</v>
       </c>
       <c r="V177" s="139">
         <v>1676</v>
       </c>
       <c r="W177" s="155" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X177" s="155" t="s">
         <v>1043</v>
       </c>
-      <c r="X177" s="155" t="s">
+      <c r="Y177" s="105" t="s">
         <v>1044</v>
-      </c>
-      <c r="Y177" s="105" t="s">
-        <v>1045</v>
       </c>
       <c r="Z177" s="145"/>
       <c r="AA177" s="153"/>
@@ -32264,43 +32262,43 @@
       </c>
       <c r="J178" s="140"/>
       <c r="K178" s="155" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L178" s="155" t="s">
         <v>1037</v>
       </c>
-      <c r="L178" s="155" t="s">
+      <c r="M178" s="105" t="s">
         <v>1038</v>
-      </c>
-      <c r="M178" s="105" t="s">
-        <v>1039</v>
       </c>
       <c r="N178" s="140"/>
       <c r="O178" s="155" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P178" s="155" t="s">
         <v>1040</v>
       </c>
-      <c r="P178" s="155" t="s">
+      <c r="Q178" s="105" t="s">
         <v>1041</v>
-      </c>
-      <c r="Q178" s="105" t="s">
-        <v>1042</v>
       </c>
       <c r="R178" s="140"/>
       <c r="S178" s="155" t="s">
+        <v>1152</v>
+      </c>
+      <c r="T178" s="155" t="s">
         <v>1153</v>
       </c>
-      <c r="T178" s="155" t="s">
+      <c r="U178" s="105" t="s">
         <v>1154</v>
-      </c>
-      <c r="U178" s="105" t="s">
-        <v>1155</v>
       </c>
       <c r="V178" s="140"/>
       <c r="W178" s="155" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X178" s="155" t="s">
         <v>1043</v>
       </c>
-      <c r="X178" s="155" t="s">
+      <c r="Y178" s="105" t="s">
         <v>1044</v>
-      </c>
-      <c r="Y178" s="105" t="s">
-        <v>1045</v>
       </c>
       <c r="Z178" s="140"/>
       <c r="AA178" s="153"/>
@@ -51177,37 +51175,37 @@
     <hyperlink ref="M89" r:id="rId24" xr:uid="{59F4CC40-1C71-9449-907B-5F27B68C799F}"/>
     <hyperlink ref="Q89" r:id="rId25" xr:uid="{500CB1E3-F49D-1747-B5BD-438AD9EACE3E}"/>
     <hyperlink ref="U89" r:id="rId26" xr:uid="{9962288D-E605-5540-9D21-6165705718F5}"/>
-    <hyperlink ref="M96" r:id="rId27" xr:uid="{85BB1FDB-034B-E545-BB35-7C2FEA01AA2C}"/>
-    <hyperlink ref="Q96" r:id="rId28" xr:uid="{B7883191-3D35-FF4E-B379-B97E912A9673}"/>
-    <hyperlink ref="Y96" r:id="rId29" xr:uid="{0E06CFCD-9485-AB46-8B6D-D3042662D3B3}"/>
-    <hyperlink ref="M97" r:id="rId30" xr:uid="{EB165342-BFE1-AA4C-8075-D7FDA619C9F0}"/>
-    <hyperlink ref="Q97" r:id="rId31" xr:uid="{F864501A-D6A7-EA47-99B8-FB2CD30473AA}"/>
-    <hyperlink ref="Y97" r:id="rId32" xr:uid="{76E1D4A0-DE88-E249-9D88-C539C192FE25}"/>
-    <hyperlink ref="Y118" r:id="rId33" xr:uid="{1087DF14-3F32-2547-9E97-B0F7104BA205}"/>
-    <hyperlink ref="Y119" r:id="rId34" xr:uid="{46A336FC-F7DB-C94A-B73D-84D03A0E3FC2}"/>
-    <hyperlink ref="M123" r:id="rId35" xr:uid="{D2945BE2-EA34-F645-B776-95E5008A46C0}"/>
-    <hyperlink ref="U123" r:id="rId36" xr:uid="{7F4A66F8-3106-364A-9E9B-6E306462487C}"/>
-    <hyperlink ref="M124" r:id="rId37" xr:uid="{C02D58CF-35E7-B546-83D3-F7F8B15919FF}"/>
-    <hyperlink ref="U124" r:id="rId38" xr:uid="{6305C611-E113-8E4C-8F6C-52EF39FD4C03}"/>
-    <hyperlink ref="Y134" r:id="rId39" xr:uid="{935B1D85-D05A-6C4B-9CA4-DBA8BD974642}"/>
-    <hyperlink ref="M135" r:id="rId40" xr:uid="{E40C911C-E168-654D-915A-A8B1F7A12D51}"/>
-    <hyperlink ref="Q135" r:id="rId41" xr:uid="{7164CE95-B75C-6E4D-A0C5-7CECF3379700}"/>
-    <hyperlink ref="Y135" r:id="rId42" xr:uid="{A6902501-2DB9-534E-ACDF-8F93E3BD62EC}"/>
-    <hyperlink ref="M136" r:id="rId43" xr:uid="{13870895-4B80-2C46-98FA-7E792A692865}"/>
-    <hyperlink ref="Q136" r:id="rId44" xr:uid="{CC77DE7B-08C6-C740-B724-9B09538693EC}"/>
-    <hyperlink ref="U137" r:id="rId45" xr:uid="{709E96D2-0408-2446-A4D5-6431B337CEA4}"/>
-    <hyperlink ref="Q156" r:id="rId46" xr:uid="{8EC84695-6B67-2149-8C84-D25DC81A8C8C}"/>
-    <hyperlink ref="Y156" r:id="rId47" xr:uid="{E3F1577F-94DF-9D4C-9344-C20DB076FBF2}"/>
-    <hyperlink ref="Q157" r:id="rId48" xr:uid="{CCA65C98-A146-E345-B9A5-FE1AED5CC34F}"/>
-    <hyperlink ref="Y157" r:id="rId49" xr:uid="{A5551CE2-3162-F04B-81DD-9961E39321C6}"/>
-    <hyperlink ref="M177" r:id="rId50" xr:uid="{18038D07-137D-D746-8BD9-EB8F6AC525C4}"/>
-    <hyperlink ref="Q177" r:id="rId51" xr:uid="{C3A766F5-45B8-5545-B96D-BB1F61B546C5}"/>
-    <hyperlink ref="U177" r:id="rId52" xr:uid="{A1C92728-FF59-4941-A170-D325A156FEC0}"/>
-    <hyperlink ref="Y177" r:id="rId53" xr:uid="{3CD9D41D-FCE6-A545-996D-C598249F6071}"/>
-    <hyperlink ref="M178" r:id="rId54" xr:uid="{962CCA6D-3ED0-A14B-9B74-9C28D5D95784}"/>
-    <hyperlink ref="Q178" r:id="rId55" xr:uid="{FF8DB23E-D142-8449-B80C-B0CB5D32F5BB}"/>
-    <hyperlink ref="U178" r:id="rId56" xr:uid="{2289C213-2F5E-DC4D-86C5-EC53B5B6D1E4}"/>
-    <hyperlink ref="Y178" r:id="rId57" xr:uid="{5711FBBB-4BA2-C24D-8F9B-20265BB0C874}"/>
+    <hyperlink ref="Y96" r:id="rId27" xr:uid="{0E06CFCD-9485-AB46-8B6D-D3042662D3B3}"/>
+    <hyperlink ref="Y97" r:id="rId28" xr:uid="{76E1D4A0-DE88-E249-9D88-C539C192FE25}"/>
+    <hyperlink ref="Y118" r:id="rId29" xr:uid="{1087DF14-3F32-2547-9E97-B0F7104BA205}"/>
+    <hyperlink ref="Y119" r:id="rId30" xr:uid="{46A336FC-F7DB-C94A-B73D-84D03A0E3FC2}"/>
+    <hyperlink ref="M123" r:id="rId31" xr:uid="{D2945BE2-EA34-F645-B776-95E5008A46C0}"/>
+    <hyperlink ref="U123" r:id="rId32" xr:uid="{7F4A66F8-3106-364A-9E9B-6E306462487C}"/>
+    <hyperlink ref="M124" r:id="rId33" xr:uid="{C02D58CF-35E7-B546-83D3-F7F8B15919FF}"/>
+    <hyperlink ref="U124" r:id="rId34" xr:uid="{6305C611-E113-8E4C-8F6C-52EF39FD4C03}"/>
+    <hyperlink ref="Y134" r:id="rId35" xr:uid="{935B1D85-D05A-6C4B-9CA4-DBA8BD974642}"/>
+    <hyperlink ref="M135" r:id="rId36" xr:uid="{E40C911C-E168-654D-915A-A8B1F7A12D51}"/>
+    <hyperlink ref="Q135" r:id="rId37" xr:uid="{7164CE95-B75C-6E4D-A0C5-7CECF3379700}"/>
+    <hyperlink ref="Y135" r:id="rId38" xr:uid="{A6902501-2DB9-534E-ACDF-8F93E3BD62EC}"/>
+    <hyperlink ref="M136" r:id="rId39" xr:uid="{13870895-4B80-2C46-98FA-7E792A692865}"/>
+    <hyperlink ref="Q136" r:id="rId40" xr:uid="{CC77DE7B-08C6-C740-B724-9B09538693EC}"/>
+    <hyperlink ref="U137" r:id="rId41" xr:uid="{709E96D2-0408-2446-A4D5-6431B337CEA4}"/>
+    <hyperlink ref="Q156" r:id="rId42" xr:uid="{8EC84695-6B67-2149-8C84-D25DC81A8C8C}"/>
+    <hyperlink ref="Y156" r:id="rId43" xr:uid="{E3F1577F-94DF-9D4C-9344-C20DB076FBF2}"/>
+    <hyperlink ref="Q157" r:id="rId44" xr:uid="{CCA65C98-A146-E345-B9A5-FE1AED5CC34F}"/>
+    <hyperlink ref="Y157" r:id="rId45" xr:uid="{A5551CE2-3162-F04B-81DD-9961E39321C6}"/>
+    <hyperlink ref="M177" r:id="rId46" xr:uid="{18038D07-137D-D746-8BD9-EB8F6AC525C4}"/>
+    <hyperlink ref="Q177" r:id="rId47" xr:uid="{C3A766F5-45B8-5545-B96D-BB1F61B546C5}"/>
+    <hyperlink ref="U177" r:id="rId48" xr:uid="{A1C92728-FF59-4941-A170-D325A156FEC0}"/>
+    <hyperlink ref="Y177" r:id="rId49" xr:uid="{3CD9D41D-FCE6-A545-996D-C598249F6071}"/>
+    <hyperlink ref="M178" r:id="rId50" xr:uid="{962CCA6D-3ED0-A14B-9B74-9C28D5D95784}"/>
+    <hyperlink ref="Q178" r:id="rId51" xr:uid="{FF8DB23E-D142-8449-B80C-B0CB5D32F5BB}"/>
+    <hyperlink ref="U178" r:id="rId52" xr:uid="{2289C213-2F5E-DC4D-86C5-EC53B5B6D1E4}"/>
+    <hyperlink ref="Y178" r:id="rId53" xr:uid="{5711FBBB-4BA2-C24D-8F9B-20265BB0C874}"/>
+    <hyperlink ref="M96" r:id="rId54" xr:uid="{3CE710AD-7AA1-A149-8CCD-B41B6224C0E0}"/>
+    <hyperlink ref="Q96" r:id="rId55" xr:uid="{68FF9E0C-687A-5841-B9AA-2E99DDFFE0B4}"/>
+    <hyperlink ref="M97" r:id="rId56" xr:uid="{D2E4D9B4-197A-5C42-8D3C-096DE977C091}"/>
+    <hyperlink ref="Q97" r:id="rId57" xr:uid="{201A9AF0-3291-254C-8C8E-1FD99CB80875}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
